--- a/12_40CoreBench.xlsx
+++ b/12_40CoreBench.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="smithwa" sheetId="12" r:id="rId1"/>
     <sheet name="kdtree" sheetId="5" r:id="rId2"/>
-    <sheet name="nab" sheetId="1" r:id="rId3"/>
-    <sheet name="botsspar" sheetId="8" r:id="rId4"/>
+    <sheet name="botsspar" sheetId="8" r:id="rId3"/>
+    <sheet name="nab" sheetId="1" r:id="rId4"/>
     <sheet name="botsalgn" sheetId="7" r:id="rId5"/>
     <sheet name="fma3d" sheetId="9" r:id="rId6"/>
     <sheet name="imagick" sheetId="11" r:id="rId7"/>
@@ -1304,11 +1304,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="165408768"/>
-        <c:axId val="165410304"/>
+        <c:axId val="182025216"/>
+        <c:axId val="182039296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165408768"/>
+        <c:axId val="182025216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,7 +1318,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165410304"/>
+        <c:crossAx val="182039296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1326,7 +1326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165410304"/>
+        <c:axId val="182039296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,7 +1337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165408768"/>
+        <c:crossAx val="182025216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1974,11 +1974,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="195624960"/>
-        <c:axId val="195626496"/>
+        <c:axId val="182283264"/>
+        <c:axId val="182305536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195624960"/>
+        <c:axId val="182283264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1988,7 +1988,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195626496"/>
+        <c:crossAx val="182305536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1996,7 +1996,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195626496"/>
+        <c:axId val="182305536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,7 +2007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195624960"/>
+        <c:crossAx val="182283264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2643,11 +2643,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195666304"/>
-        <c:axId val="195667840"/>
+        <c:axId val="182603136"/>
+        <c:axId val="182609024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195666304"/>
+        <c:axId val="182603136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2656,7 +2656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195667840"/>
+        <c:crossAx val="182609024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2664,7 +2664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195667840"/>
+        <c:axId val="182609024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2675,7 +2675,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195666304"/>
+        <c:crossAx val="182603136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3191,11 +3191,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195388160"/>
-        <c:axId val="195389696"/>
+        <c:axId val="182657024"/>
+        <c:axId val="182658560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195388160"/>
+        <c:axId val="182657024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3204,7 +3204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195389696"/>
+        <c:crossAx val="182658560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3212,7 +3212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195389696"/>
+        <c:axId val="182658560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,7 +3223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195388160"/>
+        <c:crossAx val="182657024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3965,11 +3965,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195417216"/>
-        <c:axId val="195418752"/>
+        <c:axId val="182683520"/>
+        <c:axId val="182685056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195417216"/>
+        <c:axId val="182683520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3978,7 +3978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195418752"/>
+        <c:crossAx val="182685056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3986,7 +3986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195418752"/>
+        <c:axId val="182685056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3997,7 +3997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195417216"/>
+        <c:crossAx val="182683520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4533,11 +4533,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195590016"/>
-        <c:axId val="195591552"/>
+        <c:axId val="182393856"/>
+        <c:axId val="182403840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195590016"/>
+        <c:axId val="182393856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4546,7 +4546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195591552"/>
+        <c:crossAx val="182403840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4554,7 +4554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195591552"/>
+        <c:axId val="182403840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4565,7 +4565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195590016"/>
+        <c:crossAx val="182393856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4869,11 +4869,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="195486080"/>
-        <c:axId val="195488000"/>
+        <c:axId val="180917760"/>
+        <c:axId val="180919680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="195486080"/>
+        <c:axId val="180917760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4911,7 +4911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195488000"/>
+        <c:crossAx val="180919680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -4919,7 +4919,7 @@
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="195488000"/>
+        <c:axId val="180919680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="24"/>
@@ -4942,7 +4942,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195486080"/>
+        <c:crossAx val="180917760"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5486,7 +5486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -8310,7 +8310,7 @@
   <dimension ref="A2:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8488,6 +8488,16 @@
       <c r="A12">
         <v>6</v>
       </c>
+      <c r="B12">
+        <v>8731</v>
+      </c>
+      <c r="C12">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(B7/B12)</f>
+        <v>5.4629481159088309</v>
+      </c>
       <c r="F12">
         <v>6</v>
       </c>
@@ -8496,6 +8506,16 @@
       <c r="A13">
         <v>7</v>
       </c>
+      <c r="B13">
+        <v>7493</v>
+      </c>
+      <c r="C13">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(B7/B13)</f>
+        <v>6.3655411717603094</v>
+      </c>
       <c r="F13">
         <v>7</v>
       </c>
@@ -8504,6 +8524,16 @@
       <c r="A14">
         <v>8</v>
       </c>
+      <c r="B14">
+        <v>6640</v>
+      </c>
+      <c r="C14">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(B7/B14)</f>
+        <v>7.1832831325301205</v>
+      </c>
       <c r="F14">
         <v>8</v>
       </c>
@@ -8513,14 +8543,15 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <v>6070</v>
+        <f>AVERAGE(6070,6062)</f>
+        <v>6066</v>
       </c>
       <c r="C15">
-        <v>0.78100000000000003</v>
+        <v>0.78149999999999997</v>
       </c>
       <c r="D15">
         <f>AVERAGE(B7/B15)</f>
-        <v>7.8578253706754531</v>
+        <v>7.8630069238377844</v>
       </c>
       <c r="F15">
         <v>9</v>
@@ -8531,14 +8562,16 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>5616</v>
+        <f>AVERAGE(5616,5563)</f>
+        <v>5589.5</v>
       </c>
       <c r="C16">
-        <v>0.84399999999999997</v>
+        <f>AVERAGE(0.844,0.852)</f>
+        <v>0.84799999999999998</v>
       </c>
       <c r="D16">
         <f>AVERAGE(B7/B16)</f>
-        <v>8.4930555555555554</v>
+        <v>8.5333214062080689</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -8584,6 +8617,16 @@
       <c r="A19">
         <v>13</v>
       </c>
+      <c r="B19">
+        <v>5248</v>
+      </c>
+      <c r="C19">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(B7/B19)</f>
+        <v>9.0886051829268286</v>
+      </c>
       <c r="F19">
         <v>13</v>
       </c>
@@ -8592,6 +8635,16 @@
       <c r="A20">
         <v>14</v>
       </c>
+      <c r="B20">
+        <v>5272</v>
+      </c>
+      <c r="C20">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(B7/B20)</f>
+        <v>9.047230652503794</v>
+      </c>
       <c r="F20">
         <v>14</v>
       </c>
@@ -8600,6 +8653,16 @@
       <c r="A21">
         <v>15</v>
       </c>
+      <c r="B21">
+        <v>5019</v>
+      </c>
+      <c r="C21">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE(B7/B21)</f>
+        <v>9.5032875074716081</v>
+      </c>
       <c r="F21">
         <v>15</v>
       </c>
@@ -8608,6 +8671,16 @@
       <c r="A22">
         <v>16</v>
       </c>
+      <c r="B22">
+        <v>4957</v>
+      </c>
+      <c r="C22">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(B7/B22)</f>
+        <v>9.6221504942505547</v>
+      </c>
       <c r="F22">
         <v>16</v>
       </c>
@@ -8616,6 +8689,16 @@
       <c r="A23">
         <v>17</v>
       </c>
+      <c r="B23">
+        <v>4751</v>
+      </c>
+      <c r="C23">
+        <v>0.998</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(B7/B23)</f>
+        <v>10.039360134708483</v>
+      </c>
       <c r="F23">
         <v>17</v>
       </c>
@@ -8624,6 +8707,16 @@
       <c r="A24">
         <v>18</v>
       </c>
+      <c r="B24">
+        <v>4682</v>
+      </c>
+      <c r="C24">
+        <v>1.01</v>
+      </c>
+      <c r="D24">
+        <f>AVERAGE(B7/B24)</f>
+        <v>10.187313114053824</v>
+      </c>
       <c r="F24">
         <v>18</v>
       </c>
@@ -8632,6 +8725,16 @@
       <c r="A25">
         <v>19</v>
       </c>
+      <c r="B25">
+        <v>4544</v>
+      </c>
+      <c r="C25">
+        <v>1.04</v>
+      </c>
+      <c r="D25">
+        <f>AVERAGE(B7/B25)</f>
+        <v>10.496698943661972</v>
+      </c>
       <c r="F25">
         <v>19</v>
       </c>
@@ -8640,6 +8743,16 @@
       <c r="A26">
         <v>20</v>
       </c>
+      <c r="B26">
+        <v>4458</v>
+      </c>
+      <c r="C26">
+        <v>1.06</v>
+      </c>
+      <c r="D26">
+        <f>AVERAGE(B7/B26)</f>
+        <v>10.699192462987886</v>
+      </c>
       <c r="F26">
         <v>20</v>
       </c>
@@ -8648,6 +8761,16 @@
       <c r="A27">
         <v>21</v>
       </c>
+      <c r="B27">
+        <v>4369</v>
+      </c>
+      <c r="C27">
+        <v>1.08</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(B7/B27)</f>
+        <v>10.917143511100939</v>
+      </c>
       <c r="F27">
         <v>21</v>
       </c>
@@ -8656,6 +8779,16 @@
       <c r="A28">
         <v>22</v>
       </c>
+      <c r="B28">
+        <v>4304</v>
+      </c>
+      <c r="C28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(B7/B28)</f>
+        <v>11.082016728624536</v>
+      </c>
       <c r="F28">
         <v>22</v>
       </c>
@@ -8664,6 +8797,16 @@
       <c r="A29">
         <v>23</v>
       </c>
+      <c r="B29">
+        <v>4189</v>
+      </c>
+      <c r="C29">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(B7/B29)</f>
+        <v>11.386249701599427</v>
+      </c>
       <c r="F29">
         <v>23</v>
       </c>
@@ -8673,14 +8816,15 @@
         <v>24</v>
       </c>
       <c r="B30">
-        <v>4144</v>
+        <f>AVERAGE(4144,4130)</f>
+        <v>4137</v>
       </c>
       <c r="C30">
-        <v>1.1399999999999999</v>
+        <v>1.145</v>
       </c>
       <c r="D30">
         <f>AVERAGE(B7/B30)</f>
-        <v>11.509893822393822</v>
+        <v>11.529369108049311</v>
       </c>
       <c r="F30">
         <v>24</v>
@@ -14820,6 +14964,1324 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:I96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>28227</v>
+      </c>
+      <c r="C7">
+        <v>0.186</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>38671</v>
+      </c>
+      <c r="H7">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>14337</v>
+      </c>
+      <c r="C8">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(B7/B8)</f>
+        <v>1.9688219292739066</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>19467</v>
+      </c>
+      <c r="H8">
+        <v>0.27</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(G7/G8)</f>
+        <v>1.9864899573637438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>9697</v>
+      </c>
+      <c r="C9">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE(B7/B9)</f>
+        <v>2.91090027843663</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>13064</v>
+      </c>
+      <c r="H9">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGE(G7/G9)</f>
+        <v>2.9601194121249232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>7285</v>
+      </c>
+      <c r="C10">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="D10">
+        <f>AVERAGE(B7/B10)</f>
+        <v>3.8746739876458478</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>9934</v>
+      </c>
+      <c r="H10">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="I10">
+        <f>AVERAGE(G7/G10)</f>
+        <v>3.8927924300382526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>5950</v>
+      </c>
+      <c r="C11">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(B7/B11)</f>
+        <v>4.744033613445378</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <f>AVERAGE(8013,8013)</f>
+        <v>8013</v>
+      </c>
+      <c r="H11">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGE(G7/G11)</f>
+        <v>4.82603269686759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>4990</v>
+      </c>
+      <c r="C12">
+        <v>1.05</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(B7/B12)</f>
+        <v>5.6567134268537078</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>6671</v>
+      </c>
+      <c r="H12">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGE(G7/G12)</f>
+        <v>5.7968820266826562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>4299</v>
+      </c>
+      <c r="C13">
+        <v>1.22</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(B7/B13)</f>
+        <v>6.5659455687369155</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>5698</v>
+      </c>
+      <c r="H13">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGE(G7/G13)</f>
+        <v>6.7867672867672866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>3479</v>
+      </c>
+      <c r="C14">
+        <v>2.02</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(B7/B14)</f>
+        <v>8.113538373095718</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>4976</v>
+      </c>
+      <c r="H14">
+        <v>1.06</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(G7/G14)</f>
+        <v>7.771503215434084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>3405</v>
+      </c>
+      <c r="C15">
+        <v>1.54</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(B7/B15)</f>
+        <v>8.2898678414096914</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>4437</v>
+      </c>
+      <c r="H15">
+        <v>1.18</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGE(G7/G15)</f>
+        <v>8.7155735857561414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>3096</v>
+      </c>
+      <c r="C16">
+        <v>1.7</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(B7/B16)</f>
+        <v>9.1172480620155039</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>3991</v>
+      </c>
+      <c r="H16">
+        <v>1.32</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(G7/G16)</f>
+        <v>9.6895514908544218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>2876</v>
+      </c>
+      <c r="C17">
+        <v>1.83</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(B7/B17)</f>
+        <v>9.8146731571627264</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>3626</v>
+      </c>
+      <c r="H17">
+        <v>1.45</v>
+      </c>
+      <c r="I17">
+        <f>AVERAGE(G7/G17)</f>
+        <v>10.66492002206288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>2731</v>
+      </c>
+      <c r="C18">
+        <v>1.92</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(B7/B18)</f>
+        <v>10.335774441596485</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>3324</v>
+      </c>
+      <c r="H18">
+        <v>1.58</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGE(G7/G18)</f>
+        <v>11.63387484957882</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>2725</v>
+      </c>
+      <c r="C19">
+        <v>1.93</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(B7/B19)</f>
+        <v>10.358532110091742</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>3074</v>
+      </c>
+      <c r="H19">
+        <v>1.71</v>
+      </c>
+      <c r="I19">
+        <f>AVERAGE(G7/G19)</f>
+        <v>12.580026024723487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>2733</v>
+      </c>
+      <c r="C20">
+        <v>1.92</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(B7/B20)</f>
+        <v>10.32821075740944</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>2858</v>
+      </c>
+      <c r="H20">
+        <v>1.84</v>
+      </c>
+      <c r="I20">
+        <f>AVERAGE(G7/G20)</f>
+        <v>13.530790762771169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>2720</v>
+      </c>
+      <c r="C21">
+        <v>1.93</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE(B7/B21)</f>
+        <v>10.377573529411764</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>2671</v>
+      </c>
+      <c r="H21">
+        <v>1.97</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(G7/G21)</f>
+        <v>14.478098090602771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>2724</v>
+      </c>
+      <c r="C22">
+        <v>1.93</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(B7/B22)</f>
+        <v>10.362334801762115</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(2503,2506)</f>
+        <v>2504.5</v>
+      </c>
+      <c r="H22">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="I22">
+        <f>AVERAGE(G7/G22)</f>
+        <v>15.44060690756638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>2704</v>
+      </c>
+      <c r="C23">
+        <v>1.94</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(B7/B23)</f>
+        <v>10.438979289940828</v>
+      </c>
+      <c r="F23">
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <v>2361</v>
+      </c>
+      <c r="H23">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I23">
+        <f>AVERAGE(G7/G23)</f>
+        <v>16.379076662431174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>2694</v>
+      </c>
+      <c r="C24">
+        <v>1.95</v>
+      </c>
+      <c r="D24">
+        <f>AVERAGE(B7/B24)</f>
+        <v>10.477728285077951</v>
+      </c>
+      <c r="F24">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <v>2235</v>
+      </c>
+      <c r="H24">
+        <v>2.35</v>
+      </c>
+      <c r="I24">
+        <f>AVERAGE(G7/G24)</f>
+        <v>17.302460850111856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>2691</v>
+      </c>
+      <c r="C25">
+        <v>1.95</v>
+      </c>
+      <c r="D25">
+        <f>AVERAGE(B7/B25)</f>
+        <v>10.489409141583055</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>2119</v>
+      </c>
+      <c r="H25">
+        <v>2.48</v>
+      </c>
+      <c r="I25">
+        <f>AVERAGE(G7/G25)</f>
+        <v>18.249646059462009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>2710</v>
+      </c>
+      <c r="C26">
+        <v>1.94</v>
+      </c>
+      <c r="D26">
+        <f>AVERAGE(B7/B26)</f>
+        <v>10.415867158671587</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>2017</v>
+      </c>
+      <c r="H26">
+        <v>2.6</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(G7/G26)</f>
+        <v>19.172533465542884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>2734</v>
+      </c>
+      <c r="C27">
+        <v>1.92</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(B7/B27)</f>
+        <v>10.324433065106073</v>
+      </c>
+      <c r="F27">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>1925</v>
+      </c>
+      <c r="H27">
+        <v>2.73</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(G7/G27)</f>
+        <v>20.08883116883117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>2768</v>
+      </c>
+      <c r="C28">
+        <v>1.9</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(B7/B28)</f>
+        <v>10.197615606936417</v>
+      </c>
+      <c r="F28">
+        <v>22</v>
+      </c>
+      <c r="G28">
+        <v>1846</v>
+      </c>
+      <c r="H28">
+        <v>2.84</v>
+      </c>
+      <c r="I28">
+        <f>AVERAGE(G7/G28)</f>
+        <v>20.948537378114843</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>2829</v>
+      </c>
+      <c r="C29">
+        <v>1.86</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(B7/B29)</f>
+        <v>9.9777306468716862</v>
+      </c>
+      <c r="F29">
+        <v>23</v>
+      </c>
+      <c r="G29">
+        <v>1769</v>
+      </c>
+      <c r="H29">
+        <v>2.97</v>
+      </c>
+      <c r="I29">
+        <f>AVERAGE(G7/G29)</f>
+        <v>21.860373092142453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>2899</v>
+      </c>
+      <c r="C30">
+        <v>1.81</v>
+      </c>
+      <c r="D30">
+        <f>AVERAGE(B7/B30)</f>
+        <v>9.736805795101759</v>
+      </c>
+      <c r="F30">
+        <v>24</v>
+      </c>
+      <c r="G30">
+        <v>1704</v>
+      </c>
+      <c r="H30">
+        <v>3.08</v>
+      </c>
+      <c r="I30">
+        <f>AVERAGE(G7/G30)</f>
+        <v>22.69424882629108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>2910</v>
+      </c>
+      <c r="C31">
+        <v>1.8</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(B7/B31)</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F31">
+        <v>25</v>
+      </c>
+      <c r="G31">
+        <f>AVERAGE(1640,1641)</f>
+        <v>1640.5</v>
+      </c>
+      <c r="H31">
+        <v>3.2</v>
+      </c>
+      <c r="I31">
+        <f>AVERAGE(G7/G31)</f>
+        <v>23.572691252666871</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>2914</v>
+      </c>
+      <c r="C32">
+        <v>1.8</v>
+      </c>
+      <c r="D32">
+        <f>AVERAGE(B7/B32)</f>
+        <v>9.6866849691146193</v>
+      </c>
+      <c r="F32">
+        <v>26</v>
+      </c>
+      <c r="G32">
+        <v>1590</v>
+      </c>
+      <c r="H32">
+        <v>3.3</v>
+      </c>
+      <c r="I32">
+        <f>AVERAGE(G7/G32)</f>
+        <v>24.321383647798744</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>2914</v>
+      </c>
+      <c r="C33">
+        <v>1.8</v>
+      </c>
+      <c r="D33">
+        <f>AVERAGE(B7/B33)</f>
+        <v>9.6866849691146193</v>
+      </c>
+      <c r="F33">
+        <v>27</v>
+      </c>
+      <c r="G33">
+        <v>1538</v>
+      </c>
+      <c r="H33">
+        <v>3.41</v>
+      </c>
+      <c r="I33">
+        <f>AVERAGE(G7/G33)</f>
+        <v>25.143693107932378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>2925</v>
+      </c>
+      <c r="C34">
+        <v>1.8</v>
+      </c>
+      <c r="D34">
+        <f>AVERAGE(B7/B34)</f>
+        <v>9.6502564102564108</v>
+      </c>
+      <c r="F34">
+        <v>28</v>
+      </c>
+      <c r="G34">
+        <v>1500</v>
+      </c>
+      <c r="H34">
+        <v>3.5</v>
+      </c>
+      <c r="I34">
+        <f>AVERAGE(G7/G34)</f>
+        <v>25.780666666666665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>2931</v>
+      </c>
+      <c r="C35">
+        <v>1.79</v>
+      </c>
+      <c r="D35">
+        <f>AVERAGE(B7/B35)</f>
+        <v>9.630501535312181</v>
+      </c>
+      <c r="F35">
+        <v>29</v>
+      </c>
+      <c r="G35">
+        <v>1473</v>
+      </c>
+      <c r="H35">
+        <v>3.56</v>
+      </c>
+      <c r="I35">
+        <f>AVERAGE(G7/G35)</f>
+        <v>26.253224711473184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>2936</v>
+      </c>
+      <c r="C36">
+        <v>1.79</v>
+      </c>
+      <c r="D36">
+        <f>AVERAGE(B7/B36)</f>
+        <v>9.6141008174386915</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <v>1445</v>
+      </c>
+      <c r="H36">
+        <v>3.63</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(G7/G36)</f>
+        <v>26.761937716262977</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>31</v>
+      </c>
+      <c r="G37">
+        <v>1417</v>
+      </c>
+      <c r="H37">
+        <v>3.71</v>
+      </c>
+      <c r="I37">
+        <f>AVERAGE(G7/G37)</f>
+        <v>27.29075511644319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <f>AVERAGE(1379,1376)</f>
+        <v>1377.5</v>
+      </c>
+      <c r="H38">
+        <v>3.81</v>
+      </c>
+      <c r="I38">
+        <f>AVERAGE(G7/G38)</f>
+        <v>28.073321234119781</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>33</v>
+      </c>
+      <c r="G39">
+        <v>1353</v>
+      </c>
+      <c r="H39">
+        <v>3.88</v>
+      </c>
+      <c r="I39">
+        <f>AVERAGE(G7/G39)</f>
+        <v>28.581670362158167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>39</v>
+      </c>
+      <c r="G45">
+        <v>1272</v>
+      </c>
+      <c r="H45">
+        <v>4.13</v>
+      </c>
+      <c r="I45">
+        <f>AVERAGE(G7/G45)</f>
+        <v>30.401729559748428</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>40</v>
+      </c>
+      <c r="G46">
+        <v>1253</v>
+      </c>
+      <c r="H46">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="I46">
+        <f>AVERAGE(G7/G46)</f>
+        <v>30.862729449321627</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>50</v>
+      </c>
+      <c r="G56">
+        <v>1155</v>
+      </c>
+      <c r="H56">
+        <v>4.55</v>
+      </c>
+      <c r="I56">
+        <f>AVERAGE(G7/G56)</f>
+        <v>33.481385281385279</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>64</v>
+      </c>
+      <c r="G70">
+        <v>1141</v>
+      </c>
+      <c r="H70">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I70">
+        <f>AVERAGE(G7/G70)</f>
+        <v>33.892199824715163</v>
+      </c>
+    </row>
+    <row r="71" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>79</v>
+      </c>
+      <c r="G85">
+        <v>1147</v>
+      </c>
+      <c r="H85">
+        <v>4.58</v>
+      </c>
+      <c r="I85">
+        <f>AVERAGE(G7/G85)</f>
+        <v>33.714908456843943</v>
+      </c>
+    </row>
+    <row r="86" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>80</v>
+      </c>
+      <c r="G86">
+        <v>1146</v>
+      </c>
+      <c r="H86">
+        <v>4.58</v>
+      </c>
+      <c r="I86">
+        <f>AVERAGE(G7/G86)</f>
+        <v>33.744328097731241</v>
+      </c>
+    </row>
+    <row r="87" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>81</v>
+      </c>
+      <c r="G87">
+        <v>1154</v>
+      </c>
+      <c r="H87">
+        <v>4.55</v>
+      </c>
+      <c r="I87">
+        <f>AVERAGE(G7/G87)</f>
+        <v>33.510398613518198</v>
+      </c>
+    </row>
+    <row r="88" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>90</v>
+      </c>
+      <c r="G96">
+        <v>1149</v>
+      </c>
+      <c r="H96">
+        <v>4.57</v>
+      </c>
+      <c r="I96">
+        <f>AVERAGE(G7/G96)</f>
+        <v>33.656222802436901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -15886,1127 +17348,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I102"/>
-  <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>28227</v>
-      </c>
-      <c r="C7">
-        <v>0.186</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>38671</v>
-      </c>
-      <c r="H7">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>14337</v>
-      </c>
-      <c r="C8">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="D8">
-        <f>AVERAGE(B7/B8)</f>
-        <v>1.9688219292739066</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>19467</v>
-      </c>
-      <c r="H8">
-        <v>0.27</v>
-      </c>
-      <c r="I8">
-        <f>AVERAGE(G7/G8)</f>
-        <v>1.9864899573637438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>9697</v>
-      </c>
-      <c r="C9">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="D9">
-        <f>AVERAGE(B7/B9)</f>
-        <v>2.91090027843663</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>13064</v>
-      </c>
-      <c r="H9">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="I9">
-        <f>AVERAGE(G7/G9)</f>
-        <v>2.9601194121249232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>7285</v>
-      </c>
-      <c r="C10">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="D10">
-        <f>AVERAGE(B7/B10)</f>
-        <v>3.8746739876458478</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>9934</v>
-      </c>
-      <c r="H10">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="I10">
-        <f>AVERAGE(G7/G10)</f>
-        <v>3.8927924300382526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>5950</v>
-      </c>
-      <c r="C11">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="D11">
-        <f>AVERAGE(B7/B11)</f>
-        <v>4.744033613445378</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <f>AVERAGE(8013,8013)</f>
-        <v>8013</v>
-      </c>
-      <c r="H11">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="I11">
-        <f>AVERAGE(G7/G11)</f>
-        <v>4.82603269686759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>4990</v>
-      </c>
-      <c r="C12">
-        <v>1.05</v>
-      </c>
-      <c r="D12">
-        <f>AVERAGE(B7/B12)</f>
-        <v>5.6567134268537078</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>6671</v>
-      </c>
-      <c r="H12">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="I12">
-        <f>AVERAGE(G7/G12)</f>
-        <v>5.7968820266826562</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>4299</v>
-      </c>
-      <c r="C13">
-        <v>1.22</v>
-      </c>
-      <c r="D13">
-        <f>AVERAGE(B7/B13)</f>
-        <v>6.5659455687369155</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>3479</v>
-      </c>
-      <c r="C14">
-        <v>2.02</v>
-      </c>
-      <c r="D14">
-        <f>AVERAGE(B7/B14)</f>
-        <v>8.113538373095718</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-      <c r="G14">
-        <v>4976</v>
-      </c>
-      <c r="H14">
-        <v>1.06</v>
-      </c>
-      <c r="I14">
-        <f>AVERAGE(G7/G14)</f>
-        <v>7.771503215434084</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>3405</v>
-      </c>
-      <c r="C15">
-        <v>1.54</v>
-      </c>
-      <c r="D15">
-        <f>AVERAGE(B7/B15)</f>
-        <v>8.2898678414096914</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>3096</v>
-      </c>
-      <c r="C16">
-        <v>1.7</v>
-      </c>
-      <c r="D16">
-        <f>AVERAGE(B7/B16)</f>
-        <v>9.1172480620155039</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>2876</v>
-      </c>
-      <c r="C17">
-        <v>1.83</v>
-      </c>
-      <c r="D17">
-        <f>AVERAGE(B7/B17)</f>
-        <v>9.8146731571627264</v>
-      </c>
-      <c r="F17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>2731</v>
-      </c>
-      <c r="C18">
-        <v>1.92</v>
-      </c>
-      <c r="D18">
-        <f>AVERAGE(B7/B18)</f>
-        <v>10.335774441596485</v>
-      </c>
-      <c r="F18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>2725</v>
-      </c>
-      <c r="C19">
-        <v>1.93</v>
-      </c>
-      <c r="D19">
-        <f>AVERAGE(B7/B19)</f>
-        <v>10.358532110091742</v>
-      </c>
-      <c r="F19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>2733</v>
-      </c>
-      <c r="C20">
-        <v>1.92</v>
-      </c>
-      <c r="D20">
-        <f>AVERAGE(B7/B20)</f>
-        <v>10.32821075740944</v>
-      </c>
-      <c r="F20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>2720</v>
-      </c>
-      <c r="C21">
-        <v>1.93</v>
-      </c>
-      <c r="D21">
-        <f>AVERAGE(B7/B21)</f>
-        <v>10.377573529411764</v>
-      </c>
-      <c r="F21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>2724</v>
-      </c>
-      <c r="C22">
-        <v>1.93</v>
-      </c>
-      <c r="D22">
-        <f>AVERAGE(B7/B22)</f>
-        <v>10.362334801762115</v>
-      </c>
-      <c r="F22">
-        <v>16</v>
-      </c>
-      <c r="G22">
-        <v>2503</v>
-      </c>
-      <c r="H22">
-        <v>2.1</v>
-      </c>
-      <c r="I22">
-        <f>AVERAGE(G7/G22)</f>
-        <v>15.449860167798642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>2704</v>
-      </c>
-      <c r="C23">
-        <v>1.94</v>
-      </c>
-      <c r="D23">
-        <f>AVERAGE(B7/B23)</f>
-        <v>10.438979289940828</v>
-      </c>
-      <c r="F23">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>2694</v>
-      </c>
-      <c r="C24">
-        <v>1.95</v>
-      </c>
-      <c r="D24">
-        <f>AVERAGE(B7/B24)</f>
-        <v>10.477728285077951</v>
-      </c>
-      <c r="F24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>2691</v>
-      </c>
-      <c r="C25">
-        <v>1.95</v>
-      </c>
-      <c r="D25">
-        <f>AVERAGE(B7/B25)</f>
-        <v>10.489409141583055</v>
-      </c>
-      <c r="F25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>2710</v>
-      </c>
-      <c r="C26">
-        <v>1.94</v>
-      </c>
-      <c r="D26">
-        <f>AVERAGE(B7/B26)</f>
-        <v>10.415867158671587</v>
-      </c>
-      <c r="F26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>21</v>
-      </c>
-      <c r="B27">
-        <v>2734</v>
-      </c>
-      <c r="C27">
-        <v>1.92</v>
-      </c>
-      <c r="D27">
-        <f>AVERAGE(B7/B27)</f>
-        <v>10.324433065106073</v>
-      </c>
-      <c r="F27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>22</v>
-      </c>
-      <c r="B28">
-        <v>2768</v>
-      </c>
-      <c r="C28">
-        <v>1.9</v>
-      </c>
-      <c r="D28">
-        <f>AVERAGE(B7/B28)</f>
-        <v>10.197615606936417</v>
-      </c>
-      <c r="F28">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>23</v>
-      </c>
-      <c r="B29">
-        <v>2829</v>
-      </c>
-      <c r="C29">
-        <v>1.86</v>
-      </c>
-      <c r="D29">
-        <f>AVERAGE(B7/B29)</f>
-        <v>9.9777306468716862</v>
-      </c>
-      <c r="F29">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>24</v>
-      </c>
-      <c r="B30">
-        <v>2899</v>
-      </c>
-      <c r="C30">
-        <v>1.81</v>
-      </c>
-      <c r="D30">
-        <f>AVERAGE(B7/B30)</f>
-        <v>9.736805795101759</v>
-      </c>
-      <c r="F30">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>25</v>
-      </c>
-      <c r="B31">
-        <v>2910</v>
-      </c>
-      <c r="C31">
-        <v>1.8</v>
-      </c>
-      <c r="D31">
-        <f>AVERAGE(B7/B31)</f>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F31">
-        <v>25</v>
-      </c>
-      <c r="G31">
-        <v>1640</v>
-      </c>
-      <c r="H31">
-        <v>3.2</v>
-      </c>
-      <c r="I31">
-        <f>AVERAGE(G7/G31)</f>
-        <v>23.579878048780486</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>26</v>
-      </c>
-      <c r="B32">
-        <v>2914</v>
-      </c>
-      <c r="C32">
-        <v>1.8</v>
-      </c>
-      <c r="D32">
-        <f>AVERAGE(B7/B32)</f>
-        <v>9.6866849691146193</v>
-      </c>
-      <c r="F32">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>27</v>
-      </c>
-      <c r="B33">
-        <v>2914</v>
-      </c>
-      <c r="C33">
-        <v>1.8</v>
-      </c>
-      <c r="D33">
-        <f>AVERAGE(B7/B33)</f>
-        <v>9.6866849691146193</v>
-      </c>
-      <c r="F33">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>28</v>
-      </c>
-      <c r="B34">
-        <v>2925</v>
-      </c>
-      <c r="C34">
-        <v>1.8</v>
-      </c>
-      <c r="D34">
-        <f>AVERAGE(B7/B34)</f>
-        <v>9.6502564102564108</v>
-      </c>
-      <c r="F34">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>29</v>
-      </c>
-      <c r="B35">
-        <v>2931</v>
-      </c>
-      <c r="C35">
-        <v>1.79</v>
-      </c>
-      <c r="D35">
-        <f>AVERAGE(B7/B35)</f>
-        <v>9.630501535312181</v>
-      </c>
-      <c r="F35">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>30</v>
-      </c>
-      <c r="B36">
-        <v>2936</v>
-      </c>
-      <c r="C36">
-        <v>1.79</v>
-      </c>
-      <c r="D36">
-        <f>AVERAGE(B7/B36)</f>
-        <v>9.6141008174386915</v>
-      </c>
-      <c r="F36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F37">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F38">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F39">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F40">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F41">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F43">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F44">
-        <v>32</v>
-      </c>
-      <c r="G44">
-        <v>1379</v>
-      </c>
-      <c r="H44">
-        <v>3.81</v>
-      </c>
-      <c r="I44">
-        <f>AVERAGE(G7/G44)</f>
-        <v>28.042784626540971</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F45">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F46">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F47">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F48">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F49">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F50">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F51">
-        <v>39</v>
-      </c>
-      <c r="G51">
-        <v>1272</v>
-      </c>
-      <c r="H51">
-        <v>4.13</v>
-      </c>
-      <c r="I51">
-        <f>AVERAGE(G7/G51)</f>
-        <v>30.401729559748428</v>
-      </c>
-    </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F52">
-        <v>40</v>
-      </c>
-      <c r="G52">
-        <v>1253</v>
-      </c>
-      <c r="H52">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="I52">
-        <f>AVERAGE(G7/G52)</f>
-        <v>30.862729449321627</v>
-      </c>
-    </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F53">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F54">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F55">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F56">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F57">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F58">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F59">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F60">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F61">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F62">
-        <v>50</v>
-      </c>
-      <c r="G62">
-        <v>1155</v>
-      </c>
-      <c r="H62">
-        <v>4.55</v>
-      </c>
-      <c r="I62">
-        <f>AVERAGE(G7/G62)</f>
-        <v>33.481385281385279</v>
-      </c>
-    </row>
-    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F63">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F64">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F65">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F66">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F67">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F68">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F69">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F70">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F71">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F72">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F73">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F74">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="75" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F75">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F76">
-        <v>64</v>
-      </c>
-      <c r="G76">
-        <v>1141</v>
-      </c>
-      <c r="H76">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I76">
-        <f>AVERAGE(G7/G76)</f>
-        <v>33.892199824715163</v>
-      </c>
-    </row>
-    <row r="77" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F77">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F78">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F79">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F80">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F81">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="82" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F82">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F83">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F84">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="85" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F85">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="86" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F86">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F87">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F88">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="89" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F89">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F90">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="91" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F91">
-        <v>79</v>
-      </c>
-      <c r="G91">
-        <v>1147</v>
-      </c>
-      <c r="H91">
-        <v>4.58</v>
-      </c>
-      <c r="I91">
-        <f>AVERAGE(G7/G91)</f>
-        <v>33.714908456843943</v>
-      </c>
-    </row>
-    <row r="92" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F92">
-        <v>80</v>
-      </c>
-      <c r="G92">
-        <v>1146</v>
-      </c>
-      <c r="H92">
-        <v>4.58</v>
-      </c>
-      <c r="I92">
-        <f>AVERAGE(G7/G92)</f>
-        <v>33.744328097731241</v>
-      </c>
-    </row>
-    <row r="93" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F93">
-        <v>81</v>
-      </c>
-      <c r="G93">
-        <v>1154</v>
-      </c>
-      <c r="H93">
-        <v>4.55</v>
-      </c>
-      <c r="I93">
-        <f>AVERAGE(G7/G93)</f>
-        <v>33.510398613518198</v>
-      </c>
-    </row>
-    <row r="94" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F94">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="95" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F95">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="96" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F96">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F97">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="98" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F98">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="99" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F99">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="100" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F100">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="101" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F101">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="102" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F102">
-        <v>90</v>
-      </c>
-      <c r="G102">
-        <v>1149</v>
-      </c>
-      <c r="H102">
-        <v>4.57</v>
-      </c>
-      <c r="I102">
-        <f>AVERAGE(G7/G102)</f>
-        <v>33.656222802436901</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17134,6 +17481,16 @@
       </c>
       <c r="F9">
         <v>3</v>
+      </c>
+      <c r="G9">
+        <v>10707</v>
+      </c>
+      <c r="H9">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGE(G7/G9)</f>
+        <v>2.9989726347249461</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">

--- a/12_40CoreBench.xlsx
+++ b/12_40CoreBench.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="smithwa" sheetId="12" r:id="rId1"/>
@@ -22,14 +22,14 @@
     <sheet name="md" sheetId="3" r:id="rId13"/>
     <sheet name="ilbdc" sheetId="2" r:id="rId14"/>
     <sheet name="Tabelle15" sheetId="16" r:id="rId15"/>
-    <sheet name="Tabelle4" sheetId="4" r:id="rId16"/>
+    <sheet name="Tabelle1" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="82">
   <si>
     <t>12 Core Potsdam Bench measurements</t>
   </si>
@@ -56,15 +56,6 @@
   </si>
   <si>
     <t>threads</t>
-  </si>
-  <si>
-    <t>Core</t>
-  </si>
-  <si>
-    <t>EXP1</t>
-  </si>
-  <si>
-    <t>Linear</t>
   </si>
   <si>
     <t>376 kdtree</t>
@@ -273,21 +264,26 @@
   <si>
     <t>mem 42,5%</t>
   </si>
+  <si>
+    <t>bt331 Mem 34 %</t>
+  </si>
+  <si>
+    <t>md Mem 0%</t>
+  </si>
+  <si>
+    <t>mgrid331 42,5 %</t>
+  </si>
+  <si>
+    <t>mgrid331 42.5 %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -348,18 +344,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1304,11 +1297,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182025216"/>
-        <c:axId val="182039296"/>
+        <c:axId val="197557248"/>
+        <c:axId val="197571328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182025216"/>
+        <c:axId val="197557248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,7 +1311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182039296"/>
+        <c:crossAx val="197571328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1326,7 +1319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182039296"/>
+        <c:axId val="197571328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,7 +1330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182025216"/>
+        <c:crossAx val="197557248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1354,6 +1347,1089 @@
           <c:h val="0.46264763779527557"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AC$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mandelbrot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AC$4:$AC$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.553003605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9602224075000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SortArray</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AD$4:$AD$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3753480076561682</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92631892493700807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AE$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CountingNumbers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AE$4:$AE$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.37552663593594071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89161920214470436</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AF$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AF$4:$AF$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.97958355187887824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93057968396238788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AG$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CalculatePrimes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AG$4:$AG$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0633348559089775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92527268566473153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AH$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>md Mem 0%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AH$4:$AH$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.16067704218675935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AI$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>smithwa Mem 0.1 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AI$4:$AI$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.72857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95703703703703691</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79199016563146996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43278885589025595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AJ$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>botsalgn Mem 0.1 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AJ$4:$AJ$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1057162534435263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96137724550898207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0900687476774433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91510684760567773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AK$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kdtree Mem 0.5 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AK$4:$AK$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.89342105263157889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57090807174887892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75340375586854458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55604643104643103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AL$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nab Mem 1.3%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AL$4:$AL$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.83088901472253673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65331700801424764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99277978339350181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74626865671641784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AM$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>imagick Mem 5.2 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AM$4:$AM$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.95008287292817672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79835190343546891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0110259981429899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87565339766787298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AN$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fma3d Mem 16 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AN$4:$AN$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.34956420685647877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29782178217821781</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70408077761018939</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50942767066812167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AO$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>swim Mem 19.7 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AO$4:$AO$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.27968085106382978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21373983739837396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58835489833641408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47792792792792788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AP$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>botsspar Mem 21.5 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AP$4:$AP$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.84360820244328105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77156823623304072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81140048292514655</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86131453679970704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AQ$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bt331 Mem 34 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AQ$4:$AQ$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.73762489592006664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54348926380368101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9607807590041092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78104735704460604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AR$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mgrid331 42.5 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AR$4:$AR$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.42526372572524573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35675281576830253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AS$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>applu331 Mem 45.2%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AS$4:$AS$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.43209058793843047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46118367896579587</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76214717741935489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67904616490030534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AT$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bwaves Mem 65 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AT$4:$AT$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.43260993485342014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28831271030066208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72881355932203384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55885867941440093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="196621056"/>
+        <c:axId val="196622592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="196621056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196622592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="196622592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196621056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1974,11 +3050,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182283264"/>
-        <c:axId val="182305536"/>
+        <c:axId val="197827584"/>
+        <c:axId val="197849856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182283264"/>
+        <c:axId val="197827584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1988,7 +3064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182305536"/>
+        <c:crossAx val="197849856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1996,7 +3072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182305536"/>
+        <c:axId val="197849856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,7 +3083,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182283264"/>
+        <c:crossAx val="197827584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2643,11 +3719,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="182603136"/>
-        <c:axId val="182609024"/>
+        <c:axId val="198131072"/>
+        <c:axId val="198141056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182603136"/>
+        <c:axId val="198131072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2656,7 +3732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182609024"/>
+        <c:crossAx val="198141056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2664,7 +3740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182609024"/>
+        <c:axId val="198141056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2675,7 +3751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182603136"/>
+        <c:crossAx val="198131072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3191,11 +4267,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="182657024"/>
-        <c:axId val="182658560"/>
+        <c:axId val="198193152"/>
+        <c:axId val="198194688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182657024"/>
+        <c:axId val="198193152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3204,7 +4280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182658560"/>
+        <c:crossAx val="198194688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3212,7 +4288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182658560"/>
+        <c:axId val="198194688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,7 +4299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182657024"/>
+        <c:crossAx val="198193152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3965,11 +5041,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="182683520"/>
-        <c:axId val="182685056"/>
+        <c:axId val="198215552"/>
+        <c:axId val="198217088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182683520"/>
+        <c:axId val="198215552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3978,7 +5054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182685056"/>
+        <c:crossAx val="198217088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3986,7 +5062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182685056"/>
+        <c:axId val="198217088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3997,7 +5073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182683520"/>
+        <c:crossAx val="198215552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4533,11 +5609,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="182393856"/>
-        <c:axId val="182403840"/>
+        <c:axId val="197925888"/>
+        <c:axId val="197935872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182393856"/>
+        <c:axId val="197925888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4546,7 +5622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182403840"/>
+        <c:crossAx val="197935872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4554,7 +5630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182403840"/>
+        <c:axId val="197935872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4565,7 +5641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182393856"/>
+        <c:crossAx val="197925888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4600,29 +5676,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Non linear speedup</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> of multicore</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -4630,132 +5683,133 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>80 Threads</c:v>
+          </c:tx>
+          <c:cat>
             <c:strRef>
-              <c:f>Tabelle4!$A$2</c:f>
+              <c:f>Tabelle1!$R$3:$R$20</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>EXP1</c:v>
+                  <c:v>Mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SortArray</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CountingNumbers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CalculatePrimes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>md Mem 0%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>smithwa Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>botsalgn Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>kdtree Mem 0.5 %</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>nab Mem 1.3%</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>imagick Mem 5.2 %</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>fma3d Mem 16 %</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>swim Mem 19.7 %</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>botsspar Mem 21.5 %</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bt331 Mem 34 %</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mgrid331 42.5 %</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>applu331 Mem 45.2%</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bwaves Mem 65 %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle4!$B$2:$Y$2</c:f>
+              <c:f>Tabelle1!$S$3:$S$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.553003605</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6902851289055831</c:v>
+                  <c:v>1.3753480076561682</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9298609055933702</c:v>
+                  <c:v>0.37552663593594071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2427120864723222</c:v>
+                  <c:v>0.97958355187887824</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1155684888796511</c:v>
+                  <c:v>1.0633348559089775</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.698623635500712</c:v>
+                  <c:v>0.16067704218675935</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.493895671476138</c:v>
+                  <c:v>0.72857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2421185372005041</c:v>
+                  <c:v>1.1057162534435263</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9546891464699687</c:v>
+                  <c:v>0.89342105263157889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6566125290023201</c:v>
+                  <c:v>0.83088901472253673</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.400509121764955</c:v>
+                  <c:v>0.95008287292817672</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.9552238805970141</c:v>
+                  <c:v>0.34956420685647877</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.9068825910931171</c:v>
+                  <c:v>0.27968085106382978</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.0287277701778379</c:v>
+                  <c:v>0.84360820244328105</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.2523364485981308</c:v>
+                  <c:v>0.73762489592006664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.4646271510516247</c:v>
+                  <c:v>0.42526372572524573</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.7488921713441652</c:v>
+                  <c:v>0.43209058793843047</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.05586592178771</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.388247639034628</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.708491076257436</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.006114508060033</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle4!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle4!$B$3:$Y$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle4!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle4!$B$4:$Y$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                  <c:v>0.43260993485342014</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4763,95 +5817,110 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
+            <c:v>24 Threads</c:v>
+          </c:tx>
+          <c:cat>
             <c:strRef>
-              <c:f>Tabelle4!$A$5</c:f>
+              <c:f>Tabelle1!$R$3:$R$20</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>Linear</c:v>
+                  <c:v>Mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SortArray</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CountingNumbers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CalculatePrimes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>md Mem 0%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>smithwa Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>botsalgn Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>kdtree Mem 0.5 %</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>nab Mem 1.3%</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>imagick Mem 5.2 %</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>fma3d Mem 16 %</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>swim Mem 19.7 %</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>botsspar Mem 21.5 %</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bt331 Mem 34 %</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mgrid331 42.5 %</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>applu331 Mem 45.2%</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bwaves Mem 65 %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle4!$B$5:$Y$5</c:f>
+              <c:f>Tabelle1!$T$3:$T$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
+                <c:ptCount val="18"/>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>0.79199016563146996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>1.0900687476774433</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>0.75340375586854458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>0.99277978339350181</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>1.0110259981429899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>0.70408077761018939</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>0.58835489833641408</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>0.81140048292514655</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>0.9607807590041092</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>0.76214717741935489</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>0.72881355932203384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4866,64 +5935,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="180917760"/>
-        <c:axId val="180919680"/>
+        <c:axId val="196510080"/>
+        <c:axId val="196511616"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="180917760"/>
+      <c:catAx>
+        <c:axId val="196510080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE" sz="1600"/>
-                  <a:t>Cores</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="180919680"/>
+        <c:crossAx val="196511616"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:minorUnit val="1"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="180919680"/>
+        <c:axId val="196511616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="24"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4932,36 +5969,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="180917760"/>
-        <c:crossesAt val="1"/>
+        <c:crossAx val="196510080"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.4"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4970,7 +5985,950 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$S$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$R$23:$R$40</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SortArray</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CountingNumbers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CalculatePrimes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>md Mem 0%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>smithwa Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>botsalgn Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>kdtree Mem 0.5 %</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>nab Mem 1.3%</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>imagick Mem 5.2 %</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>fma3d Mem 16 %</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>swim Mem 19.7 %</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>botsspar Mem 21.5 %</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bt331 Mem 34 %</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mgrid331 42.5 %</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>applu331 Mem 45.2%</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bwaves Mem 65 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$S$23:$S$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.9602224075000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92631892493700807</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89161920214470436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93057968396238788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92527268566473153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95703703703703691</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96137724550898207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57090807174887892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65331700801424764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79835190343546891</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29782178217821781</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21373983739837396</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77156823623304072</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54348926380368101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35675281576830253</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46118367896579587</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28831271030066208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$R$23:$R$40</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SortArray</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CountingNumbers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CalculatePrimes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>md Mem 0%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>smithwa Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>botsalgn Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>kdtree Mem 0.5 %</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>nab Mem 1.3%</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>imagick Mem 5.2 %</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>fma3d Mem 16 %</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>swim Mem 19.7 %</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>botsspar Mem 21.5 %</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bt331 Mem 34 %</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mgrid331 42.5 %</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>applu331 Mem 45.2%</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bwaves Mem 65 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$T$23:$T$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="6">
+                  <c:v>0.43278885589025595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91510684760567773</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55604643104643103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74626865671641784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87565339766787298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50942767066812167</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47792792792792788</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86131453679970704</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78104735704460604</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67904616490030534</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55885867941440093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="196532480"/>
+        <c:axId val="196538368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="196532480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196538368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="196538368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196532480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AB$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$AC$3:$AT$3</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SortArray</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CountingNumbers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CalculatePrimes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>md Mem 0%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>smithwa Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>botsalgn Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>kdtree Mem 0.5 %</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>nab Mem 1.3%</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>imagick Mem 5.2 %</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>fma3d Mem 16 %</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>swim Mem 19.7 %</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>botsspar Mem 21.5 %</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bt331 Mem 34 %</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mgrid331 42.5 %</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>applu331 Mem 45.2%</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bwaves Mem 65 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AC$4:$AT$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.553003605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3753480076561682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37552663593594071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97958355187887824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0633348559089775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16067704218675935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1057162534435263</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89342105263157889</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83088901472253673</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95008287292817672</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34956420685647877</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27968085106382978</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84360820244328105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.73762489592006664</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.42526372572524573</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.43209058793843047</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.43260993485342014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AB$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$AC$3:$AT$3</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SortArray</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CountingNumbers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CalculatePrimes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>md Mem 0%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>smithwa Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>botsalgn Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>kdtree Mem 0.5 %</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>nab Mem 1.3%</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>imagick Mem 5.2 %</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>fma3d Mem 16 %</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>swim Mem 19.7 %</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>botsspar Mem 21.5 %</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bt331 Mem 34 %</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mgrid331 42.5 %</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>applu331 Mem 45.2%</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bwaves Mem 65 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AC$5:$AT$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.9602224075000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92631892493700807</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89161920214470436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93057968396238788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92527268566473153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95703703703703691</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96137724550898207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57090807174887892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65331700801424764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79835190343546891</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29782178217821781</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21373983739837396</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77156823623304072</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54348926380368101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35675281576830253</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46118367896579587</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28831271030066208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AB$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$AC$3:$AT$3</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SortArray</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CountingNumbers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CalculatePrimes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>md Mem 0%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>smithwa Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>botsalgn Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>kdtree Mem 0.5 %</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>nab Mem 1.3%</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>imagick Mem 5.2 %</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>fma3d Mem 16 %</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>swim Mem 19.7 %</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>botsspar Mem 21.5 %</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bt331 Mem 34 %</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mgrid331 42.5 %</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>applu331 Mem 45.2%</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bwaves Mem 65 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AC$6:$AT$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="6">
+                  <c:v>0.79199016563146996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0900687476774433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75340375586854458</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99277978339350181</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0110259981429899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70408077761018939</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58835489833641408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.81140048292514655</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9607807590041092</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.76214717741935489</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72881355932203384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AB$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$AC$3:$AT$3</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SortArray</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CountingNumbers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CalculatePrimes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>md Mem 0%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>smithwa Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>botsalgn Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>kdtree Mem 0.5 %</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>nab Mem 1.3%</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>imagick Mem 5.2 %</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>fma3d Mem 16 %</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>swim Mem 19.7 %</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>botsspar Mem 21.5 %</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bt331 Mem 34 %</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mgrid331 42.5 %</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>applu331 Mem 45.2%</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bwaves Mem 65 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AC$7:$AT$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="6">
+                  <c:v>0.43278885589025595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91510684760567773</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55604643104643103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74626865671641784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87565339766787298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50942767066812167</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47792792792792788</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86131453679970704</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78104735704460604</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67904616490030534</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55885867941440093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="197961600"/>
+        <c:axId val="197963136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="197961600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="197963136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="197963136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="197961600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -5164,16 +7122,106 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5188,7 +7236,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5486,7 +7534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -5502,18 +7550,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -7337,7 +9385,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -7347,10 +9395,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G5">
         <v>1.6</v>
@@ -8309,8 +10357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8323,28 +10371,28 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>1.2</v>
@@ -8834,6 +10882,16 @@
       <c r="A31">
         <v>25</v>
       </c>
+      <c r="B31">
+        <v>4245</v>
+      </c>
+      <c r="C31">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(B7/B31)</f>
+        <v>11.236042402826856</v>
+      </c>
       <c r="F31">
         <v>25</v>
       </c>
@@ -8842,6 +10900,17 @@
       <c r="A32">
         <v>26</v>
       </c>
+      <c r="B32">
+        <f>AVERAGE(4270,4284)</f>
+        <v>4277</v>
+      </c>
+      <c r="C32">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D32">
+        <f>AVERAGE(B7/B32)</f>
+        <v>11.151975683890578</v>
+      </c>
       <c r="F32">
         <v>26</v>
       </c>
@@ -8850,6 +10919,16 @@
       <c r="A33">
         <v>27</v>
       </c>
+      <c r="B33">
+        <v>4281</v>
+      </c>
+      <c r="C33">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D33">
+        <f>AVERAGE(B7/B33)</f>
+        <v>11.141555711282411</v>
+      </c>
       <c r="F33">
         <v>27</v>
       </c>
@@ -8858,6 +10937,16 @@
       <c r="A34">
         <v>28</v>
       </c>
+      <c r="B34">
+        <v>4303</v>
+      </c>
+      <c r="C34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D34">
+        <f>AVERAGE(B7/B34)</f>
+        <v>11.084592145015106</v>
+      </c>
       <c r="F34">
         <v>28</v>
       </c>
@@ -8866,6 +10955,16 @@
       <c r="A35">
         <v>29</v>
       </c>
+      <c r="B35">
+        <v>4269</v>
+      </c>
+      <c r="C35">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D35">
+        <f>AVERAGE(B7/B35)</f>
+        <v>11.172874209416726</v>
+      </c>
       <c r="F35">
         <v>29</v>
       </c>
@@ -8873,6 +10972,16 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>30</v>
+      </c>
+      <c r="B36">
+        <v>4302</v>
+      </c>
+      <c r="C36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D36">
+        <f>AVERAGE(B7/B36)</f>
+        <v>11.087168758716876</v>
       </c>
       <c r="F36">
         <v>30</v>
@@ -9247,8 +11356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9261,15 +11370,15 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9466,6 +11575,12 @@
       <c r="A26">
         <v>20</v>
       </c>
+      <c r="B26">
+        <v>4822</v>
+      </c>
+      <c r="C26">
+        <v>0.91700000000000004</v>
+      </c>
       <c r="F26">
         <v>20</v>
       </c>
@@ -9490,6 +11605,12 @@
       <c r="A29">
         <v>23</v>
       </c>
+      <c r="B29">
+        <v>4541</v>
+      </c>
+      <c r="C29">
+        <v>0.97299999999999998</v>
+      </c>
       <c r="F29">
         <v>23</v>
       </c>
@@ -9498,6 +11619,12 @@
       <c r="A30">
         <v>24</v>
       </c>
+      <c r="B30">
+        <v>4402</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
       <c r="F30">
         <v>24</v>
       </c>
@@ -9518,7 +11645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>27</v>
       </c>
@@ -9526,7 +11653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>28</v>
       </c>
@@ -9534,7 +11661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>29</v>
       </c>
@@ -9542,55 +11669,61 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>30</v>
       </c>
+      <c r="B36">
+        <v>4778</v>
+      </c>
+      <c r="C36">
+        <v>0.92500000000000004</v>
+      </c>
       <c r="F36">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F37">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F38">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F39">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F40">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F41">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F42">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F43">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F44">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F45">
         <v>39</v>
       </c>
@@ -9600,8 +11733,12 @@
       <c r="H45">
         <v>0.92200000000000004</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f>AVERAGE(G7/G45)</f>
+        <v>14.79687174139729</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F46">
         <v>40</v>
       </c>
@@ -9611,13 +11748,17 @@
       <c r="H46">
         <v>0.88900000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <f>AVERAGE(G7/G46)</f>
+        <v>14.2701126307321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F47">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F48">
         <v>42</v>
       </c>
@@ -9812,6 +11953,10 @@
       <c r="H85">
         <v>1.02</v>
       </c>
+      <c r="I85">
+        <f>AVERAGE(G7/G85)</f>
+        <v>16.333103130755063</v>
+      </c>
     </row>
     <row r="86" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F86">
@@ -9823,6 +11968,10 @@
       <c r="H86">
         <v>1.06</v>
       </c>
+      <c r="I86">
+        <f>AVERAGE(G7/G86)</f>
+        <v>17.01054902900983</v>
+      </c>
     </row>
     <row r="87" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F87">
@@ -9833,6 +11982,10 @@
       </c>
       <c r="H87">
         <v>1.1100000000000001</v>
+      </c>
+      <c r="I87">
+        <f>AVERAGE(G7/G87)</f>
+        <v>17.808985943775099</v>
       </c>
     </row>
     <row r="88" spans="6:9" x14ac:dyDescent="0.25">
@@ -9899,8 +12052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9915,23 +12068,23 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -10025,7 +12178,7 @@
         <v>0.90842203660706211</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -10659,20 +12812,20 @@
   <sheetData>
     <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>1.8</v>
@@ -11404,8 +13557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="N53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11415,26 +13568,26 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>39</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>40</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>79</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>80</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>81</v>
       </c>
       <c r="I2">
@@ -11443,37 +13596,37 @@
       <c r="J2">
         <v>40</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>79</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>80</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5">
         <v>37.532214099999997</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>38.408896300000002</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>61.742303200000002</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>62.120144199999999</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>62.3203429</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>50</v>
+      <c r="H3" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="I3">
         <f>1-(B3/40)</f>
@@ -11496,12 +13649,12 @@
         <v>-0.55800857249999991</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>51</v>
+      <c r="A4" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B4">
         <v>36.493033679765688</v>
@@ -11518,8 +13671,8 @@
       <c r="G4">
         <v>55.282460767314106</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>51</v>
+      <c r="H4" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I12" si="0">1-(B4/40)</f>
@@ -11543,8 +13696,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>52</v>
+      <c r="A5" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B5">
         <v>36.780243003570199</v>
@@ -11561,8 +13714,8 @@
       <c r="G5">
         <v>39.165562426609682</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>52</v>
+      <c r="H5" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -11586,8 +13739,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>53</v>
+      <c r="A6" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B6">
         <v>35.7591816602107</v>
@@ -11604,8 +13757,8 @@
       <c r="G6">
         <v>14.994956270600449</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>53</v>
+      <c r="H6" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -11629,8 +13782,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>54</v>
+      <c r="A7" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B7">
         <v>36.31235405893419</v>
@@ -11647,8 +13800,8 @@
       <c r="G7">
         <v>42.542580409356724</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>54</v>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -11673,25 +13826,25 @@
     </row>
     <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3">
         <v>36.479999999999997</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>38.281481481481478</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>38.471464019851119</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>29.142857142857142</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>24.846153846153847</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -11716,25 +13869,25 @@
     </row>
     <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="10">
+        <v>33</v>
+      </c>
+      <c r="B9" s="9">
         <v>11.678280940866124</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>11.532508412026484</v>
       </c>
       <c r="E9">
         <v>17.838985896574883</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>17.304397394136807</v>
       </c>
       <c r="G9">
         <v>16.452307215856301</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -11759,25 +13912,25 @@
     </row>
     <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="10">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9">
         <v>31.209618874773138</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>31.934076137418757</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>38.342251950947606</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>38.003314917127071</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>38.427932960893855</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
@@ -11802,7 +13955,7 @@
     </row>
     <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>11.996011964107677</v>
@@ -11813,14 +13966,14 @@
       <c r="E11">
         <v>14.146972369194591</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>13.982568274259151</v>
       </c>
       <c r="G11">
         <v>14.080748976009362</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
@@ -11845,7 +13998,7 @@
     </row>
     <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B12">
         <v>37.91027154663518</v>
@@ -11856,14 +14009,14 @@
       <c r="E12">
         <v>44.046639231824415</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>44.228650137741049</v>
       </c>
       <c r="G12">
         <v>44.289655172413795</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
@@ -11888,7 +14041,7 @@
     </row>
     <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13">
         <v>30.401729559748428</v>
@@ -11899,14 +14052,14 @@
       <c r="E13">
         <v>33.714908456843943</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>33.744328097731241</v>
       </c>
       <c r="G13">
         <v>33.510398613518198</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I13">
         <f t="shared" ref="I13:J19" si="5">1-(B13/40)</f>
@@ -11931,25 +14084,25 @@
     </row>
     <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="10">
+        <v>65</v>
+      </c>
+      <c r="B14" s="9">
         <v>25.856387665198238</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>26.132680320569904</v>
       </c>
       <c r="E14">
         <v>33.235560588901471</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>33.235560588901471</v>
       </c>
       <c r="G14">
         <v>34.283878504672899</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I14">
         <f t="shared" si="5"/>
@@ -11974,7 +14127,7 @@
     </row>
     <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B15">
         <v>22.633333333333333</v>
@@ -11992,7 +14145,7 @@
         <v>37.862453531598511</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I15">
         <f t="shared" si="5"/>
@@ -12017,7 +14170,7 @@
     </row>
     <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>8.7284196547144752</v>
@@ -12035,7 +14188,7 @@
         <v>10.990802675585284</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I16">
         <f t="shared" si="5"/>
@@ -12058,9 +14211,9 @@
         <v>0.72522993311036787</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B17">
         <v>22.009627329192547</v>
@@ -12075,7 +14228,7 @@
         <v>27.716464606961281</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I17">
         <f t="shared" si="5"/>
@@ -12094,9 +14247,9 @@
         <v>0.30708838482596801</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E18">
         <v>6.329080441885794</v>
@@ -12105,7 +14258,7 @@
         <v>6.4270816874703742</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L18">
         <f>1-(E18/40)</f>
@@ -12116,9 +14269,9 @@
         <v>0.83932295781324062</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>17.991857105332283</v>
@@ -12136,7 +14289,7 @@
         <v>17.244461228600201</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I19">
         <f t="shared" si="5"/>
@@ -12161,23 +14314,23 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>11</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>12</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>23</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>24</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>25</v>
       </c>
       <c r="I22">
@@ -12186,19 +14339,19 @@
       <c r="J22">
         <v>12</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <v>23</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="1">
         <v>24</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>10.234191016136066</v>
@@ -12216,7 +14369,7 @@
         <v>13.073537604456824</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I23">
         <f>1-(B23/12)</f>
@@ -12240,8 +14393,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>56</v>
+      <c r="A24" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B24">
         <v>10.561691113028473</v>
@@ -12258,8 +14411,8 @@
       <c r="G24">
         <v>14.102534562211982</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>56</v>
+      <c r="H24" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="I24">
         <f t="shared" ref="I24:I32" si="9">1-(B24/12)</f>
@@ -12284,7 +14437,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>6.1780558229066411</v>
@@ -12302,7 +14455,7 @@
         <v>10.014040561622465</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I25">
         <f t="shared" si="9"/>
@@ -12327,7 +14480,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>8.400509121764955</v>
@@ -12345,7 +14498,7 @@
         <v>11.585722644821534</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I26">
         <f t="shared" si="9"/>
@@ -12370,7 +14523,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>9.9026146267525572</v>
@@ -12388,7 +14541,7 @@
         <v>12.126682134570766</v>
       </c>
       <c r="H27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27">
         <f t="shared" si="9"/>
@@ -12413,7 +14566,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>5.6869712351945854</v>
@@ -12431,7 +14584,7 @@
         <v>7.8090148698884763</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I28">
         <f t="shared" si="9"/>
@@ -12456,7 +14609,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B29">
         <v>5.2151829601310755</v>
@@ -12474,7 +14627,7 @@
         <v>6.8846431146359048</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I29">
         <f t="shared" si="9"/>
@@ -12499,7 +14652,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B30">
         <v>9.8146731571627264</v>
@@ -12517,7 +14670,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="H30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I30">
         <f t="shared" si="9"/>
@@ -12542,7 +14695,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B31">
         <v>8.166156615661567</v>
@@ -12560,7 +14713,7 @@
         <v>9.3647811725846406</v>
       </c>
       <c r="H31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I31">
         <f t="shared" si="9"/>
@@ -12585,7 +14738,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B32">
         <v>6.0217303822937627</v>
@@ -12603,7 +14756,7 @@
         <v>8.7542901716068648</v>
       </c>
       <c r="H32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I32">
         <f t="shared" si="9"/>
@@ -12628,12 +14781,12 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -12645,241 +14798,1792 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AT40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="AF9" workbookViewId="0">
+      <selection activeCell="AP10" sqref="AP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B2" s="4">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4">
+        <v>79</v>
+      </c>
+      <c r="F2" s="4">
+        <v>80</v>
+      </c>
+      <c r="G2" s="4">
+        <v>81</v>
+      </c>
+      <c r="I2">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>40</v>
+      </c>
+      <c r="L2" s="4">
+        <v>79</v>
+      </c>
+      <c r="M2" s="4">
+        <v>80</v>
+      </c>
+      <c r="N2" s="4">
+        <v>81</v>
+      </c>
+      <c r="S2">
+        <v>80</v>
+      </c>
+      <c r="T2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5">
+        <v>37.532214099999997</v>
+      </c>
+      <c r="C3" s="5">
+        <v>38.408896300000002</v>
+      </c>
+      <c r="E3" s="5">
+        <v>61.742303200000002</v>
+      </c>
+      <c r="F3" s="5">
+        <v>62.120144199999999</v>
+      </c>
+      <c r="G3" s="5">
+        <v>62.3203429</v>
+      </c>
+      <c r="I3">
+        <f>(B3/40)</f>
+        <v>0.93830535249999991</v>
+      </c>
+      <c r="J3">
+        <f>(C3/40)</f>
+        <v>0.9602224075000001</v>
+      </c>
+      <c r="L3">
+        <f>(E3/40)</f>
+        <v>1.5435575800000001</v>
+      </c>
+      <c r="M3">
+        <f>(F3/40)</f>
+        <v>1.553003605</v>
+      </c>
+      <c r="N3">
+        <f>(G3/40)</f>
+        <v>1.5580085724999999</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3">
+        <v>1.553003605</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>36.493033679765688</v>
+      </c>
+      <c r="C4">
+        <v>37.052756997480323</v>
+      </c>
+      <c r="E4">
+        <v>54.747186147186142</v>
+      </c>
+      <c r="F4">
+        <v>55.013920306246725</v>
+      </c>
+      <c r="G4">
+        <v>55.282460767314106</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I20" si="0">(B4/40)</f>
+        <v>0.91232584199414224</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J20" si="1">(C4/40)</f>
+        <v>0.92631892493700807</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L20" si="2">(E4/40)</f>
+        <v>1.3686796536796535</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M20" si="3">(F4/40)</f>
+        <v>1.3753480076561682</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N20" si="4">(G4/40)</f>
+        <v>1.3820615191828527</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4">
+        <v>1.3753480076561682</v>
+      </c>
+      <c r="AB4">
+        <v>80</v>
+      </c>
+      <c r="AC4">
+        <v>1.553003605</v>
+      </c>
+      <c r="AD4">
+        <v>1.3753480076561682</v>
+      </c>
+      <c r="AE4">
+        <v>0.37552663593594071</v>
+      </c>
+      <c r="AF4">
+        <v>0.97958355187887824</v>
+      </c>
+      <c r="AG4">
+        <v>1.0633348559089775</v>
+      </c>
+      <c r="AH4">
+        <v>0.16067704218675935</v>
+      </c>
+      <c r="AI4">
+        <v>0.72857142857142854</v>
+      </c>
+      <c r="AJ4">
+        <v>1.1057162534435263</v>
+      </c>
+      <c r="AK4">
+        <v>0.89342105263157889</v>
+      </c>
+      <c r="AL4">
+        <v>0.83088901472253673</v>
+      </c>
+      <c r="AM4">
+        <v>0.95008287292817672</v>
+      </c>
+      <c r="AN4">
+        <v>0.34956420685647877</v>
+      </c>
+      <c r="AO4">
+        <v>0.27968085106382978</v>
+      </c>
+      <c r="AP4">
+        <v>0.84360820244328105</v>
+      </c>
+      <c r="AQ4">
+        <v>0.73762489592006664</v>
+      </c>
+      <c r="AR4">
+        <v>0.42526372572524573</v>
+      </c>
+      <c r="AS4">
+        <v>0.43209058793843047</v>
+      </c>
+      <c r="AT4">
+        <v>0.43260993485342014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>36.780243003570199</v>
+      </c>
+      <c r="C5">
+        <v>37.223187358495515</v>
+      </c>
+      <c r="E5">
+        <v>39.233644859813083</v>
+      </c>
+      <c r="F5">
+        <v>39.183342075155132</v>
+      </c>
+      <c r="G5">
+        <v>39.165562426609682</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.91950607508925497</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0.93057968396238788</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.9808411214953271</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>0.97958355187887824</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>0.97913906066524203</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5">
+        <v>0.37552663593594071</v>
+      </c>
+      <c r="AB5">
+        <v>40</v>
+      </c>
+      <c r="AC5">
+        <v>0.9602224075000001</v>
+      </c>
+      <c r="AD5">
+        <v>0.92631892493700807</v>
+      </c>
+      <c r="AE5">
+        <v>0.89161920214470436</v>
+      </c>
+      <c r="AF5">
+        <v>0.93057968396238788</v>
+      </c>
+      <c r="AG5">
+        <v>0.92527268566473153</v>
+      </c>
+      <c r="AI5">
+        <v>0.95703703703703691</v>
+      </c>
+      <c r="AJ5">
+        <v>0.96137724550898207</v>
+      </c>
+      <c r="AK5">
+        <v>0.57090807174887892</v>
+      </c>
+      <c r="AL5">
+        <v>0.65331700801424764</v>
+      </c>
+      <c r="AM5">
+        <v>0.79835190343546891</v>
+      </c>
+      <c r="AN5">
+        <v>0.29782178217821781</v>
+      </c>
+      <c r="AO5">
+        <v>0.21373983739837396</v>
+      </c>
+      <c r="AP5">
+        <v>0.77156823623304072</v>
+      </c>
+      <c r="AQ5">
+        <v>0.54348926380368101</v>
+      </c>
+      <c r="AR5">
+        <v>0.35675281576830253</v>
+      </c>
+      <c r="AS5">
+        <v>0.46118367896579587</v>
+      </c>
+      <c r="AT5">
+        <v>0.28831271030066208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>35.7591816602107</v>
+      </c>
+      <c r="C6">
+        <v>35.664768085788175</v>
+      </c>
+      <c r="E6">
+        <v>15.381155366621316</v>
+      </c>
+      <c r="F6">
+        <v>15.021065437437629</v>
+      </c>
+      <c r="G6">
+        <v>14.994956270600449</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.89397954150526748</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0.89161920214470436</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.38452888416553288</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.37552663593594071</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0.3748739067650112</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6">
+        <v>0.97958355187887824</v>
+      </c>
+      <c r="AB6">
+        <v>24</v>
+      </c>
+      <c r="AI6">
+        <v>0.79199016563146996</v>
+      </c>
+      <c r="AJ6">
+        <v>1.0900687476774433</v>
+      </c>
+      <c r="AK6">
+        <v>0.75340375586854458</v>
+      </c>
+      <c r="AL6">
+        <v>0.99277978339350181</v>
+      </c>
+      <c r="AM6">
+        <v>1.0110259981429899</v>
+      </c>
+      <c r="AN6">
+        <v>0.70408077761018939</v>
+      </c>
+      <c r="AO6">
+        <v>0.58835489833641408</v>
+      </c>
+      <c r="AP6">
+        <v>0.81140048292514655</v>
+      </c>
+      <c r="AQ6">
+        <v>0.9607807590041092</v>
+      </c>
+      <c r="AS6">
+        <v>0.76214717741935489</v>
+      </c>
+      <c r="AT6">
+        <v>0.72881355932203384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>36.31235405893419</v>
+      </c>
+      <c r="C7">
+        <v>37.010907426589263</v>
+      </c>
+      <c r="E7">
+        <v>42.491517923813419</v>
+      </c>
+      <c r="F7">
+        <v>42.533394236359101</v>
+      </c>
+      <c r="G7">
+        <v>42.542580409356724</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.90780885147335477</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0.92527268566473153</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>1.0622879480953356</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>1.0633348559089775</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>1.0635645102339182</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7">
+        <v>1.0633348559089775</v>
+      </c>
+      <c r="AB7">
+        <v>12</v>
+      </c>
+      <c r="AI7">
+        <v>0.43278885589025595</v>
+      </c>
+      <c r="AJ7">
+        <v>0.91510684760567773</v>
+      </c>
+      <c r="AK7">
+        <v>0.55604643104643103</v>
+      </c>
+      <c r="AL7">
+        <v>0.74626865671641784</v>
+      </c>
+      <c r="AM7">
+        <v>0.87565339766787298</v>
+      </c>
+      <c r="AN7">
+        <v>0.50942767066812167</v>
+      </c>
+      <c r="AO7">
+        <v>0.47792792792792788</v>
+      </c>
+      <c r="AP7">
+        <v>0.86131453679970704</v>
+      </c>
+      <c r="AQ7">
+        <v>0.78104735704460604</v>
+      </c>
+      <c r="AS7">
+        <v>0.67904616490030534</v>
+      </c>
+      <c r="AT7">
+        <v>0.55885867941440093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="C8" s="3">
+        <v>38.281481481481478</v>
+      </c>
+      <c r="E8" s="3">
+        <v>38.471464019851119</v>
+      </c>
+      <c r="F8" s="3">
+        <v>29.142857142857142</v>
+      </c>
+      <c r="G8" s="3">
+        <v>24.846153846153847</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.91199999999999992</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.95703703703703691</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.96178660049627795</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.72857142857142854</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>0.62115384615384617</v>
+      </c>
+      <c r="R8" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8">
+        <v>0.16067704218675935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="9">
+        <v>11.678280940866124</v>
+      </c>
+      <c r="C9" s="9">
+        <v>11.532508412026484</v>
+      </c>
+      <c r="E9">
+        <v>17.838985896574883</v>
+      </c>
+      <c r="F9" s="9">
+        <v>17.304397394136807</v>
+      </c>
+      <c r="G9">
+        <v>16.452307215856301</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.29195702352165309</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.28831271030066208</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.44597464741437209</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0.43260993485342014</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0.41130768039640753</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9">
+        <v>0.72857142857142854</v>
+      </c>
+      <c r="T9">
+        <v>0.79199016563146996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9">
+        <v>31.209618874773138</v>
+      </c>
+      <c r="C10" s="9">
+        <v>31.934076137418757</v>
+      </c>
+      <c r="E10" s="9">
+        <v>38.342251950947606</v>
+      </c>
+      <c r="F10" s="9">
+        <v>38.003314917127071</v>
+      </c>
+      <c r="G10" s="9">
+        <v>38.427932960893855</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.78024047186932843</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.79835190343546891</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.9585562987736902</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>0.95008287292817672</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>0.96069832402234634</v>
+      </c>
+      <c r="R10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10">
+        <v>1.1057162534435263</v>
+      </c>
+      <c r="T10">
+        <v>1.0900687476774433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>11.996011964107677</v>
+      </c>
+      <c r="C11">
+        <v>11.912871287128713</v>
+      </c>
+      <c r="E11">
+        <v>14.146972369194591</v>
+      </c>
+      <c r="F11" s="9">
+        <v>13.982568274259151</v>
+      </c>
+      <c r="G11">
+        <v>14.080748976009362</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.29990029910269189</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.29782178217821781</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.35367430922986476</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>0.34956420685647877</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>0.35201872440023407</v>
+      </c>
+      <c r="R11" t="s">
+        <v>54</v>
+      </c>
+      <c r="S11">
+        <v>0.89342105263157889</v>
+      </c>
+      <c r="T11">
+        <v>0.75340375586854458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <v>37.91027154663518</v>
+      </c>
+      <c r="C12">
+        <v>38.455089820359284</v>
+      </c>
+      <c r="E12">
+        <v>44.046639231824415</v>
+      </c>
+      <c r="F12" s="9">
+        <v>44.228650137741049</v>
+      </c>
+      <c r="G12">
+        <v>44.289655172413795</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.94775678866587953</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.96137724550898207</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>1.1011659807956105</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>1.1057162534435263</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>1.1072413793103448</v>
+      </c>
+      <c r="R12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12">
+        <v>0.83088901472253673</v>
+      </c>
+      <c r="T12">
+        <v>0.99277978339350181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>30.401729559748428</v>
+      </c>
+      <c r="C13">
+        <v>30.862729449321627</v>
+      </c>
+      <c r="E13">
+        <v>33.714908456843943</v>
+      </c>
+      <c r="F13" s="9">
+        <v>33.744328097731241</v>
+      </c>
+      <c r="G13">
+        <v>33.510398613518198</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.76004323899371073</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0.77156823623304072</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.84287271142109854</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>0.84360820244328105</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>0.83775996533795494</v>
+      </c>
+      <c r="R13" t="s">
+        <v>56</v>
+      </c>
+      <c r="S13">
+        <v>0.95008287292817672</v>
+      </c>
+      <c r="T13">
+        <v>1.0110259981429899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="9">
+        <v>25.856387665198238</v>
+      </c>
+      <c r="C14" s="9">
+        <v>26.132680320569904</v>
+      </c>
+      <c r="E14">
+        <v>33.235560588901471</v>
+      </c>
+      <c r="F14" s="9">
+        <v>33.235560588901471</v>
+      </c>
+      <c r="G14">
+        <v>34.283878504672899</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.64640969162995598</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.65331700801424764</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.83088901472253673</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>0.83088901472253673</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>0.85709696261682244</v>
+      </c>
+      <c r="R14" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14">
+        <v>0.34956420685647877</v>
+      </c>
+      <c r="T14">
+        <v>0.70408077761018939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15">
+        <v>22.633333333333333</v>
+      </c>
+      <c r="C15">
+        <v>22.836322869955158</v>
+      </c>
+      <c r="E15">
+        <v>35.364583333333336</v>
+      </c>
+      <c r="F15">
+        <v>35.736842105263158</v>
+      </c>
+      <c r="G15">
+        <v>37.862453531598511</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0.5658333333333333</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.57090807174887892</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.88411458333333337</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>0.89342105263157889</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>0.94656133828996281</v>
+      </c>
+      <c r="R15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S15">
+        <v>0.27968085106382978</v>
+      </c>
+      <c r="T15">
+        <v>0.58835489833641408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>8.7284196547144752</v>
+      </c>
+      <c r="C16">
+        <v>8.5495934959349587</v>
+      </c>
+      <c r="E16">
+        <v>11.196763202725725</v>
+      </c>
+      <c r="F16">
+        <v>11.187234042553191</v>
+      </c>
+      <c r="G16">
+        <v>10.990802675585284</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0.21821049136786189</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0.21373983739837396</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.27991908006814314</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>0.27968085106382978</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>0.27477006688963213</v>
+      </c>
+      <c r="R16" t="s">
+        <v>59</v>
+      </c>
+      <c r="S16">
+        <v>0.84360820244328105</v>
+      </c>
+      <c r="T16">
+        <v>0.81140048292514655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>22.009627329192547</v>
+      </c>
+      <c r="C17">
+        <v>21.739570552147239</v>
+      </c>
+      <c r="E17">
+        <v>28.473684210526315</v>
+      </c>
+      <c r="F17">
+        <v>29.504995836802664</v>
+      </c>
+      <c r="G17">
+        <v>27.716464606961281</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0.55024068322981368</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0.54348926380368101</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0.71184210526315783</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>0.73762489592006664</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>0.69291161517403199</v>
+      </c>
+      <c r="R17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S17">
+        <v>0.73762489592006664</v>
+      </c>
+      <c r="T17">
+        <v>0.9607807590041092</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>6.329080441885794</v>
+      </c>
+      <c r="F18">
+        <v>6.4270816874703742</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0.15822701104714484</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>0.16067704218675935</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S18">
+        <v>0.42526372572524573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>17.991857105332283</v>
+      </c>
+      <c r="C19">
+        <v>18.447347158631835</v>
+      </c>
+      <c r="E19">
+        <v>17.327346319251202</v>
+      </c>
+      <c r="F19">
+        <v>17.283623517537219</v>
+      </c>
+      <c r="G19">
+        <v>17.244461228600201</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0.44979642763330707</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0.46118367896579587</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0.43318365798128006</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>0.43209058793843047</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>0.43111153071500502</v>
+      </c>
+      <c r="R19" t="s">
+        <v>73</v>
+      </c>
+      <c r="S19">
+        <v>0.43209058793843047</v>
+      </c>
+      <c r="T19">
+        <v>0.76214717741935489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>14.79687174139729</v>
+      </c>
+      <c r="C20">
+        <v>14.2701126307321</v>
+      </c>
+      <c r="E20">
+        <v>16.333103130755063</v>
+      </c>
+      <c r="F20">
+        <v>17.01054902900983</v>
+      </c>
+      <c r="G20">
+        <v>17.808985943775099</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0.36992179353493226</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0.35675281576830253</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0.40832757826887656</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>0.42526372572524573</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>0.44522464859437749</v>
+      </c>
+      <c r="R20" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20">
+        <v>0.43260993485342014</v>
+      </c>
+      <c r="T20">
+        <v>0.72881355932203384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="S22">
+        <v>40</v>
+      </c>
+      <c r="T22">
+        <v>12</v>
+      </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="C23" s="4">
         <v>12</v>
       </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-      <c r="U1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-      <c r="W1">
-        <v>22</v>
-      </c>
-      <c r="X1">
+      <c r="E23" s="1">
         <v>23</v>
       </c>
-      <c r="Y1">
+      <c r="F23" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1.6902851289055831</v>
-      </c>
-      <c r="D2">
-        <v>2.9298609055933702</v>
-      </c>
-      <c r="E2">
-        <v>3.2427120864723222</v>
-      </c>
-      <c r="F2">
-        <v>4.1155684888796511</v>
-      </c>
-      <c r="G2">
-        <v>4.698623635500712</v>
-      </c>
-      <c r="H2">
-        <v>5.493895671476138</v>
-      </c>
-      <c r="I2">
-        <v>6.2421185372005041</v>
-      </c>
-      <c r="J2">
-        <v>6.9546891464699687</v>
-      </c>
-      <c r="K2">
-        <v>7.6566125290023201</v>
-      </c>
-      <c r="L2">
+      <c r="G23" s="1">
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="L23" s="1">
+        <v>23</v>
+      </c>
+      <c r="M23" s="1">
+        <v>24</v>
+      </c>
+      <c r="N23" s="1">
+        <v>25</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S23">
+        <v>0.9602224075000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>10.234191016136066</v>
+      </c>
+      <c r="C24">
+        <v>10.981282171268132</v>
+      </c>
+      <c r="E24">
+        <v>12.901044529961517</v>
+      </c>
+      <c r="F24">
+        <v>13.080824972129321</v>
+      </c>
+      <c r="G24">
+        <v>13.073537604456824</v>
+      </c>
+      <c r="I24">
+        <f>(B24/12)</f>
+        <v>0.85284925134467215</v>
+      </c>
+      <c r="J24">
+        <f>(C24/12)</f>
+        <v>0.91510684760567773</v>
+      </c>
+      <c r="L24">
+        <f>(E24/12)</f>
+        <v>1.0750870441634597</v>
+      </c>
+      <c r="M24">
+        <f>(F24/12)</f>
+        <v>1.0900687476774433</v>
+      </c>
+      <c r="N24">
+        <f>(G24/12)</f>
+        <v>1.0894614670380687</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S24">
+        <v>0.92631892493700807</v>
+      </c>
+      <c r="U24" s="8"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>10.561691113028473</v>
+      </c>
+      <c r="C25">
+        <v>5.1934662706830714</v>
+      </c>
+      <c r="E25">
+        <v>5.2991341991341994</v>
+      </c>
+      <c r="F25">
+        <v>9.503881987577639</v>
+      </c>
+      <c r="G25">
+        <v>14.102534562211982</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:I32" si="5">(B25/12)</f>
+        <v>0.88014092608570615</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J32" si="6">(C25/12)</f>
+        <v>0.43278885589025595</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25:L32" si="7">(E25/12)</f>
+        <v>0.4415945165945166</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25:M32" si="8">(F25/12)</f>
+        <v>0.79199016563146996</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:N32" si="9">(G25/12)</f>
+        <v>1.1752112135176651</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S25">
+        <v>0.89161920214470436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>6.1780558229066411</v>
+      </c>
+      <c r="C26">
+        <v>6.6725571725571724</v>
+      </c>
+      <c r="E26">
+        <v>8.7333333333333325</v>
+      </c>
+      <c r="F26">
+        <v>9.0408450704225345</v>
+      </c>
+      <c r="G26">
+        <v>10.014040561622465</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="5"/>
+        <v>0.51483798524222013</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="6"/>
+        <v>0.55604643104643103</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="7"/>
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="8"/>
+        <v>0.75340375586854458</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="9"/>
+        <v>0.83450338013520542</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S26">
+        <v>0.93057968396238788</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
         <v>8.400509121764955</v>
       </c>
-      <c r="M2">
+      <c r="C27">
         <v>8.9552238805970141</v>
       </c>
-      <c r="N2">
-        <v>8.9068825910931171</v>
-      </c>
-      <c r="O2">
-        <v>9.0287277701778379</v>
-      </c>
-      <c r="P2">
-        <v>9.2523364485981308</v>
-      </c>
-      <c r="Q2">
-        <v>9.4646271510516247</v>
-      </c>
-      <c r="R2">
-        <v>9.7488921713441652</v>
-      </c>
-      <c r="S2">
-        <v>10.05586592178771</v>
-      </c>
-      <c r="T2">
-        <v>10.388247639034628</v>
-      </c>
-      <c r="U2">
-        <v>10.708491076257436</v>
-      </c>
-      <c r="V2">
-        <v>11.006114508060033</v>
-      </c>
-      <c r="Z2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>9</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>11</v>
-      </c>
-      <c r="M5">
-        <v>12</v>
-      </c>
-      <c r="N5">
-        <v>13</v>
-      </c>
-      <c r="O5">
-        <v>14</v>
-      </c>
-      <c r="P5">
-        <v>15</v>
-      </c>
-      <c r="Q5">
-        <v>16</v>
-      </c>
-      <c r="R5">
-        <v>17</v>
-      </c>
-      <c r="S5">
-        <v>18</v>
-      </c>
-      <c r="T5">
-        <v>19</v>
-      </c>
-      <c r="U5">
-        <v>20</v>
-      </c>
-      <c r="V5">
-        <v>21</v>
-      </c>
-      <c r="W5">
-        <v>22</v>
-      </c>
-      <c r="X5">
-        <v>23</v>
-      </c>
-      <c r="Y5">
-        <v>24</v>
+      <c r="E27">
+        <v>11.626541397533764</v>
+      </c>
+      <c r="F27">
+        <v>11.913357400722022</v>
+      </c>
+      <c r="G27">
+        <v>11.585722644821534</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>0.70004242681374629</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="6"/>
+        <v>0.74626865671641784</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="7"/>
+        <v>0.96887844979448035</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="8"/>
+        <v>0.99277978339350181</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="9"/>
+        <v>0.96547688706846113</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S27">
+        <v>0.92527268566473153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>9.9026146267525572</v>
+      </c>
+      <c r="C28">
+        <v>10.507840772014475</v>
+      </c>
+      <c r="E28">
+        <v>11.976626947754355</v>
+      </c>
+      <c r="F28">
+        <v>12.132311977715878</v>
+      </c>
+      <c r="G28">
+        <v>12.126682134570766</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>0.82521788556271314</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>0.87565339766787298</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="7"/>
+        <v>0.99805224564619621</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="8"/>
+        <v>1.0110259981429899</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="9"/>
+        <v>1.0105568445475639</v>
+      </c>
+      <c r="R28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>5.6869712351945854</v>
+      </c>
+      <c r="C29">
+        <v>6.1131320480174605</v>
+      </c>
+      <c r="E29">
+        <v>8.1340755082284613</v>
+      </c>
+      <c r="F29">
+        <v>8.4489693313222727</v>
+      </c>
+      <c r="G29">
+        <v>7.8090148698884763</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>0.4739142695995488</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>0.50942767066812167</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="7"/>
+        <v>0.6778396256857051</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="8"/>
+        <v>0.70408077761018939</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="9"/>
+        <v>0.65075123915737298</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="S29">
+        <v>0.95703703703703691</v>
+      </c>
+      <c r="T29">
+        <v>0.43278885589025595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>5.2151829601310755</v>
+      </c>
+      <c r="C30">
+        <v>5.7351351351351347</v>
+      </c>
+      <c r="E30">
+        <v>6.7270165551250436</v>
+      </c>
+      <c r="F30">
+        <v>7.0602587800369685</v>
+      </c>
+      <c r="G30">
+        <v>6.8846431146359048</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="5"/>
+        <v>0.43459858001092294</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="6"/>
+        <v>0.47792792792792788</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="7"/>
+        <v>0.560584712927087</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="8"/>
+        <v>0.58835489833641408</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="9"/>
+        <v>0.57372025955299211</v>
+      </c>
+      <c r="R30" t="s">
+        <v>52</v>
+      </c>
+      <c r="S30">
+        <v>0.96137724550898207</v>
+      </c>
+      <c r="T30">
+        <v>0.91510684760567773</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>9.8146731571627264</v>
+      </c>
+      <c r="C31">
+        <v>10.335774441596485</v>
+      </c>
+      <c r="E31">
+        <v>9.9777306468716862</v>
+      </c>
+      <c r="F31">
+        <v>9.736805795101759</v>
+      </c>
+      <c r="G31">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="5"/>
+        <v>0.81788942976356049</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="6"/>
+        <v>0.86131453679970704</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="7"/>
+        <v>0.83147755390597389</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="8"/>
+        <v>0.81140048292514655</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="9"/>
+        <v>0.80833333333333324</v>
+      </c>
+      <c r="R31" t="s">
+        <v>54</v>
+      </c>
+      <c r="S31">
+        <v>0.57090807174887892</v>
+      </c>
+      <c r="T31">
+        <v>0.55604643104643103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32">
+        <v>8.7742825607064017</v>
+      </c>
+      <c r="C32">
+        <v>9.3725682845352729</v>
+      </c>
+      <c r="E32">
+        <v>11.386249701599427</v>
+      </c>
+      <c r="F32">
+        <v>11.529369108049311</v>
+      </c>
+      <c r="G32">
+        <v>11.236042402826856</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>0.73119021339220014</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="6"/>
+        <v>0.78104735704460604</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="7"/>
+        <v>0.9488541417999522</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="8"/>
+        <v>0.9607807590041092</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="9"/>
+        <v>0.93633686690223794</v>
+      </c>
+      <c r="R32" t="s">
+        <v>55</v>
+      </c>
+      <c r="S32">
+        <v>0.65331700801424764</v>
+      </c>
+      <c r="T32">
+        <v>0.74626865671641784</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="R33" t="s">
+        <v>56</v>
+      </c>
+      <c r="S33">
+        <v>0.79835190343546891</v>
+      </c>
+      <c r="T33">
+        <v>0.87565339766787298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34">
+        <v>8.166156615661567</v>
+      </c>
+      <c r="C34">
+        <v>8.1485539788036636</v>
+      </c>
+      <c r="E34">
+        <v>8.9104301708898053</v>
+      </c>
+      <c r="F34">
+        <v>9.1457661290322587</v>
+      </c>
+      <c r="G34">
+        <v>9.3647811725846406</v>
+      </c>
+      <c r="I34">
+        <f>(B34/12)</f>
+        <v>0.68051305130513062</v>
+      </c>
+      <c r="J34">
+        <f>(C34/12)</f>
+        <v>0.67904616490030534</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:N35" si="10">(E34/12)</f>
+        <v>0.74253584757415048</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="10"/>
+        <v>0.76214717741935489</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="10"/>
+        <v>0.78039843104872009</v>
+      </c>
+      <c r="R34" t="s">
+        <v>57</v>
+      </c>
+      <c r="S34">
+        <v>0.29782178217821781</v>
+      </c>
+      <c r="T34">
+        <v>0.50942767066812167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>6.0217303822937627</v>
+      </c>
+      <c r="C35">
+        <v>6.7063041529728116</v>
+      </c>
+      <c r="E35">
+        <v>8.5671755725190835</v>
+      </c>
+      <c r="F35">
+        <v>8.7457627118644066</v>
+      </c>
+      <c r="G35">
+        <v>8.7542901716068648</v>
+      </c>
+      <c r="I35">
+        <f>(B35/12)</f>
+        <v>0.50181086519114693</v>
+      </c>
+      <c r="J35">
+        <f>(C35/12)</f>
+        <v>0.55885867941440093</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="10"/>
+        <v>0.71393129770992358</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="10"/>
+        <v>0.72881355932203384</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="10"/>
+        <v>0.7295241809672387</v>
+      </c>
+      <c r="R35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S35">
+        <v>0.21373983739837396</v>
+      </c>
+      <c r="T35">
+        <v>0.47792792792792788</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S36">
+        <v>0.77156823623304072</v>
+      </c>
+      <c r="T36">
+        <v>0.86131453679970704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R37" t="s">
+        <v>78</v>
+      </c>
+      <c r="S37">
+        <v>0.54348926380368101</v>
+      </c>
+      <c r="T37">
+        <v>0.78104735704460604</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
+        <v>81</v>
+      </c>
+      <c r="S38">
+        <v>0.35675281576830253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R39" t="s">
+        <v>73</v>
+      </c>
+      <c r="S39">
+        <v>0.46118367896579587</v>
+      </c>
+      <c r="T39">
+        <v>0.67904616490030534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R40" t="s">
+        <v>60</v>
+      </c>
+      <c r="S40">
+        <v>0.28831271030066208</v>
+      </c>
+      <c r="T40">
+        <v>0.55885867941440093</v>
       </c>
     </row>
   </sheetData>
@@ -12906,18 +16610,18 @@
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -12979,7 +16683,7 @@
       <c r="B8">
         <v>3237</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1.39</v>
       </c>
       <c r="D8">
@@ -13007,7 +16711,7 @@
       <c r="B9">
         <v>3217</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1.4</v>
       </c>
       <c r="D9">
@@ -13035,7 +16739,7 @@
       <c r="B10">
         <v>1767</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>2.5499999999999998</v>
       </c>
       <c r="D10">
@@ -13063,7 +16767,7 @@
       <c r="B11">
         <v>1779</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>2.5299999999999998</v>
       </c>
       <c r="D11">
@@ -13609,7 +17313,7 @@
         <f>AVERAGE(666,740)</f>
         <v>703</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <f>AVERAGE(6.08,6.676)</f>
         <v>6.3780000000000001</v>
       </c>
@@ -14578,7 +18282,7 @@
         <v>33.284313725490193</v>
       </c>
       <c r="J74" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -14966,8 +18670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14980,15 +18684,15 @@
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>0.8</v>
@@ -15230,7 +18934,7 @@
         <v>8.113538373095718</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F14">
         <v>8</v>
@@ -15914,26 +19618,77 @@
       <c r="F40">
         <v>34</v>
       </c>
+      <c r="G40">
+        <v>1325</v>
+      </c>
+      <c r="H40">
+        <v>3.96</v>
+      </c>
+      <c r="I40">
+        <f>AVERAGE(G7/G40)</f>
+        <v>29.185660377358492</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F41">
         <v>35</v>
       </c>
+      <c r="G41">
+        <v>1354</v>
+      </c>
+      <c r="H41">
+        <v>3.88</v>
+      </c>
+      <c r="I41">
+        <f>AVERAGE(G7/G41)</f>
+        <v>28.560561299852289</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F42">
         <v>36</v>
       </c>
+      <c r="G42">
+        <v>1285</v>
+      </c>
+      <c r="H42">
+        <v>4.09</v>
+      </c>
+      <c r="I42">
+        <f>AVERAGE(G7/G42)</f>
+        <v>30.094163424124513</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F43">
         <v>37</v>
       </c>
+      <c r="G43">
+        <v>1293</v>
+      </c>
+      <c r="H43">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="I43">
+        <f>AVERAGE(G7/G43)</f>
+        <v>29.907965970610981</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F44">
         <v>38</v>
       </c>
+      <c r="G44">
+        <f>AVERAGE(1273,1262)</f>
+        <v>1267.5</v>
+      </c>
+      <c r="H44">
+        <v>4.1349999999999998</v>
+      </c>
+      <c r="I44">
+        <f>AVERAGE(G7/G44)</f>
+        <v>30.50966469428008</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F45">
@@ -15969,25 +19724,75 @@
       <c r="F47">
         <v>41</v>
       </c>
+      <c r="G47">
+        <v>1235</v>
+      </c>
+      <c r="H47">
+        <v>4.25</v>
+      </c>
+      <c r="I47">
+        <f>AVERAGE(G7/G47)</f>
+        <v>31.312550607287449</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F48">
         <v>42</v>
       </c>
+      <c r="G48">
+        <v>1238</v>
+      </c>
+      <c r="H48">
+        <v>4.24</v>
+      </c>
+      <c r="I48">
+        <f>AVERAGE(G7/G48)</f>
+        <v>31.236672051696285</v>
+      </c>
     </row>
     <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>43</v>
       </c>
+      <c r="G49">
+        <v>1209</v>
+      </c>
+      <c r="H49">
+        <v>4.34</v>
+      </c>
+      <c r="I49">
+        <f>AVERAGE(G7/G49)</f>
+        <v>31.985938792390407</v>
+      </c>
     </row>
     <row r="50" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>44</v>
       </c>
+      <c r="G50">
+        <v>1186</v>
+      </c>
+      <c r="H50">
+        <v>4.43</v>
+      </c>
+      <c r="I50">
+        <f>AVERAGE(G7/G50)</f>
+        <v>32.606239460370993</v>
+      </c>
     </row>
     <row r="51" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>45</v>
+      </c>
+      <c r="G51">
+        <v>1201</v>
+      </c>
+      <c r="H51">
+        <v>4.37</v>
+      </c>
+      <c r="I51">
+        <f>AVERAGE(G7/G51)</f>
+        <v>32.19900083263947</v>
       </c>
     </row>
     <row r="52" spans="6:9" x14ac:dyDescent="0.25">
@@ -16284,8 +20089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16308,7 +20113,7 @@
     </row>
     <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -16486,7 +20291,7 @@
       <c r="B13">
         <v>3604</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>1.08</v>
       </c>
       <c r="D13">
@@ -16507,7 +20312,7 @@
       <c r="B14">
         <v>3172</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>1.23</v>
       </c>
       <c r="D14">
@@ -16538,7 +20343,7 @@
       <c r="B15">
         <v>2847</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>1.37</v>
       </c>
       <c r="D15">
@@ -16556,7 +20361,7 @@
       <c r="B16">
         <v>2586</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>1.5</v>
       </c>
       <c r="D16">
@@ -16566,6 +20371,16 @@
       <c r="F16">
         <v>10</v>
       </c>
+      <c r="G16">
+        <v>3972</v>
+      </c>
+      <c r="H16">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(G7/G16)</f>
+        <v>7.3884692849949651</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -16574,7 +20389,7 @@
       <c r="B17">
         <v>2357</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>1.65</v>
       </c>
       <c r="D17">
@@ -16592,7 +20407,7 @@
       <c r="B18">
         <v>2211</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>1.76</v>
       </c>
       <c r="D18">
@@ -16610,7 +20425,7 @@
       <c r="B19">
         <v>2223</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>1.75</v>
       </c>
       <c r="D19">
@@ -16628,7 +20443,7 @@
       <c r="B20">
         <v>2193</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>1.77</v>
       </c>
       <c r="D20">
@@ -16646,7 +20461,7 @@
       <c r="B21">
         <v>2140</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>1.82</v>
       </c>
       <c r="D21">
@@ -16664,7 +20479,7 @@
       <c r="B22">
         <v>2092</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>1.86</v>
       </c>
       <c r="D22">
@@ -16692,7 +20507,7 @@
       <c r="B23">
         <v>2031</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>1.91</v>
       </c>
       <c r="D23">
@@ -16710,7 +20525,7 @@
       <c r="B24">
         <v>1969</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>1.98</v>
       </c>
       <c r="D24">
@@ -16728,7 +20543,7 @@
       <c r="B25">
         <v>1906</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>2.04</v>
       </c>
       <c r="D25">
@@ -16746,7 +20561,7 @@
       <c r="B26">
         <v>1849</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>2.1</v>
       </c>
       <c r="D26">
@@ -16774,7 +20589,7 @@
       <c r="B27">
         <v>1799</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>2.16</v>
       </c>
       <c r="D27">
@@ -16792,7 +20607,7 @@
       <c r="B28">
         <v>1752</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>2.2200000000000002</v>
       </c>
       <c r="D28">
@@ -16810,7 +20625,7 @@
       <c r="B29">
         <v>1703</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>2.2799999999999998</v>
       </c>
       <c r="D29">
@@ -16828,7 +20643,7 @@
       <c r="B30">
         <v>1662</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>2.34</v>
       </c>
       <c r="D30">
@@ -16846,7 +20661,7 @@
       <c r="B31">
         <v>1709</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>2.2799999999999998</v>
       </c>
       <c r="D31">
@@ -16864,7 +20679,7 @@
       <c r="B32">
         <v>1715</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>2.27</v>
       </c>
       <c r="D32">
@@ -16882,7 +20697,7 @@
       <c r="B33">
         <v>1717</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>2.27</v>
       </c>
       <c r="D33">
@@ -16946,6 +20761,16 @@
       <c r="F36">
         <v>30</v>
       </c>
+      <c r="G36">
+        <v>1367</v>
+      </c>
+      <c r="H36">
+        <v>2.85</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(G7/G36)</f>
+        <v>21.468178493050477</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F37">
@@ -17027,82 +20852,92 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F55">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F56">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>1033</v>
+      </c>
+      <c r="H56">
+        <v>3.76</v>
+      </c>
+      <c r="I56">
+        <f>AVERAGE(G7/G56)</f>
+        <v>28.409486931268152</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F57">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F64">
         <v>58</v>
       </c>
@@ -17352,8 +21187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="C76" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17366,23 +21201,23 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
@@ -17668,6 +21503,16 @@
       <c r="F16">
         <v>10</v>
       </c>
+      <c r="G16">
+        <v>3224</v>
+      </c>
+      <c r="H16">
+        <v>1.35</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(G7/G16)</f>
+        <v>9.9596774193548381</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -17858,6 +21703,16 @@
       <c r="F26">
         <v>20</v>
       </c>
+      <c r="G26">
+        <v>1610</v>
+      </c>
+      <c r="H26">
+        <v>2.7</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(G7/G26)</f>
+        <v>19.944099378881987</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -18048,6 +21903,16 @@
       <c r="F36">
         <v>30</v>
       </c>
+      <c r="G36">
+        <v>1076</v>
+      </c>
+      <c r="H36">
+        <v>4.04</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(G7/G36)</f>
+        <v>29.842007434944239</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F37">
@@ -18139,82 +22004,92 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F55">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F56">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>792</v>
+      </c>
+      <c r="H56">
+        <v>5.49</v>
+      </c>
+      <c r="I56">
+        <f>AVERAGE(G7/G56)</f>
+        <v>40.542929292929294</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F57">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F64">
         <v>58</v>
       </c>
@@ -18228,6 +22103,16 @@
       <c r="F66">
         <v>60</v>
       </c>
+      <c r="G66">
+        <v>766</v>
+      </c>
+      <c r="H66">
+        <v>5.68</v>
+      </c>
+      <c r="I66">
+        <f>AVERAGE(G7/G66)</f>
+        <v>41.919060052219322</v>
+      </c>
     </row>
     <row r="67" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F67">
@@ -18287,6 +22172,16 @@
     <row r="76" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F76">
         <v>70</v>
+      </c>
+      <c r="G76">
+        <v>744</v>
+      </c>
+      <c r="H76">
+        <v>5.85</v>
+      </c>
+      <c r="I76">
+        <f>AVERAGE(G7/G76)</f>
+        <v>43.158602150537632</v>
       </c>
     </row>
     <row r="77" spans="6:9" x14ac:dyDescent="0.25">
@@ -18438,8 +22333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86:J87"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18452,21 +22347,21 @@
   <sheetData>
     <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
@@ -19488,15 +23383,15 @@
   <sheetData>
     <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
@@ -20535,22 +24430,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="3">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -21596,19 +25491,19 @@
   <sheetData>
     <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2">
         <v>0.19700000000000001</v>
       </c>
       <c r="G5">

--- a/12_40CoreBench.xlsx
+++ b/12_40CoreBench.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="smithwa" sheetId="12" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="100">
   <si>
     <t>12 Core Potsdam Bench measurements</t>
   </si>
@@ -160,9 +160,6 @@
     <t>mem 0,6 %</t>
   </si>
   <si>
-    <t>mem: 0,1%</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -276,6 +273,63 @@
   <si>
     <t>mgrid331 42.5 %</t>
   </si>
+  <si>
+    <t>mem: 0 %</t>
+  </si>
+  <si>
+    <t>md 40</t>
+  </si>
+  <si>
+    <t>smithwa 40</t>
+  </si>
+  <si>
+    <t>botsalgn 40</t>
+  </si>
+  <si>
+    <t>kdtree 40</t>
+  </si>
+  <si>
+    <t>nab 40</t>
+  </si>
+  <si>
+    <t>imagick 40</t>
+  </si>
+  <si>
+    <t>fma3d 40</t>
+  </si>
+  <si>
+    <t>swim 40</t>
+  </si>
+  <si>
+    <t>botsspar 40</t>
+  </si>
+  <si>
+    <t>bt331 40</t>
+  </si>
+  <si>
+    <t>mgrid331 40</t>
+  </si>
+  <si>
+    <t>applu331 40</t>
+  </si>
+  <si>
+    <t>bwaves 40</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>Add. Threads</t>
+  </si>
+  <si>
+    <t>Memory 1,5%</t>
+  </si>
+  <si>
+    <t>Mem 1,6 %</t>
+  </si>
 </sst>
 </file>
 
@@ -344,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -357,6 +411,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1297,11 +1355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197557248"/>
-        <c:axId val="197571328"/>
+        <c:axId val="197008000"/>
+        <c:axId val="197030272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197557248"/>
+        <c:axId val="197008000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,7 +1369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197571328"/>
+        <c:crossAx val="197030272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1319,7 +1377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197571328"/>
+        <c:axId val="197030272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,7 +1388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197557248"/>
+        <c:crossAx val="197008000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1396,37 +1454,33 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AC$4:$AC$7</c:f>
+              <c:f>Tabelle1!$AC$4:$AC$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.9602224075000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.553003605</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9602224075000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,37 +1502,33 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AD$4:$AD$7</c:f>
+              <c:f>Tabelle1!$AD$4:$AD$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.92631892493700807</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.3753480076561682</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92631892493700807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1500,37 +1550,33 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AE$4:$AE$7</c:f>
+              <c:f>Tabelle1!$AE$4:$AE$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.89161920214470436</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.37552663593594071</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.89161920214470436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1552,37 +1598,33 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AF$4:$AF$7</c:f>
+              <c:f>Tabelle1!$AF$4:$AF$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.93057968396238788</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.97958355187887824</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93057968396238788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1604,37 +1646,33 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AG$4:$AG$7</c:f>
+              <c:f>Tabelle1!$AG$4:$AG$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.92527268566473153</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0633348559089775</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92527268566473153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,39 +1688,35 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>md Mem 0%</c:v>
+                  <c:v>md 40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AH$4:$AH$7</c:f>
+              <c:f>Tabelle1!$AH$4:$AH$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
                   <c:v>0.16067704218675935</c:v>
                 </c:pt>
               </c:numCache>
@@ -1695,53 +1729,43 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AI$3</c:f>
+              <c:f>Tabelle1!$AJ$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>smithwa Mem 0.1 %</c:v>
+                  <c:v>smithwa 40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AI$4:$AI$7</c:f>
+              <c:f>Tabelle1!$AJ$4:$AJ$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.95703703703703691</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.72857142857142854</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95703703703703691</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.79199016563146996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.43278885589025595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1753,53 +1777,43 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AJ$3</c:f>
+              <c:f>Tabelle1!$AL$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>botsalgn Mem 0.1 %</c:v>
+                  <c:v>botsalgn 40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AJ$4:$AJ$7</c:f>
+              <c:f>Tabelle1!$AL$4:$AL$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.96137724550898207</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.1057162534435263</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96137724550898207</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0900687476774433</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.91510684760567773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1811,53 +1825,43 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AK$3</c:f>
+              <c:f>Tabelle1!$AN$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>kdtree Mem 0.5 %</c:v>
+                  <c:v>kdtree 40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AK$4:$AK$7</c:f>
+              <c:f>Tabelle1!$AN$4:$AN$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.57090807174887892</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.89342105263157889</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.57090807174887892</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75340375586854458</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55604643104643103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1869,53 +1873,43 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AL$3</c:f>
+              <c:f>Tabelle1!$AP$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>nab Mem 1.3%</c:v>
+                  <c:v>nab 40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AL$4:$AL$7</c:f>
+              <c:f>Tabelle1!$AP$4:$AP$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.65331700801424764</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.83088901472253673</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65331700801424764</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99277978339350181</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.74626865671641784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1927,53 +1921,43 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AM$3</c:f>
+              <c:f>Tabelle1!$AR$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>imagick Mem 5.2 %</c:v>
+                  <c:v>imagick 40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AM$4:$AM$7</c:f>
+              <c:f>Tabelle1!$AR$4:$AR$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.79835190343546891</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.95008287292817672</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.79835190343546891</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0110259981429899</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.87565339766787298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1985,53 +1969,43 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AN$3</c:f>
+              <c:f>Tabelle1!$AT$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>fma3d Mem 16 %</c:v>
+                  <c:v>fma3d 40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AN$4:$AN$7</c:f>
+              <c:f>Tabelle1!$AT$4:$AT$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.29782178217821781</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.34956420685647877</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.29782178217821781</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70408077761018939</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50942767066812167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2043,53 +2017,43 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AO$3</c:f>
+              <c:f>Tabelle1!$AV$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>swim Mem 19.7 %</c:v>
+                  <c:v>swim 40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AO$4:$AO$7</c:f>
+              <c:f>Tabelle1!$AV$4:$AV$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.21373983739837396</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.27968085106382978</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21373983739837396</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.58835489833641408</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47792792792792788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2101,53 +2065,43 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AP$3</c:f>
+              <c:f>Tabelle1!$AX$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>botsspar Mem 21.5 %</c:v>
+                  <c:v>botsspar 40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AP$4:$AP$7</c:f>
+              <c:f>Tabelle1!$AX$4:$AX$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.77156823623304072</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.84360820244328105</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.77156823623304072</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.81140048292514655</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86131453679970704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2159,53 +2113,43 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AQ$3</c:f>
+              <c:f>Tabelle1!$AZ$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bt331 Mem 34 %</c:v>
+                  <c:v>bt331 40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AQ$4:$AQ$7</c:f>
+              <c:f>Tabelle1!$AZ$4:$AZ$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.54348926380368101</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.73762489592006664</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.54348926380368101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9607807590041092</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.78104735704460604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2217,47 +2161,43 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AR$3</c:f>
+              <c:f>Tabelle1!$BB$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mgrid331 42.5 %</c:v>
+                  <c:v>mgrid331 40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AR$4:$AR$7</c:f>
+              <c:f>Tabelle1!$BB$4:$BB$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.35675281576830253</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.42526372572524573</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.35675281576830253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,53 +2209,43 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AS$3</c:f>
+              <c:f>Tabelle1!$BD$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>applu331 Mem 45.2%</c:v>
+                  <c:v>applu331 40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AS$4:$AS$7</c:f>
+              <c:f>Tabelle1!$BD$4:$BD$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.46118367896579587</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.43209058793843047</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.46118367896579587</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76214717741935489</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.67904616490030534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,53 +2257,277 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AT$3</c:f>
+              <c:f>Tabelle1!$BF$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bwaves Mem 65 %</c:v>
+                  <c:v>bwaves 40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AT$4:$AT$7</c:f>
+              <c:f>Tabelle1!$BF$4:$BF$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.28831271030066208</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.43260993485342014</c:v>
                 </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AI$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>md Mem 0%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Physical</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28831271030066208</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72881355932203384</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55885867941440093</c:v>
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AI$4:$AI$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AK$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>smithwa Mem 0.1 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Physical</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virtual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AK$4:$AK$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.43278885589025595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79199016563146996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AM$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>botsalgn Mem 0.1 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Physical</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virtual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AM$4:$AM$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.91510684760567773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0900687476774433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AO$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kdtree Mem 0.5 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Physical</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virtual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AO$4:$AO$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.55604643104643103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75340375586854458</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AQ$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nab Mem 1.3%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$BH$4:$BH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Physical</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Virtual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Add. Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AQ$4:$AQ$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.74626865671641784</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99277978339350181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2390,11 +2544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196621056"/>
-        <c:axId val="196622592"/>
+        <c:axId val="196041728"/>
+        <c:axId val="196068096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196621056"/>
+        <c:axId val="196041728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2404,7 +2558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196622592"/>
+        <c:crossAx val="196068096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2412,7 +2566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196622592"/>
+        <c:axId val="196068096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,13 +2577,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196621056"/>
+        <c:crossAx val="196041728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3050,11 +3205,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197827584"/>
-        <c:axId val="197849856"/>
+        <c:axId val="197540480"/>
+        <c:axId val="197554560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197827584"/>
+        <c:axId val="197540480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3064,7 +3219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197849856"/>
+        <c:crossAx val="197554560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3072,7 +3227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197849856"/>
+        <c:axId val="197554560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3083,7 +3238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197827584"/>
+        <c:crossAx val="197540480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3719,11 +3874,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198131072"/>
-        <c:axId val="198141056"/>
+        <c:axId val="197573632"/>
+        <c:axId val="197591808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198131072"/>
+        <c:axId val="197573632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3732,7 +3887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198141056"/>
+        <c:crossAx val="197591808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3740,7 +3895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198141056"/>
+        <c:axId val="197591808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3751,7 +3906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198131072"/>
+        <c:crossAx val="197573632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4267,11 +4422,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198193152"/>
-        <c:axId val="198194688"/>
+        <c:axId val="197635456"/>
+        <c:axId val="197637248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198193152"/>
+        <c:axId val="197635456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4280,7 +4435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198194688"/>
+        <c:crossAx val="197637248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4288,7 +4443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198194688"/>
+        <c:axId val="197637248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4299,7 +4454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198193152"/>
+        <c:crossAx val="197635456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4374,7 +4529,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle15!$I$2</c:f>
+              <c:f>Tabelle15!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4386,139 +4541,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle15!$H$3:$H$19</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>Mandelbrot</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SortArray</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fibonacci</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CountingNumbers</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CalculatePrimes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>smithwa</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>bwaves</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>imagick</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>fma3d</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>botsalgn</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>botsspar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>nab</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>kdtree</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>swim</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>bt331</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>md</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>applu331</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Tabelle15!$I$3:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>6.1694647500000088E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.7674158005857761E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0493924910745029E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.10602045849473252</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.2191148526645228E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.8000000000000078E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.70804297647834691</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.21975952813067157</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.70009970089730811</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.2243211334120465E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.23995676100628927</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.35359030837004402</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.4341666666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.78178950863213814</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.44975931677018632</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.55020357236669293</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle15!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle15!$H$3:$H$19</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -4582,6 +4605,138 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>6.1694647500000088E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7674158005857761E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0493924910745029E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10602045849473252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2191148526645228E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8000000000000078E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70804297647834691</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21975952813067157</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70009970089730811</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2243211334120465E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23995676100628927</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35359030837004402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4341666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78178950863213814</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44975931677018632</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.55020357236669293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle15!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle15!$I$3:$I$19</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SortArray</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CountingNumbers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CalculatePrimes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>smithwa</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>imagick</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>fma3d</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>botsalgn</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>botsspar</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>nab</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>kdtree</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>swim</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bt331</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>md</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>applu331</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle15!$K$3:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
                   <c:v>3.9777592499999903E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -4638,7 +4793,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle15!$L$2</c:f>
+              <c:f>Tabelle15!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4650,142 +4805,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle15!$H$3:$H$19</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>Mandelbrot</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SortArray</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fibonacci</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CountingNumbers</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CalculatePrimes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>smithwa</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>bwaves</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>imagick</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>fma3d</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>botsalgn</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>botsspar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>nab</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>kdtree</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>swim</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>bt331</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>md</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>applu331</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle15!$L$3:$L$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>-0.5435575800000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.3686796536796535</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9158878504672905E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.61547111583446712</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6.2287948095335555E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8213399503722045E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.55402535258562791</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.1443701226309804E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.64632569077013524</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.10116598079561046</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15712728857890146</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.16911098527746327</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.11588541666666663</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.72008091993185686</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.28815789473684217</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.84177298895285513</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.56681634201872</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle15!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle15!$H$3:$H$19</c:f>
+              <c:f>Tabelle15!$I$3:$I$19</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -4849,6 +4869,141 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>-0.5435575800000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.3686796536796535</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9158878504672905E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61547111583446712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.2287948095335555E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8213399503722045E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55402535258562791</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1443701226309804E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64632569077013524</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.10116598079561046</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15712728857890146</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16911098527746327</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11588541666666663</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72008091993185686</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28815789473684217</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84177298895285513</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56681634201872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle15!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle15!$I$3:$I$19</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SortArray</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CountingNumbers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CalculatePrimes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>smithwa</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>imagick</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>fma3d</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>botsalgn</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>botsspar</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>nab</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>kdtree</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>swim</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bt331</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>md</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>applu331</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle15!$N$3:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
                   <c:v>-0.55300360500000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -4905,7 +5060,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle15!$N$2</c:f>
+              <c:f>Tabelle15!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4917,7 +5072,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle15!$H$3:$H$19</c:f>
+              <c:f>Tabelle15!$I$3:$I$19</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -4976,7 +5131,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle15!$N$3:$N$19</c:f>
+              <c:f>Tabelle15!$O$3:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -5041,11 +5196,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198215552"/>
-        <c:axId val="198217088"/>
+        <c:axId val="197727744"/>
+        <c:axId val="197729280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198215552"/>
+        <c:axId val="197727744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5054,7 +5209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198217088"/>
+        <c:crossAx val="197729280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5062,7 +5217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198217088"/>
+        <c:axId val="197729280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5073,7 +5228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198215552"/>
+        <c:crossAx val="197727744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5140,7 +5295,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle15!$I$22</c:f>
+              <c:f>Tabelle15!$J$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5152,100 +5307,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle15!$H$23:$H$32</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>botsalgn Mem 0.1 %</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>smithwa Mem 0.1 %</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>kdtree Mem 0.5 %</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>nab Mem 1.3%</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>imagick Mem 5.2 %</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>fma3d Mem 16 %</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>swim Mem 19.7 %</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>botsspar Mem 21.5 %</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>applu331 Mem 45.2%</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>bwaves Mem 65 %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Tabelle15!$I$23:$I$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.14715074865532785</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11985907391429385</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.48516201475777987</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.29995757318625371</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17478211443728686</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.52608573040045115</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.56540141998907711</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.18211057023643951</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.31948694869486938</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.49818913480885307</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle15!$J$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle15!$H$23:$H$32</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5288,6 +5350,99 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.14715074865532785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11985907391429385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48516201475777987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29995757318625371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17478211443728686</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52608573040045115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56540141998907711</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18211057023643951</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31948694869486938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49818913480885307</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle15!$K$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle15!$I$23:$I$32</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>botsalgn Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>smithwa Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kdtree Mem 0.5 %</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nab Mem 1.3%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>imagick Mem 5.2 %</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fma3d Mem 16 %</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swim Mem 19.7 %</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>botsspar Mem 21.5 %</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>applu331 Mem 45.2%</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bwaves Mem 65 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle15!$K$23:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
                   <c:v>8.4893152394322269E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -5326,7 +5481,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle15!$L$22</c:f>
+              <c:f>Tabelle15!$M$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5338,100 +5493,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle15!$H$23:$H$32</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>botsalgn Mem 0.1 %</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>smithwa Mem 0.1 %</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>kdtree Mem 0.5 %</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>nab Mem 1.3%</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>imagick Mem 5.2 %</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>fma3d Mem 16 %</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>swim Mem 19.7 %</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>botsspar Mem 21.5 %</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>applu331 Mem 45.2%</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>bwaves Mem 65 %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle15!$L$23:$L$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-7.5087044163459682E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55840548340548346</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.27222222222222225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1121550205519655E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9477543538037878E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3221603743142949</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.439415287072913</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.16852244609402611</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.25746415242584952</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.28606870229007642</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle15!$M$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle15!$H$23:$H$32</c:f>
+              <c:f>Tabelle15!$I$23:$I$32</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5474,6 +5536,99 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-7.5087044163459682E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55840548340548346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27222222222222225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1121550205519655E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9477543538037878E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3221603743142949</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.439415287072913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16852244609402611</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25746415242584952</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28606870229007642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle15!$N$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle15!$I$23:$I$32</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>botsalgn Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>smithwa Mem 0.1 %</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kdtree Mem 0.5 %</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nab Mem 1.3%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>imagick Mem 5.2 %</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fma3d Mem 16 %</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swim Mem 19.7 %</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>botsspar Mem 21.5 %</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>applu331 Mem 45.2%</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bwaves Mem 65 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle15!$N$23:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
                   <c:v>-9.0068747677443328E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -5512,7 +5667,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle15!$N$22</c:f>
+              <c:f>Tabelle15!$O$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5524,7 +5679,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle15!$H$23:$H$32</c:f>
+              <c:f>Tabelle15!$I$23:$I$32</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5562,7 +5717,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle15!$N$23:$N$32</c:f>
+              <c:f>Tabelle15!$O$23:$O$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5609,11 +5764,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197925888"/>
-        <c:axId val="197935872"/>
+        <c:axId val="197761664"/>
+        <c:axId val="197771648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197925888"/>
+        <c:axId val="197761664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5622,7 +5777,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197935872"/>
+        <c:crossAx val="197771648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5630,7 +5785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197935872"/>
+        <c:axId val="197771648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5641,7 +5796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197925888"/>
+        <c:crossAx val="197761664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5916,6 +6071,9 @@
                 <c:pt idx="14">
                   <c:v>0.9607807590041092</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78718006966530363</c:v>
+                </c:pt>
                 <c:pt idx="16">
                   <c:v>0.76214717741935489</c:v>
                 </c:pt>
@@ -5937,11 +6095,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196510080"/>
-        <c:axId val="196511616"/>
+        <c:axId val="197826048"/>
+        <c:axId val="197827584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196510080"/>
+        <c:axId val="197826048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5950,7 +6108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196511616"/>
+        <c:crossAx val="197827584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5958,7 +6116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196511616"/>
+        <c:axId val="197827584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5969,13 +6127,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196510080"/>
+        <c:crossAx val="197826048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6278,11 +6437,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196532480"/>
-        <c:axId val="196538368"/>
+        <c:axId val="197836160"/>
+        <c:axId val="197850240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196532480"/>
+        <c:axId val="197836160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6291,7 +6450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196538368"/>
+        <c:crossAx val="197850240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6299,7 +6458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196538368"/>
+        <c:axId val="197850240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6310,13 +6469,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196532480"/>
+        <c:crossAx val="197836160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6352,24 +6512,24 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AB$4</c:f>
+              <c:f>Tabelle1!$BH$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>Virtual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$AC$3:$AT$3</c:f>
+              <c:f>Tabelle1!$AC$3:$BG$3</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>Mandelbrot</c:v>
                 </c:pt>
@@ -6386,42 +6546,81 @@
                   <c:v>CalculatePrimes</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>md 40</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>md Mem 0%</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>smithwa 40</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>smithwa Mem 0.1 %</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>botsalgn 40</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>botsalgn Mem 0.1 %</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>kdtree 40</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>kdtree Mem 0.5 %</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
+                  <c:v>nab 40</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>nab Mem 1.3%</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>imagick 40</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>imagick Mem 5.2 %</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
+                  <c:v>fma3d 40</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>fma3d Mem 16 %</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
+                  <c:v>swim 40</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>swim Mem 19.7 %</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
+                  <c:v>botsspar 40</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>botsspar Mem 21.5 %</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
+                  <c:v>bt331 40</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>bt331 Mem 34 %</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
+                  <c:v>mgrid331 40</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>mgrid331 42.5 %</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="27">
+                  <c:v>applu331 40</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>applu331 Mem 45.2%</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="29">
+                  <c:v>bwaves 40</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>bwaves Mem 65 %</c:v>
                 </c:pt>
               </c:strCache>
@@ -6429,10 +6628,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AC$4:$AT$4</c:f>
+              <c:f>Tabelle1!$AC$5:$BG$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.553003605</c:v>
                 </c:pt>
@@ -6451,179 +6650,74 @@
                 <c:pt idx="5">
                   <c:v>0.16067704218675935</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.72857142857142854</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>0.79199016563146996</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1.1057162534435263</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>1.0900687476774433</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.89342105263157889</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
+                  <c:v>0.75340375586854458</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.83088901472253673</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>0.99277978339350181</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.95008287292817672</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
+                  <c:v>1.0110259981429899</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.34956420685647877</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
+                  <c:v>0.70408077761018939</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.27968085106382978</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
+                  <c:v>0.58835489833641408</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.84360820244328105</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="22">
+                  <c:v>0.81140048292514655</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.73762489592006664</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="24">
+                  <c:v>0.9607807590041092</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.42526372572524573</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="27">
                   <c:v>0.43209058793843047</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="28">
+                  <c:v>0.76214717741935489</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0.43260993485342014</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$AB$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$AC$3:$AT$3</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>Mandelbrot</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SortArray</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CountingNumbers</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Fibonacci</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CalculatePrimes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>md Mem 0%</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>smithwa Mem 0.1 %</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>botsalgn Mem 0.1 %</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>kdtree Mem 0.5 %</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>nab Mem 1.3%</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>imagick Mem 5.2 %</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>fma3d Mem 16 %</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>swim Mem 19.7 %</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>botsspar Mem 21.5 %</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>bt331 Mem 34 %</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>mgrid331 42.5 %</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>applu331 Mem 45.2%</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>bwaves Mem 65 %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$AC$5:$AT$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.9602224075000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92631892493700807</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89161920214470436</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.93057968396238788</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92527268566473153</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95703703703703691</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96137724550898207</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.57090807174887892</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.65331700801424764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.79835190343546891</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.29782178217821781</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.21373983739837396</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.77156823623304072</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.54348926380368101</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.35675281576830253</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.46118367896579587</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.28831271030066208</c:v>
+                <c:pt idx="30">
+                  <c:v>0.72881355932203384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6632,23 +6726,23 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AB$6</c:f>
+              <c:f>Tabelle1!$BH$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>Physical</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$AC$3:$AT$3</c:f>
+              <c:f>Tabelle1!$AC$3:$BG$3</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>Mandelbrot</c:v>
                 </c:pt>
@@ -6665,42 +6759,81 @@
                   <c:v>CalculatePrimes</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>md 40</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>md Mem 0%</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>smithwa 40</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>smithwa Mem 0.1 %</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>botsalgn 40</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>botsalgn Mem 0.1 %</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>kdtree 40</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>kdtree Mem 0.5 %</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
+                  <c:v>nab 40</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>nab Mem 1.3%</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>imagick 40</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>imagick Mem 5.2 %</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
+                  <c:v>fma3d 40</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>fma3d Mem 16 %</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
+                  <c:v>swim 40</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>swim Mem 19.7 %</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
+                  <c:v>botsspar 40</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>botsspar Mem 21.5 %</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
+                  <c:v>bt331 40</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>bt331 Mem 34 %</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
+                  <c:v>mgrid331 40</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>mgrid331 42.5 %</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="27">
+                  <c:v>applu331 40</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>applu331 Mem 45.2%</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="29">
+                  <c:v>bwaves 40</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>bwaves Mem 65 %</c:v>
                 </c:pt>
               </c:strCache>
@@ -6708,42 +6841,93 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AC$6:$AT$6</c:f>
+              <c:f>Tabelle1!$AC$4:$BG$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="6">
-                  <c:v>0.79199016563146996</c:v>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.9602224075000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92631892493700807</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89161920214470436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93057968396238788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92527268566473153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0900687476774433</c:v>
+                  <c:v>0.95703703703703691</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75340375586854458</c:v>
+                  <c:v>0.43278885589025595</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99277978339350181</c:v>
+                  <c:v>0.96137724550898207</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0110259981429899</c:v>
+                  <c:v>0.91510684760567773</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70408077761018939</c:v>
+                  <c:v>0.57090807174887892</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.58835489833641408</c:v>
+                  <c:v>0.55604643104643103</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.81140048292514655</c:v>
+                  <c:v>0.65331700801424764</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9607807590041092</c:v>
+                  <c:v>0.74626865671641784</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.79835190343546891</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.76214717741935489</c:v>
+                  <c:v>0.87565339766787298</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.72881355932203384</c:v>
+                  <c:v>0.29782178217821781</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.50942767066812167</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.21373983739837396</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47792792792792788</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77156823623304072</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86131453679970704</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.54348926380368101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.78104735704460604</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.35675281576830253</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.46118367896579587</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.67904616490030534</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28831271030066208</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.55885867941440093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6751,24 +6935,24 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AB$7</c:f>
+              <c:f>Tabelle1!$BH$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>Add. Threads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$AC$3:$AT$3</c:f>
+              <c:f>Tabelle1!$AC$3:$BG$3</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>Mandelbrot</c:v>
                 </c:pt>
@@ -6785,42 +6969,81 @@
                   <c:v>CalculatePrimes</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>md 40</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>md Mem 0%</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>smithwa 40</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>smithwa Mem 0.1 %</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>botsalgn 40</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>botsalgn Mem 0.1 %</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>kdtree 40</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>kdtree Mem 0.5 %</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
+                  <c:v>nab 40</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>nab Mem 1.3%</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>imagick 40</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>imagick Mem 5.2 %</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
+                  <c:v>fma3d 40</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>fma3d Mem 16 %</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
+                  <c:v>swim 40</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>swim Mem 19.7 %</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
+                  <c:v>botsspar 40</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>botsspar Mem 21.5 %</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
+                  <c:v>bt331 40</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>bt331 Mem 34 %</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
+                  <c:v>mgrid331 40</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>mgrid331 42.5 %</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="27">
+                  <c:v>applu331 40</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>applu331 Mem 45.2%</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="29">
+                  <c:v>bwaves 40</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>bwaves Mem 65 %</c:v>
                 </c:pt>
               </c:strCache>
@@ -6828,42 +7051,99 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AC$7:$AT$7</c:f>
+              <c:f>Tabelle1!$AC$6:$BG$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="6">
-                  <c:v>0.43278885589025595</c:v>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.565336015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3830792449528644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36825773265058465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98118164110504846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0662393197981379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17633518293740247</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91510684760567773</c:v>
+                  <c:v>0.69338103756708402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55604643104643103</c:v>
+                  <c:v>0.39743506493506492</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74626865671641784</c:v>
+                  <c:v>1.1103042876901799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.87565339766787298</c:v>
+                  <c:v>1.0906767057073805</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.50942767066812167</c:v>
+                  <c:v>0.97557471264367823</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.47792792792792788</c:v>
+                  <c:v>0.87119978284473409</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.86131453679970704</c:v>
+                  <c:v>0.87031435349940689</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.78104735704460604</c:v>
+                  <c:v>0.96717467760844078</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96827139639639648</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.67904616490030534</c:v>
+                  <c:v>1.002647329650092</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.55885867941440093</c:v>
+                  <c:v>0.36284680337756331</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64475905463474525</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28675828970331591</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.54261847937265595</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84140557006092254</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.80117506811989092</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.70252775574940529</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92393072989307301</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.43283918984870667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.72523371005999726</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.35111236415829405</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.62042507795831281</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.45413318515985635</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.72654884443581269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6880,11 +7160,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197961600"/>
-        <c:axId val="197963136"/>
+        <c:axId val="195868160"/>
+        <c:axId val="195869696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197961600"/>
+        <c:axId val="195868160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6893,7 +7173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197963136"/>
+        <c:crossAx val="195869696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6901,7 +7181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197963136"/>
+        <c:axId val="195869696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6912,13 +7192,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197961600"/>
+        <c:crossAx val="195868160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6937,13 +7218,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>751840</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>58420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>690880</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>157480</xdr:rowOff>
@@ -6967,13 +7248,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>187960</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>378460</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
@@ -7003,7 +7284,7 @@
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
@@ -7033,7 +7314,7 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
@@ -7057,13 +7338,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7087,13 +7368,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -7183,15 +7464,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7212,16 +7493,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7534,8 +7815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7550,7 +7831,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
         <v>32</v>
@@ -9367,8 +9648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9398,10 +9679,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5">
-        <v>1.6</v>
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9637,8 +9918,18 @@
       <c r="F16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>8305</v>
+      </c>
+      <c r="H16">
+        <v>0.73</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(G7/G16)</f>
+        <v>8.2474413004214338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -9656,7 +9947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -9674,7 +9965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -9692,7 +9983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -9710,7 +10001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -9728,7 +10019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -9746,7 +10037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -9764,7 +10055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -9782,7 +10073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -9800,7 +10091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -9817,8 +10108,18 @@
       <c r="F26">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>4497</v>
+      </c>
+      <c r="H26">
+        <v>1.35</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(G7/G26)</f>
+        <v>15.231265287969757</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -9836,7 +10137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
@@ -9854,7 +10155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -9872,7 +10173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -9890,7 +10191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -9908,7 +10209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
@@ -9997,6 +10298,16 @@
       <c r="F36">
         <v>30</v>
       </c>
+      <c r="G36">
+        <v>3875</v>
+      </c>
+      <c r="H36">
+        <v>1.56</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(G7/G36)</f>
+        <v>17.676129032258064</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F37">
@@ -10078,162 +10389,192 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F55">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F56">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>3217</v>
+      </c>
+      <c r="H56">
+        <v>1.88</v>
+      </c>
+      <c r="I56">
+        <f>AVERAGE(G7/G56)</f>
+        <v>21.291576002486789</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F57">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F64">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F65">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F66">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>2896</v>
+      </c>
+      <c r="H66">
+        <v>2.09</v>
+      </c>
+      <c r="I66">
+        <f>AVERAGE(G7/G66)</f>
+        <v>23.651588397790054</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F67">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F68">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F69">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F70">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F71">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F72">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F73">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F74">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F75">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F76">
         <v>70</v>
       </c>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>3241</v>
+      </c>
+      <c r="H76">
+        <v>1.87</v>
+      </c>
+      <c r="I76">
+        <f>AVERAGE(G7/G76)</f>
+        <v>21.133909287257019</v>
+      </c>
+    </row>
+    <row r="77" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F77">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F78">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F79">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F80">
         <v>74</v>
       </c>
@@ -10346,6 +10687,16 @@
     <row r="96" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F96">
         <v>90</v>
+      </c>
+      <c r="G96">
+        <v>4877</v>
+      </c>
+      <c r="H96">
+        <v>1.24</v>
+      </c>
+      <c r="I96">
+        <f>AVERAGE(G7/G96)</f>
+        <v>14.044494566331762</v>
       </c>
     </row>
   </sheetData>
@@ -10357,9 +10708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10624,8 +10973,18 @@
       <c r="F16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>7992</v>
+      </c>
+      <c r="H16">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(G7/G16)</f>
+        <v>8.8677427427427435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -10643,7 +11002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -10661,7 +11020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -10679,7 +11038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -10697,7 +11056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -10715,7 +11074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -10733,7 +11092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -10751,7 +11110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -10769,7 +11128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -10787,7 +11146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -10804,8 +11163,18 @@
       <c r="F26">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>4354</v>
+      </c>
+      <c r="H26">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(G7/G26)</f>
+        <v>16.277216352779053</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -10823,7 +11192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
@@ -10841,7 +11210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -10859,7 +11228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -10878,7 +11247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -10896,7 +11265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
@@ -11067,162 +11436,192 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F55">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F56">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>2896</v>
+      </c>
+      <c r="H56">
+        <v>1.64</v>
+      </c>
+      <c r="I56">
+        <f>AVERAGE(G7/G56)</f>
+        <v>24.472030386740332</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F57">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F64">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F65">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F66">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>2570</v>
+      </c>
+      <c r="H66">
+        <v>1.84</v>
+      </c>
+      <c r="I66">
+        <f>AVERAGE(G7/G66)</f>
+        <v>27.576264591439688</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F67">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F68">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F69">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F70">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F71">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F72">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F73">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F74">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F75">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F76">
         <v>70</v>
       </c>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>2463</v>
+      </c>
+      <c r="H76">
+        <v>1.92</v>
+      </c>
+      <c r="I76">
+        <f>AVERAGE(G7/G76)</f>
+        <v>28.77425903369874</v>
+      </c>
+    </row>
+    <row r="77" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F77">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F78">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F79">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F80">
         <v>74</v>
       </c>
@@ -11356,8 +11755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11370,7 +11769,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -11378,7 +11777,10 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -11411,6 +11813,12 @@
       <c r="A7">
         <v>1</v>
       </c>
+      <c r="B7">
+        <v>41582</v>
+      </c>
+      <c r="C7">
+        <v>0.106</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -11431,6 +11839,16 @@
       <c r="A8">
         <v>2</v>
       </c>
+      <c r="B8">
+        <v>26995</v>
+      </c>
+      <c r="C8">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(B7/B8)</f>
+        <v>1.5403593258010744</v>
+      </c>
       <c r="F8">
         <v>2</v>
       </c>
@@ -11439,6 +11857,16 @@
       <c r="A9">
         <v>3</v>
       </c>
+      <c r="B9">
+        <v>17977</v>
+      </c>
+      <c r="C9">
+        <v>0.246</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE(B7/B9)</f>
+        <v>2.313066696334205</v>
+      </c>
       <c r="F9">
         <v>3</v>
       </c>
@@ -11447,6 +11875,16 @@
       <c r="A10">
         <v>4</v>
       </c>
+      <c r="B10">
+        <v>13668</v>
+      </c>
+      <c r="C10">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D10">
+        <f>AVERAGE(B7/B10)</f>
+        <v>3.0422885572139302</v>
+      </c>
       <c r="F10">
         <v>4</v>
       </c>
@@ -11498,8 +11936,18 @@
       <c r="F16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>9798</v>
+      </c>
+      <c r="H16">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(G7/G16)</f>
+        <v>7.2413757909777505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -11507,7 +11955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -11515,63 +11963,133 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
+      <c r="B19">
+        <v>5825</v>
+      </c>
+      <c r="C19">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(B7/B19)</f>
+        <v>7.1385407725321892</v>
+      </c>
       <c r="F19">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
+      <c r="B20">
+        <v>5608</v>
+      </c>
+      <c r="C20">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(B7/B20)</f>
+        <v>7.4147646219686161</v>
+      </c>
       <c r="F20">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
+      <c r="B21">
+        <v>5616</v>
+      </c>
+      <c r="C21">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE(B7/B21)</f>
+        <v>7.4042022792022788</v>
+      </c>
       <c r="F21">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
+      <c r="B22">
+        <v>5380</v>
+      </c>
+      <c r="C22">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(B7/B22)</f>
+        <v>7.7289962825278806</v>
+      </c>
       <c r="F22">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
+      <c r="B23">
+        <v>5200</v>
+      </c>
+      <c r="C23">
+        <v>0.85</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(B7/B23)</f>
+        <v>7.9965384615384618</v>
+      </c>
       <c r="F23">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
+      <c r="B24">
+        <v>5087</v>
+      </c>
+      <c r="C24">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="D24">
+        <f>AVERAGE(B7/B24)</f>
+        <v>8.1741694515431487</v>
+      </c>
       <c r="F24">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
+      <c r="B25">
+        <v>4842</v>
+      </c>
+      <c r="C25">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D25">
+        <f>AVERAGE(B7/B25)</f>
+        <v>8.5877736472532007</v>
+      </c>
       <c r="F25">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -11581,27 +12099,61 @@
       <c r="C26">
         <v>0.91700000000000004</v>
       </c>
+      <c r="D26">
+        <f>AVERAGE(B7/B26)</f>
+        <v>8.623392783077561</v>
+      </c>
       <c r="F26">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>5662</v>
+      </c>
+      <c r="H26">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(G7/G26)</f>
+        <v>12.531084422465559</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
+      <c r="B27">
+        <v>4711</v>
+      </c>
+      <c r="C27">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(B7/B27)</f>
+        <v>8.8265760984928896</v>
+      </c>
       <c r="F27">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
+      <c r="B28">
+        <v>4607</v>
+      </c>
+      <c r="C28">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(B7/B28)</f>
+        <v>9.0258302583025838</v>
+      </c>
       <c r="F28">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -11611,11 +12163,15 @@
       <c r="C29">
         <v>0.97299999999999998</v>
       </c>
+      <c r="D29">
+        <f>AVERAGE(B7/B29)</f>
+        <v>9.1570138735961244</v>
+      </c>
       <c r="F29">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -11625,21 +12181,45 @@
       <c r="C30">
         <v>1</v>
       </c>
+      <c r="D30">
+        <f>AVERAGE(B7/B30)</f>
+        <v>9.446160835983644</v>
+      </c>
       <c r="F30">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
+      <c r="B31">
+        <v>4652</v>
+      </c>
+      <c r="C31">
+        <v>0.95</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(B7/B31)</f>
+        <v>8.9385210662080823</v>
+      </c>
       <c r="F31">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
+      </c>
+      <c r="B32">
+        <v>4713</v>
+      </c>
+      <c r="C32">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D32">
+        <f>AVERAGE(B7/B32)</f>
+        <v>8.8228304689157646</v>
       </c>
       <c r="F32">
         <v>26</v>
@@ -11649,6 +12229,16 @@
       <c r="A33">
         <v>27</v>
       </c>
+      <c r="B33">
+        <v>4727</v>
+      </c>
+      <c r="C33">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="D33">
+        <f>AVERAGE(B7/B33)</f>
+        <v>8.7966998096043998</v>
+      </c>
       <c r="F33">
         <v>27</v>
       </c>
@@ -11657,6 +12247,16 @@
       <c r="A34">
         <v>28</v>
       </c>
+      <c r="B34">
+        <v>4783</v>
+      </c>
+      <c r="C34">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="D34">
+        <f>AVERAGE(B7/B34)</f>
+        <v>8.6937068785281202</v>
+      </c>
       <c r="F34">
         <v>28</v>
       </c>
@@ -11665,6 +12265,16 @@
       <c r="A35">
         <v>29</v>
       </c>
+      <c r="B35">
+        <v>4775</v>
+      </c>
+      <c r="C35">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="D35">
+        <f>AVERAGE(B7/B35)</f>
+        <v>8.7082722513088999</v>
+      </c>
       <c r="F35">
         <v>29</v>
       </c>
@@ -11679,6 +12289,10 @@
       <c r="C36">
         <v>0.92500000000000004</v>
       </c>
+      <c r="D36">
+        <f>AVERAGE(B7/B36)</f>
+        <v>8.7028045207199671</v>
+      </c>
       <c r="F36">
         <v>30</v>
       </c>
@@ -11843,82 +12457,98 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F65">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F66">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>4328</v>
+      </c>
+      <c r="H66">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F67">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F68">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F69">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F70">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F71">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F72">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F73">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F74">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F75">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F76">
         <v>70</v>
       </c>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>4485</v>
+      </c>
+      <c r="H76">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="I76">
+        <f>AVERAGE(G7/G76)</f>
+        <v>15.819620958751393</v>
+      </c>
+    </row>
+    <row r="77" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F77">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F78">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F79">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F80">
         <v>74</v>
       </c>
@@ -12052,8 +12682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L94" sqref="L94"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12068,7 +12698,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
@@ -12147,17 +12777,15 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>37606</v>
+        <f>AVERAGE(37606,37670)</f>
+        <v>37638</v>
       </c>
       <c r="C8">
         <v>0.123</v>
       </c>
       <c r="D8">
         <f>AVERAGE(B7/B8)</f>
-        <v>0.80109556985587405</v>
-      </c>
-      <c r="E8">
-        <v>37670</v>
+        <v>0.80041447473298266</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -12178,7 +12806,7 @@
         <v>0.90842203660706211</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -12800,7 +13428,7 @@
   <dimension ref="A2:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13555,10 +14183,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:N32"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13566,15 +14194,15 @@
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
         <v>39</v>
       </c>
@@ -13590,25 +14218,26 @@
       <c r="G2" s="4">
         <v>81</v>
       </c>
-      <c r="I2">
+      <c r="H2" s="10"/>
+      <c r="J2">
         <v>39</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>40</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>79</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>80</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="5">
         <v>37.532214099999997</v>
@@ -13625,36 +14254,37 @@
       <c r="G3" s="5">
         <v>62.3203429</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="5"/>
+      <c r="I3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3">
         <f>1-(B3/40)</f>
         <v>6.1694647500000088E-2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <f>1-(C3/40)</f>
         <v>3.9777592499999903E-2</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <f>1-(E3/40)</f>
         <v>-0.5435575800000001</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <f>1-(F3/40)</f>
         <v>-0.55300360500000001</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <f>1-(G3/40)</f>
         <v>-0.55800857249999991</v>
       </c>
-      <c r="P3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Q3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>36.493033679765688</v>
@@ -13671,33 +14301,33 @@
       <c r="G4">
         <v>55.282460767314106</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J12" si="0">1-(B4/40)</f>
+        <v>8.7674158005857761E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K12" si="1">1-(C4/40)</f>
+        <v>7.368107506299193E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M12" si="2">1-(E4/40)</f>
+        <v>-0.3686796536796535</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:O19" si="3">1-(F4/40)</f>
+        <v>-0.37534800765616816</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O12" si="4">1-(G4/40)</f>
+        <v>-0.38206151918285269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I12" si="0">1-(B4/40)</f>
-        <v>8.7674158005857761E-2</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J12" si="1">1-(C4/40)</f>
-        <v>7.368107506299193E-2</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L12" si="2">1-(E4/40)</f>
-        <v>-0.3686796536796535</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:N19" si="3">1-(F4/40)</f>
-        <v>-0.37534800765616816</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N12" si="4">1-(G4/40)</f>
-        <v>-0.38206151918285269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="B5">
         <v>36.780243003570199</v>
@@ -13714,33 +14344,33 @@
       <c r="G5">
         <v>39.165562426609682</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5">
+      <c r="I5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>8.0493924910745029E-2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>6.9420316037612118E-2</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="2"/>
         <v>1.9158878504672905E-2</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <f t="shared" si="3"/>
         <v>2.0416448121121755E-2</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <f t="shared" si="4"/>
         <v>2.0860939334757966E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>35.7591816602107</v>
@@ -13757,33 +14387,33 @@
       <c r="G6">
         <v>14.994956270600449</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6">
+      <c r="I6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>0.10602045849473252</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>0.10838079785529564</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f t="shared" si="2"/>
         <v>0.61547111583446712</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <f t="shared" si="3"/>
         <v>0.62447336406405929</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <f t="shared" si="4"/>
         <v>0.6251260932349888</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>36.31235405893419</v>
@@ -13800,31 +14430,31 @@
       <c r="G7">
         <v>42.542580409356724</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7">
+      <c r="I7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>9.2191148526645228E-2</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>7.4727314335268469E-2</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f t="shared" si="2"/>
         <v>-6.2287948095335555E-2</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <f t="shared" si="3"/>
         <v>-6.3334855908977472E-2</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <f t="shared" si="4"/>
         <v>-6.3564510233918181E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -13843,31 +14473,32 @@
       <c r="G8" s="3">
         <v>24.846153846153847</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" t="s">
         <v>27</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>8.8000000000000078E-2</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>4.2962962962963092E-2</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="2"/>
         <v>3.8213399503722045E-2</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f t="shared" si="3"/>
         <v>0.27142857142857146</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f t="shared" si="4"/>
         <v>0.37884615384615383</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -13886,31 +14517,31 @@
       <c r="G9">
         <v>16.452307215856301</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>33</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>0.70804297647834691</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>0.71168728969933792</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="2"/>
         <v>0.55402535258562791</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f t="shared" si="3"/>
         <v>0.56739006514657986</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <f t="shared" si="4"/>
         <v>0.58869231960359247</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -13929,31 +14560,32 @@
       <c r="G10" s="9">
         <v>38.427932960893855</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" t="s">
         <v>24</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>0.21975952813067157</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>0.20164809656453109</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="2"/>
         <v>4.1443701226309804E-2</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="3"/>
         <v>4.9917127071823275E-2</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <f t="shared" si="4"/>
         <v>3.9301675977653661E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -13972,33 +14604,33 @@
       <c r="G11">
         <v>14.080748976009362</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>20</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>0.70009970089730811</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>0.70217821782178214</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="2"/>
         <v>0.64632569077013524</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f t="shared" si="3"/>
         <v>0.65043579314352118</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <f t="shared" si="4"/>
         <v>0.64798127559976593</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>37.91027154663518</v>
@@ -14015,33 +14647,33 @@
       <c r="G12">
         <v>44.289655172413795</v>
       </c>
-      <c r="H12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12">
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>5.2243211334120465E-2</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>3.862275449101793E-2</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="2"/>
         <v>-0.10116598079561046</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="3"/>
         <v>-0.10571625344352631</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <f t="shared" si="4"/>
         <v>-0.10724137931034483</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>30.401729559748428</v>
@@ -14058,33 +14690,33 @@
       <c r="G13">
         <v>33.510398613518198</v>
       </c>
-      <c r="H13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ref="I13:J19" si="5">1-(B13/40)</f>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:K19" si="5">1-(B13/40)</f>
         <v>0.23995676100628927</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="5"/>
         <v>0.22843176376695928</v>
       </c>
-      <c r="L13">
-        <f t="shared" ref="L13:L19" si="6">1-(E13/40)</f>
+      <c r="M13">
+        <f t="shared" ref="M13:M19" si="6">1-(E13/40)</f>
         <v>0.15712728857890146</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f t="shared" si="3"/>
         <v>0.15639179755671895</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <f t="shared" si="3"/>
         <v>0.16224003466204506</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="9">
         <v>25.856387665198238</v>
@@ -14101,33 +14733,33 @@
       <c r="G14">
         <v>34.283878504672899</v>
       </c>
-      <c r="H14" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14">
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="5"/>
         <v>0.35359030837004402</v>
       </c>
-      <c r="J14">
-        <f t="shared" ref="J14:J19" si="7">1-(C14/40)</f>
+      <c r="K14">
+        <f t="shared" ref="K14:K19" si="7">1-(C14/40)</f>
         <v>0.34668299198575236</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f t="shared" si="6"/>
         <v>0.16911098527746327</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <f t="shared" si="3"/>
         <v>0.16911098527746327</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <f t="shared" si="3"/>
         <v>0.14290303738317756</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>22.633333333333333</v>
@@ -14144,31 +14776,31 @@
       <c r="G15">
         <v>37.862453531598511</v>
       </c>
-      <c r="H15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15">
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="5"/>
         <v>0.4341666666666667</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="7"/>
         <v>0.42909192825112108</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f t="shared" si="6"/>
         <v>0.11588541666666663</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <f t="shared" si="3"/>
         <v>0.10657894736842111</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <f t="shared" si="3"/>
         <v>5.3438661710037194E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -14187,33 +14819,33 @@
       <c r="G16">
         <v>10.990802675585284</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>23</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="5"/>
         <v>0.78178950863213814</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="7"/>
         <v>0.78626016260162601</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <f>1-(E16/40)</f>
         <v>0.72008091993185686</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <f t="shared" si="3"/>
         <v>0.72031914893617022</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <f t="shared" si="3"/>
         <v>0.72522993311036787</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17">
         <v>22.009627329192547</v>
@@ -14227,29 +14859,29 @@
       <c r="G17">
         <v>27.716464606961281</v>
       </c>
-      <c r="H17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17">
+      <c r="I17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="5"/>
         <v>0.44975931677018632</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="7"/>
         <v>0.45651073619631899</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <f>1-(E17/40)</f>
         <v>0.28815789473684217</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <f t="shared" si="3"/>
         <v>0.30708838482596801</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>6.329080441885794</v>
@@ -14257,19 +14889,19 @@
       <c r="F18">
         <v>6.4270816874703742</v>
       </c>
-      <c r="H18" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18">
+      <c r="I18" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18">
         <f>1-(E18/40)</f>
         <v>0.84177298895285513</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <f t="shared" si="3"/>
         <v>0.83932295781324062</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -14288,36 +14920,36 @@
       <c r="G19">
         <v>17.244461228600201</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>30</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="5"/>
         <v>0.55020357236669293</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="7"/>
         <v>0.53881632103420407</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <f t="shared" si="6"/>
         <v>0.56681634201872</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <f t="shared" si="3"/>
         <v>0.56790941206156953</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <f t="shared" si="3"/>
         <v>0.56888846928499492</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>11</v>
       </c>
@@ -14333,25 +14965,26 @@
       <c r="G22" s="1">
         <v>25</v>
       </c>
-      <c r="I22">
+      <c r="H22" s="1"/>
+      <c r="J22">
         <v>11</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>12</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>23</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>24</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>10.234191016136066</v>
@@ -14368,33 +15001,33 @@
       <c r="G23">
         <v>13.073537604456824</v>
       </c>
-      <c r="H23" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23">
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23">
         <f>1-(B23/12)</f>
         <v>0.14715074865532785</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f>1-(C23/12)</f>
         <v>8.4893152394322269E-2</v>
       </c>
-      <c r="L23">
-        <f t="shared" ref="L23:N24" si="8">1-(E23/12)</f>
+      <c r="M23">
+        <f t="shared" ref="M23:O24" si="8">1-(E23/12)</f>
         <v>-7.5087044163459682E-2</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <f t="shared" si="8"/>
         <v>-9.0068747677443328E-2</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <f t="shared" si="8"/>
         <v>-8.9461467038068676E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>10.561691113028473</v>
@@ -14411,33 +15044,33 @@
       <c r="G24">
         <v>14.102534562211982</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ref="I24:I32" si="9">1-(B24/12)</f>
+      <c r="I24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:J32" si="9">1-(B24/12)</f>
         <v>0.11985907391429385</v>
       </c>
-      <c r="J24">
-        <f t="shared" ref="J24:J32" si="10">1-(C24/12)</f>
+      <c r="K24">
+        <f t="shared" ref="K24:K32" si="10">1-(C24/12)</f>
         <v>0.56721114410974405</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <f t="shared" si="8"/>
         <v>0.55840548340548346</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <f t="shared" si="8"/>
         <v>0.20800983436853004</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <f t="shared" si="8"/>
         <v>-0.17521121351766511</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>6.1780558229066411</v>
@@ -14454,33 +15087,33 @@
       <c r="G25">
         <v>10.014040561622465</v>
       </c>
-      <c r="H25" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25">
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="9"/>
         <v>0.48516201475777987</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f t="shared" si="10"/>
         <v>0.44395356895356897</v>
       </c>
-      <c r="L25">
-        <f t="shared" ref="L25:L32" si="11">1-(E25/12)</f>
+      <c r="M25">
+        <f t="shared" ref="M25:M32" si="11">1-(E25/12)</f>
         <v>0.27222222222222225</v>
       </c>
-      <c r="M25">
-        <f t="shared" ref="M25:M32" si="12">1-(F25/12)</f>
+      <c r="N25">
+        <f t="shared" ref="N25:N32" si="12">1-(F25/12)</f>
         <v>0.24659624413145542</v>
       </c>
-      <c r="N25">
-        <f t="shared" ref="N25:N32" si="13">1-(G25/12)</f>
+      <c r="O25">
+        <f t="shared" ref="O25:O32" si="13">1-(G25/12)</f>
         <v>0.16549661986479458</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26">
         <v>8.400509121764955</v>
@@ -14497,33 +15130,33 @@
       <c r="G26">
         <v>11.585722644821534</v>
       </c>
-      <c r="H26" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26">
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="9"/>
         <v>0.29995757318625371</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f t="shared" si="10"/>
         <v>0.25373134328358216</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <f t="shared" si="11"/>
         <v>3.1121550205519655E-2</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <f t="shared" si="12"/>
         <v>7.2202166064981865E-3</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <f t="shared" si="13"/>
         <v>3.4523112931538869E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27">
         <v>9.9026146267525572</v>
@@ -14540,33 +15173,33 @@
       <c r="G27">
         <v>12.126682134570766</v>
       </c>
-      <c r="H27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27">
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="9"/>
         <v>0.17478211443728686</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f t="shared" si="10"/>
         <v>0.12434660233212702</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <f>1-(E27/12)</f>
         <v>1.9477543538037878E-3</v>
       </c>
-      <c r="M27">
-        <f t="shared" ref="M27" si="14">1-(F27/12)</f>
+      <c r="N27">
+        <f t="shared" ref="N27" si="14">1-(F27/12)</f>
         <v>-1.1025998142989879E-2</v>
       </c>
-      <c r="N27">
-        <f t="shared" ref="N27" si="15">1-(G27/12)</f>
+      <c r="O27">
+        <f t="shared" ref="O27" si="15">1-(G27/12)</f>
         <v>-1.0556844547563893E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28">
         <v>5.6869712351945854</v>
@@ -14583,33 +15216,33 @@
       <c r="G28">
         <v>7.8090148698884763</v>
       </c>
-      <c r="H28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28">
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="9"/>
         <v>0.52608573040045115</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f t="shared" si="10"/>
         <v>0.49057232933187833</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <f t="shared" si="11"/>
         <v>0.3221603743142949</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <f t="shared" si="12"/>
         <v>0.29591922238981061</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <f t="shared" si="13"/>
         <v>0.34924876084262702</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>5.2151829601310755</v>
@@ -14626,33 +15259,33 @@
       <c r="G29">
         <v>6.8846431146359048</v>
       </c>
-      <c r="H29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I29">
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="9"/>
         <v>0.56540141998907711</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <f t="shared" si="10"/>
         <v>0.52207207207207218</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <f t="shared" si="11"/>
         <v>0.439415287072913</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <f t="shared" si="12"/>
         <v>0.41164510166358592</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <f t="shared" si="13"/>
         <v>0.42627974044700789</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30">
         <v>9.8146731571627264</v>
@@ -14669,33 +15302,33 @@
       <c r="G30">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30">
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="9"/>
         <v>0.18211057023643951</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <f t="shared" si="10"/>
         <v>0.13868546320029296</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <f t="shared" si="11"/>
         <v>0.16852244609402611</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <f t="shared" si="12"/>
         <v>0.18859951707485345</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <f t="shared" si="13"/>
         <v>0.19166666666666676</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31">
         <v>8.166156615661567</v>
@@ -14712,33 +15345,33 @@
       <c r="G31">
         <v>9.3647811725846406</v>
       </c>
-      <c r="H31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31">
+      <c r="I31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="9"/>
         <v>0.31948694869486938</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <f t="shared" si="10"/>
         <v>0.32095383509969466</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <f t="shared" si="11"/>
         <v>0.25746415242584952</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <f t="shared" si="12"/>
         <v>0.23785282258064511</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <f t="shared" si="13"/>
         <v>0.21960156895127991</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32">
         <v>6.0217303822937627</v>
@@ -14755,38 +15388,38 @@
       <c r="G32">
         <v>8.7542901716068648</v>
       </c>
-      <c r="H32" t="s">
-        <v>60</v>
-      </c>
-      <c r="I32">
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="9"/>
         <v>0.49818913480885307</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <f t="shared" si="10"/>
         <v>0.44114132058559907</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <f t="shared" si="11"/>
         <v>0.28606870229007642</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <f t="shared" si="12"/>
         <v>0.27118644067796616</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <f t="shared" si="13"/>
         <v>0.2704758190327613</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -14798,10 +15431,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT40"/>
+  <dimension ref="A1:BI40"/>
   <sheetViews>
-    <sheetView topLeftCell="AF9" workbookViewId="0">
-      <selection activeCell="AP10" sqref="AP10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14811,15 +15444,15 @@
     <col min="22" max="22" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
         <v>39</v>
       </c>
@@ -14835,6 +15468,9 @@
       <c r="G2" s="4">
         <v>81</v>
       </c>
+      <c r="H2" s="11">
+        <v>90</v>
+      </c>
       <c r="I2">
         <v>39</v>
       </c>
@@ -14850,6 +15486,9 @@
       <c r="N2" s="4">
         <v>81</v>
       </c>
+      <c r="O2" s="11">
+        <v>90</v>
+      </c>
       <c r="S2">
         <v>80</v>
       </c>
@@ -14857,9 +15496,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="5">
         <v>37.532214099999997</v>
@@ -14875,6 +15514,9 @@
       </c>
       <c r="G3" s="5">
         <v>62.3203429</v>
+      </c>
+      <c r="H3" s="5">
+        <v>62.613440599999997</v>
       </c>
       <c r="I3">
         <f>(B3/40)</f>
@@ -14896,70 +15538,116 @@
         <f>(G3/40)</f>
         <v>1.5580085724999999</v>
       </c>
+      <c r="O3">
+        <f>(H3/40)</f>
+        <v>1.565336015</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="R3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S3">
         <v>1.553003605</v>
       </c>
       <c r="AC3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AE3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AH3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM3" t="s">
         <v>51</v>
       </c>
-      <c r="AH3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI3" s="8" t="s">
+      <c r="AN3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO3" t="s">
         <v>53</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="AP3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>54</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AR3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS3" t="s">
         <v>55</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AT3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU3" t="s">
         <v>56</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AV3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW3" t="s">
         <v>57</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AX3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY3" t="s">
         <v>58</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AZ3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG3" t="s">
         <v>59</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>36.493033679765688</v>
@@ -14975,6 +15663,9 @@
       </c>
       <c r="G4">
         <v>55.282460767314106</v>
+      </c>
+      <c r="H4" s="12">
+        <v>55.323169798114577</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I20" si="0">(B4/40)</f>
@@ -14993,76 +15684,119 @@
         <v>1.3753480076561682</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N20" si="4">(G4/40)</f>
+        <f t="shared" ref="N4:O20" si="4">(G4/40)</f>
         <v>1.3820615191828527</v>
       </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>1.3830792449528644</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="R4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S4">
         <v>1.3753480076561682</v>
       </c>
       <c r="AB4">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AC4">
-        <v>1.553003605</v>
+        <v>0.9602224075000001</v>
       </c>
       <c r="AD4">
-        <v>1.3753480076561682</v>
+        <v>0.92631892493700807</v>
       </c>
       <c r="AE4">
-        <v>0.37552663593594071</v>
+        <v>0.89161920214470436</v>
       </c>
       <c r="AF4">
-        <v>0.97958355187887824</v>
+        <v>0.93057968396238788</v>
       </c>
       <c r="AG4">
-        <v>1.0633348559089775</v>
-      </c>
-      <c r="AH4">
-        <v>0.16067704218675935</v>
-      </c>
-      <c r="AI4">
-        <v>0.72857142857142854</v>
+        <v>0.92527268566473153</v>
       </c>
       <c r="AJ4">
-        <v>1.1057162534435263</v>
+        <v>0.95703703703703691</v>
       </c>
       <c r="AK4">
-        <v>0.89342105263157889</v>
+        <v>0.43278885589025595</v>
       </c>
       <c r="AL4">
-        <v>0.83088901472253673</v>
+        <v>0.96137724550898207</v>
       </c>
       <c r="AM4">
-        <v>0.95008287292817672</v>
+        <v>0.91510684760567773</v>
       </c>
       <c r="AN4">
-        <v>0.34956420685647877</v>
+        <v>0.57090807174887892</v>
       </c>
       <c r="AO4">
-        <v>0.27968085106382978</v>
+        <v>0.55604643104643103</v>
       </c>
       <c r="AP4">
-        <v>0.84360820244328105</v>
+        <v>0.65331700801424764</v>
       </c>
       <c r="AQ4">
-        <v>0.73762489592006664</v>
+        <v>0.74626865671641784</v>
       </c>
       <c r="AR4">
-        <v>0.42526372572524573</v>
+        <v>0.79835190343546891</v>
       </c>
       <c r="AS4">
-        <v>0.43209058793843047</v>
+        <v>0.87565339766787298</v>
       </c>
       <c r="AT4">
-        <v>0.43260993485342014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+        <v>0.29782178217821781</v>
+      </c>
+      <c r="AU4">
+        <v>0.50942767066812167</v>
+      </c>
+      <c r="AV4">
+        <v>0.21373983739837396</v>
+      </c>
+      <c r="AW4">
+        <v>0.47792792792792788</v>
+      </c>
+      <c r="AX4">
+        <v>0.77156823623304072</v>
+      </c>
+      <c r="AY4">
+        <v>0.86131453679970704</v>
+      </c>
+      <c r="AZ4">
+        <v>0.54348926380368101</v>
+      </c>
+      <c r="BA4">
+        <v>0.78104735704460604</v>
+      </c>
+      <c r="BB4">
+        <v>0.35675281576830253</v>
+      </c>
+      <c r="BD4">
+        <v>0.46118367896579587</v>
+      </c>
+      <c r="BE4">
+        <v>0.67904616490030534</v>
+      </c>
+      <c r="BF4">
+        <v>0.28831271030066208</v>
+      </c>
+      <c r="BG4">
+        <v>0.55885867941440093</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>36.780243003570199</v>
@@ -15078,6 +15812,9 @@
       </c>
       <c r="G5">
         <v>39.165562426609682</v>
+      </c>
+      <c r="H5" s="12">
+        <v>39.247265644201939</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -15099,70 +15836,119 @@
         <f t="shared" si="4"/>
         <v>0.97913906066524203</v>
       </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>0.98118164110504846</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="R5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S5">
         <v>0.37552663593594071</v>
       </c>
       <c r="AB5">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AC5">
-        <v>0.9602224075000001</v>
+        <v>1.553003605</v>
       </c>
       <c r="AD5">
-        <v>0.92631892493700807</v>
+        <v>1.3753480076561682</v>
       </c>
       <c r="AE5">
-        <v>0.89161920214470436</v>
+        <v>0.37552663593594071</v>
       </c>
       <c r="AF5">
-        <v>0.93057968396238788</v>
+        <v>0.97958355187887824</v>
       </c>
       <c r="AG5">
-        <v>0.92527268566473153</v>
-      </c>
-      <c r="AI5">
-        <v>0.95703703703703691</v>
+        <v>1.0633348559089775</v>
+      </c>
+      <c r="AH5">
+        <v>0.16067704218675935</v>
       </c>
       <c r="AJ5">
-        <v>0.96137724550898207</v>
+        <v>0.72857142857142854</v>
       </c>
       <c r="AK5">
-        <v>0.57090807174887892</v>
+        <v>0.79199016563146996</v>
       </c>
       <c r="AL5">
-        <v>0.65331700801424764</v>
+        <v>1.1057162534435263</v>
       </c>
       <c r="AM5">
-        <v>0.79835190343546891</v>
+        <v>1.0900687476774433</v>
       </c>
       <c r="AN5">
-        <v>0.29782178217821781</v>
+        <v>0.89342105263157889</v>
       </c>
       <c r="AO5">
-        <v>0.21373983739837396</v>
+        <v>0.75340375586854458</v>
       </c>
       <c r="AP5">
-        <v>0.77156823623304072</v>
+        <v>0.83088901472253673</v>
       </c>
       <c r="AQ5">
-        <v>0.54348926380368101</v>
+        <v>0.99277978339350181</v>
       </c>
       <c r="AR5">
-        <v>0.35675281576830253</v>
+        <v>0.95008287292817672</v>
       </c>
       <c r="AS5">
-        <v>0.46118367896579587</v>
+        <v>1.0110259981429899</v>
       </c>
       <c r="AT5">
-        <v>0.28831271030066208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+        <v>0.34956420685647877</v>
+      </c>
+      <c r="AU5">
+        <v>0.70408077761018939</v>
+      </c>
+      <c r="AV5">
+        <v>0.27968085106382978</v>
+      </c>
+      <c r="AW5">
+        <v>0.58835489833641408</v>
+      </c>
+      <c r="AX5">
+        <v>0.84360820244328105</v>
+      </c>
+      <c r="AY5">
+        <v>0.81140048292514655</v>
+      </c>
+      <c r="AZ5">
+        <v>0.73762489592006664</v>
+      </c>
+      <c r="BA5">
+        <v>0.9607807590041092</v>
+      </c>
+      <c r="BB5">
+        <v>0.42526372572524573</v>
+      </c>
+      <c r="BD5">
+        <v>0.43209058793843047</v>
+      </c>
+      <c r="BE5">
+        <v>0.76214717741935489</v>
+      </c>
+      <c r="BF5">
+        <v>0.43260993485342014</v>
+      </c>
+      <c r="BG5">
+        <v>0.72881355932203384</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>35.7591816602107</v>
@@ -15178,6 +15964,9 @@
       </c>
       <c r="G6">
         <v>14.994956270600449</v>
+      </c>
+      <c r="H6" s="12">
+        <v>14.730309306023386</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -15199,52 +15988,122 @@
         <f t="shared" si="4"/>
         <v>0.3748739067650112</v>
       </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>0.36825773265058465</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="R6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S6">
         <v>0.97958355187887824</v>
       </c>
       <c r="AB6">
-        <v>24</v>
-      </c>
-      <c r="AI6">
-        <v>0.79199016563146996</v>
+        <v>90</v>
+      </c>
+      <c r="AC6">
+        <v>1.565336015</v>
+      </c>
+      <c r="AD6">
+        <v>1.3830792449528644</v>
+      </c>
+      <c r="AE6">
+        <v>0.36825773265058465</v>
+      </c>
+      <c r="AF6">
+        <v>0.98118164110504846</v>
+      </c>
+      <c r="AG6">
+        <v>1.0662393197981379</v>
+      </c>
+      <c r="AH6">
+        <v>0.17633518293740247</v>
       </c>
       <c r="AJ6">
-        <v>1.0900687476774433</v>
+        <v>0.69338103756708402</v>
       </c>
       <c r="AK6">
-        <v>0.75340375586854458</v>
+        <v>0.39743506493506492</v>
       </c>
       <c r="AL6">
-        <v>0.99277978339350181</v>
+        <v>1.1103042876901799</v>
       </c>
       <c r="AM6">
-        <v>1.0110259981429899</v>
+        <v>1.0906767057073805</v>
       </c>
       <c r="AN6">
-        <v>0.70408077761018939</v>
+        <v>0.97557471264367823</v>
       </c>
       <c r="AO6">
-        <v>0.58835489833641408</v>
+        <v>0.87119978284473409</v>
       </c>
       <c r="AP6">
-        <v>0.81140048292514655</v>
+        <v>0.87031435349940689</v>
       </c>
       <c r="AQ6">
-        <v>0.9607807590041092</v>
+        <v>0.96717467760844078</v>
+      </c>
+      <c r="AR6">
+        <v>0.96827139639639648</v>
       </c>
       <c r="AS6">
-        <v>0.76214717741935489</v>
+        <v>1.002647329650092</v>
       </c>
       <c r="AT6">
-        <v>0.72881355932203384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+        <v>0.36284680337756331</v>
+      </c>
+      <c r="AU6">
+        <v>0.64475905463474525</v>
+      </c>
+      <c r="AV6">
+        <v>0.28675828970331591</v>
+      </c>
+      <c r="AW6">
+        <v>0.54261847937265595</v>
+      </c>
+      <c r="AX6">
+        <v>0.84140557006092254</v>
+      </c>
+      <c r="AY6">
+        <v>0.80117506811989092</v>
+      </c>
+      <c r="AZ6">
+        <v>0.70252775574940529</v>
+      </c>
+      <c r="BA6">
+        <v>0.92393072989307301</v>
+      </c>
+      <c r="BB6">
+        <v>0.43283918984870667</v>
+      </c>
+      <c r="BC6">
+        <v>0.72523371005999726</v>
+      </c>
+      <c r="BD6">
+        <v>0.35111236415829405</v>
+      </c>
+      <c r="BE6">
+        <v>0.62042507795831281</v>
+      </c>
+      <c r="BF6">
+        <v>0.45413318515985635</v>
+      </c>
+      <c r="BG6">
+        <v>0.72654884443581269</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>36.31235405893419</v>
@@ -15260,6 +16119,9 @@
       </c>
       <c r="G7">
         <v>42.542580409356724</v>
+      </c>
+      <c r="H7" s="13">
+        <v>42.649572791925515</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -15281,50 +16143,21 @@
         <f t="shared" si="4"/>
         <v>1.0635645102339182</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>1.0662393197981379</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="R7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S7">
         <v>1.0633348559089775</v>
       </c>
-      <c r="AB7">
-        <v>12</v>
-      </c>
-      <c r="AI7">
-        <v>0.43278885589025595</v>
-      </c>
-      <c r="AJ7">
-        <v>0.91510684760567773</v>
-      </c>
-      <c r="AK7">
-        <v>0.55604643104643103</v>
-      </c>
-      <c r="AL7">
-        <v>0.74626865671641784</v>
-      </c>
-      <c r="AM7">
-        <v>0.87565339766787298</v>
-      </c>
-      <c r="AN7">
-        <v>0.50942767066812167</v>
-      </c>
-      <c r="AO7">
-        <v>0.47792792792792788</v>
-      </c>
-      <c r="AP7">
-        <v>0.86131453679970704</v>
-      </c>
-      <c r="AQ7">
-        <v>0.78104735704460604</v>
-      </c>
-      <c r="AS7">
-        <v>0.67904616490030534</v>
-      </c>
-      <c r="AT7">
-        <v>0.55885867941440093</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -15342,6 +16175,9 @@
       </c>
       <c r="G8" s="3">
         <v>24.846153846153847</v>
+      </c>
+      <c r="H8">
+        <v>27.735241502683362</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -15363,14 +16199,21 @@
         <f t="shared" si="4"/>
         <v>0.62115384615384617</v>
       </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>0.69338103756708402</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S8">
         <v>0.16067704218675935</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -15388,6 +16231,9 @@
       </c>
       <c r="G9">
         <v>16.452307215856301</v>
+      </c>
+      <c r="H9">
+        <v>18.165327406394255</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -15409,8 +16255,15 @@
         <f t="shared" si="4"/>
         <v>0.41130768039640753</v>
       </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>0.45413318515985635</v>
+      </c>
+      <c r="P9" t="s">
+        <v>33</v>
+      </c>
       <c r="R9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S9">
         <v>0.72857142857142854</v>
@@ -15419,7 +16272,7 @@
         <v>0.79199016563146996</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -15437,6 +16290,9 @@
       </c>
       <c r="G10" s="9">
         <v>38.427932960893855</v>
+      </c>
+      <c r="H10">
+        <v>38.730855855855857</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
@@ -15458,8 +16314,15 @@
         <f t="shared" si="4"/>
         <v>0.96069832402234634</v>
       </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>0.96827139639639648</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
       <c r="R10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S10">
         <v>1.1057162534435263</v>
@@ -15468,7 +16331,7 @@
         <v>1.0900687476774433</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -15486,6 +16349,9 @@
       </c>
       <c r="G11">
         <v>14.080748976009362</v>
+      </c>
+      <c r="H11">
+        <v>14.513872135102533</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
@@ -15507,8 +16373,15 @@
         <f t="shared" si="4"/>
         <v>0.35201872440023407</v>
       </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>0.36284680337756331</v>
+      </c>
+      <c r="P11" t="s">
+        <v>20</v>
+      </c>
       <c r="R11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S11">
         <v>0.89342105263157889</v>
@@ -15517,9 +16390,9 @@
         <v>0.75340375586854458</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>37.91027154663518</v>
@@ -15535,6 +16408,9 @@
       </c>
       <c r="G12">
         <v>44.289655172413795</v>
+      </c>
+      <c r="H12">
+        <v>44.412171507607191</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
@@ -15556,8 +16432,15 @@
         <f t="shared" si="4"/>
         <v>1.1072413793103448</v>
       </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>1.1103042876901799</v>
+      </c>
+      <c r="P12" t="s">
+        <v>62</v>
+      </c>
       <c r="R12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S12">
         <v>0.83088901472253673</v>
@@ -15566,9 +16449,9 @@
         <v>0.99277978339350181</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>30.401729559748428</v>
@@ -15584,6 +16467,9 @@
       </c>
       <c r="G13">
         <v>33.510398613518198</v>
+      </c>
+      <c r="H13">
+        <v>33.656222802436901</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
@@ -15605,8 +16491,15 @@
         <f t="shared" si="4"/>
         <v>0.83775996533795494</v>
       </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>0.84140557006092254</v>
+      </c>
+      <c r="P13" t="s">
+        <v>63</v>
+      </c>
       <c r="R13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S13">
         <v>0.95008287292817672</v>
@@ -15615,9 +16508,9 @@
         <v>1.0110259981429899</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="9">
         <v>25.856387665198238</v>
@@ -15633,6 +16526,9 @@
       </c>
       <c r="G14">
         <v>34.283878504672899</v>
+      </c>
+      <c r="H14">
+        <v>34.812574139976277</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
@@ -15654,8 +16550,15 @@
         <f t="shared" si="4"/>
         <v>0.85709696261682244</v>
       </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>0.87031435349940689</v>
+      </c>
+      <c r="P14" t="s">
+        <v>64</v>
+      </c>
       <c r="R14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S14">
         <v>0.34956420685647877</v>
@@ -15664,9 +16567,9 @@
         <v>0.70408077761018939</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>22.633333333333333</v>
@@ -15682,6 +16585,9 @@
       </c>
       <c r="G15">
         <v>37.862453531598511</v>
+      </c>
+      <c r="H15">
+        <v>39.022988505747129</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
@@ -15703,8 +16609,15 @@
         <f t="shared" si="4"/>
         <v>0.94656133828996281</v>
       </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>0.97557471264367823</v>
+      </c>
+      <c r="P15" t="s">
+        <v>65</v>
+      </c>
       <c r="R15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S15">
         <v>0.27968085106382978</v>
@@ -15713,7 +16626,7 @@
         <v>0.58835489833641408</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -15731,6 +16644,9 @@
       </c>
       <c r="G16">
         <v>10.990802675585284</v>
+      </c>
+      <c r="H16">
+        <v>11.470331588132636</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
@@ -15752,8 +16668,15 @@
         <f t="shared" si="4"/>
         <v>0.27477006688963213</v>
       </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>0.28675828970331591</v>
+      </c>
+      <c r="P16" t="s">
+        <v>23</v>
+      </c>
       <c r="R16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S16">
         <v>0.84360820244328105</v>
@@ -15762,9 +16685,9 @@
         <v>0.81140048292514655</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17">
         <v>22.009627329192547</v>
@@ -15780,6 +16703,9 @@
       </c>
       <c r="G17">
         <v>27.716464606961281</v>
+      </c>
+      <c r="H17">
+        <v>28.101110229976211</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
@@ -15801,8 +16727,15 @@
         <f t="shared" si="4"/>
         <v>0.69291161517403199</v>
       </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>0.70252775574940529</v>
+      </c>
+      <c r="P17" t="s">
+        <v>74</v>
+      </c>
       <c r="R17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S17">
         <v>0.73762489592006664</v>
@@ -15811,15 +16744,18 @@
         <v>0.9607807590041092</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>6.329080441885794</v>
       </c>
       <c r="F18">
         <v>6.4270816874703742</v>
+      </c>
+      <c r="H18">
+        <v>7.0534073174960987</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
@@ -15841,14 +16777,24 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>0.17633518293740247</v>
+      </c>
+      <c r="P18" t="s">
+        <v>71</v>
+      </c>
       <c r="R18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S18">
         <v>0.42526372572524573</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T18">
+        <v>0.78718006966530363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -15866,6 +16812,9 @@
       </c>
       <c r="G19">
         <v>17.244461228600201</v>
+      </c>
+      <c r="H19">
+        <v>14.044494566331762</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
@@ -15887,8 +16836,15 @@
         <f t="shared" si="4"/>
         <v>0.43111153071500502</v>
       </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>0.35111236415829405</v>
+      </c>
+      <c r="P19" t="s">
+        <v>30</v>
+      </c>
       <c r="R19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S19">
         <v>0.43209058793843047</v>
@@ -15897,7 +16853,7 @@
         <v>0.76214717741935489</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -15915,6 +16871,9 @@
       </c>
       <c r="G20">
         <v>17.808985943775099</v>
+      </c>
+      <c r="H20">
+        <v>17.313567593948267</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
@@ -15936,8 +16895,15 @@
         <f t="shared" si="4"/>
         <v>0.44522464859437749</v>
       </c>
+      <c r="O20">
+        <f>(H20/40)</f>
+        <v>0.43283918984870667</v>
+      </c>
+      <c r="P20" t="s">
+        <v>31</v>
+      </c>
       <c r="R20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S20">
         <v>0.43260993485342014</v>
@@ -15946,9 +16912,9 @@
         <v>0.72881355932203384</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S22">
         <v>40</v>
@@ -15958,9 +16924,8 @@
       </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>11</v>
       </c>
@@ -15976,6 +16941,9 @@
       <c r="G23" s="1">
         <v>25</v>
       </c>
+      <c r="H23" s="1">
+        <v>30</v>
+      </c>
       <c r="I23">
         <v>11</v>
       </c>
@@ -15991,16 +16959,19 @@
       <c r="N23" s="1">
         <v>25</v>
       </c>
+      <c r="O23" s="1">
+        <v>30</v>
+      </c>
       <c r="R23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S23">
         <v>0.9602224075000001</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <v>10.234191016136066</v>
@@ -16016,6 +16987,9 @@
       </c>
       <c r="G24">
         <v>13.073537604456824</v>
+      </c>
+      <c r="H24">
+        <v>13.088120468488567</v>
       </c>
       <c r="I24">
         <f>(B24/12)</f>
@@ -16037,17 +17011,24 @@
         <f>(G24/12)</f>
         <v>1.0894614670380687</v>
       </c>
+      <c r="O24">
+        <f>(H24/12)</f>
+        <v>1.0906767057073805</v>
+      </c>
+      <c r="P24" t="s">
+        <v>51</v>
+      </c>
       <c r="R24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S24">
         <v>0.92631892493700807</v>
       </c>
       <c r="U24" s="8"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25">
         <v>10.561691113028473</v>
@@ -16063,6 +17044,9 @@
       </c>
       <c r="G25">
         <v>14.102534562211982</v>
+      </c>
+      <c r="H25">
+        <v>4.7692207792207792</v>
       </c>
       <c r="I25">
         <f t="shared" ref="I25:I32" si="5">(B25/12)</f>
@@ -16081,19 +17065,26 @@
         <v>0.79199016563146996</v>
       </c>
       <c r="N25">
-        <f t="shared" ref="N25:N32" si="9">(G25/12)</f>
+        <f t="shared" ref="N25:O32" si="9">(G25/12)</f>
         <v>1.1752112135176651</v>
       </c>
+      <c r="O25">
+        <f t="shared" si="9"/>
+        <v>0.39743506493506492</v>
+      </c>
+      <c r="P25" t="s">
+        <v>52</v>
+      </c>
       <c r="R25" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S25">
         <v>0.89161920214470436</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>6.1780558229066411</v>
@@ -16109,6 +17100,9 @@
       </c>
       <c r="G26">
         <v>10.014040561622465</v>
+      </c>
+      <c r="H26">
+        <v>10.454397394136809</v>
       </c>
       <c r="I26">
         <f t="shared" si="5"/>
@@ -16130,16 +17124,23 @@
         <f t="shared" si="9"/>
         <v>0.83450338013520542</v>
       </c>
+      <c r="O26">
+        <f t="shared" si="9"/>
+        <v>0.87119978284473409</v>
+      </c>
+      <c r="P26" t="s">
+        <v>53</v>
+      </c>
       <c r="R26" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S26">
         <v>0.93057968396238788</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27">
         <v>8.400509121764955</v>
@@ -16155,6 +17156,9 @@
       </c>
       <c r="G27">
         <v>11.585722644821534</v>
+      </c>
+      <c r="H27">
+        <v>11.606096131301289</v>
       </c>
       <c r="I27">
         <f t="shared" si="5"/>
@@ -16176,16 +17180,23 @@
         <f t="shared" si="9"/>
         <v>0.96547688706846113</v>
       </c>
+      <c r="O27">
+        <f t="shared" si="9"/>
+        <v>0.96717467760844078</v>
+      </c>
+      <c r="P27" t="s">
+        <v>54</v>
+      </c>
       <c r="R27" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S27">
         <v>0.92527268566473153</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <v>9.9026146267525572</v>
@@ -16201,6 +17212,9 @@
       </c>
       <c r="G28">
         <v>12.126682134570766</v>
+      </c>
+      <c r="H28">
+        <v>12.031767955801104</v>
       </c>
       <c r="I28">
         <f t="shared" si="5"/>
@@ -16222,13 +17236,20 @@
         <f t="shared" si="9"/>
         <v>1.0105568445475639</v>
       </c>
+      <c r="O28">
+        <f t="shared" si="9"/>
+        <v>1.002647329650092</v>
+      </c>
+      <c r="P28" t="s">
+        <v>55</v>
+      </c>
       <c r="R28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29">
         <v>5.6869712351945854</v>
@@ -16244,6 +17265,9 @@
       </c>
       <c r="G29">
         <v>7.8090148698884763</v>
+      </c>
+      <c r="H29">
+        <v>7.7371086556169431</v>
       </c>
       <c r="I29">
         <f t="shared" si="5"/>
@@ -16265,8 +17289,15 @@
         <f t="shared" si="9"/>
         <v>0.65075123915737298</v>
       </c>
+      <c r="O29">
+        <f t="shared" si="9"/>
+        <v>0.64475905463474525</v>
+      </c>
+      <c r="P29" t="s">
+        <v>56</v>
+      </c>
       <c r="R29" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S29">
         <v>0.95703703703703691</v>
@@ -16275,9 +17306,9 @@
         <v>0.43278885589025595</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30">
         <v>5.2151829601310755</v>
@@ -16293,6 +17324,9 @@
       </c>
       <c r="G30">
         <v>6.8846431146359048</v>
+      </c>
+      <c r="H30">
+        <v>6.5114217524718718</v>
       </c>
       <c r="I30">
         <f t="shared" si="5"/>
@@ -16314,8 +17348,15 @@
         <f t="shared" si="9"/>
         <v>0.57372025955299211</v>
       </c>
+      <c r="O30">
+        <f t="shared" si="9"/>
+        <v>0.54261847937265595</v>
+      </c>
+      <c r="P30" t="s">
+        <v>57</v>
+      </c>
       <c r="R30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S30">
         <v>0.96137724550898207</v>
@@ -16324,9 +17365,9 @@
         <v>0.91510684760567773</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31">
         <v>9.8146731571627264</v>
@@ -16342,6 +17383,9 @@
       </c>
       <c r="G31">
         <v>9.6999999999999993</v>
+      </c>
+      <c r="H31">
+        <v>9.6141008174386915</v>
       </c>
       <c r="I31">
         <f t="shared" si="5"/>
@@ -16363,8 +17407,15 @@
         <f t="shared" si="9"/>
         <v>0.80833333333333324</v>
       </c>
+      <c r="O31">
+        <f t="shared" si="9"/>
+        <v>0.80117506811989092</v>
+      </c>
+      <c r="P31" t="s">
+        <v>58</v>
+      </c>
       <c r="R31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S31">
         <v>0.57090807174887892</v>
@@ -16373,9 +17424,9 @@
         <v>0.55604643104643103</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32">
         <v>8.7742825607064017</v>
@@ -16391,6 +17442,9 @@
       </c>
       <c r="G32">
         <v>11.236042402826856</v>
+      </c>
+      <c r="H32">
+        <v>11.087168758716876</v>
       </c>
       <c r="I32">
         <f t="shared" si="5"/>
@@ -16412,8 +17466,15 @@
         <f t="shared" si="9"/>
         <v>0.93633686690223794</v>
       </c>
+      <c r="O32">
+        <f t="shared" si="9"/>
+        <v>0.92393072989307301</v>
+      </c>
+      <c r="P32" t="s">
+        <v>77</v>
+      </c>
       <c r="R32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S32">
         <v>0.65331700801424764</v>
@@ -16424,10 +17485,41 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="E33">
+        <v>9.1570138735961244</v>
+      </c>
+      <c r="F33">
+        <v>9.446160835983644</v>
+      </c>
+      <c r="G33">
+        <v>8.9385210662080823</v>
+      </c>
+      <c r="H33">
+        <v>8.7028045207199671</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ref="L33" si="10">(E33/12)</f>
+        <v>0.76308448946634366</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ref="M33" si="11">(F33/12)</f>
+        <v>0.78718006966530363</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33:O33" si="12">(G33/12)</f>
+        <v>0.74487675551734023</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="12"/>
+        <v>0.72523371005999726</v>
+      </c>
+      <c r="P33" t="s">
+        <v>79</v>
       </c>
       <c r="R33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S33">
         <v>0.79835190343546891</v>
@@ -16438,7 +17530,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>8.166156615661567</v>
@@ -16454,6 +17546,9 @@
       </c>
       <c r="G34">
         <v>9.3647811725846406</v>
+      </c>
+      <c r="H34">
+        <v>7.4451009354997542</v>
       </c>
       <c r="I34">
         <f>(B34/12)</f>
@@ -16464,19 +17559,26 @@
         <v>0.67904616490030534</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:N35" si="10">(E34/12)</f>
+        <f t="shared" ref="L34:O35" si="13">(E34/12)</f>
         <v>0.74253584757415048</v>
       </c>
       <c r="M34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76214717741935489</v>
       </c>
       <c r="N34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.78039843104872009</v>
       </c>
+      <c r="O34">
+        <f t="shared" si="13"/>
+        <v>0.62042507795831281</v>
+      </c>
+      <c r="P34" t="s">
+        <v>72</v>
+      </c>
       <c r="R34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S34">
         <v>0.29782178217821781</v>
@@ -16487,7 +17589,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35">
         <v>6.0217303822937627</v>
@@ -16503,6 +17605,9 @@
       </c>
       <c r="G35">
         <v>8.7542901716068648</v>
+      </c>
+      <c r="H35">
+        <v>8.7185861332297527</v>
       </c>
       <c r="I35">
         <f>(B35/12)</f>
@@ -16513,19 +17618,26 @@
         <v>0.55885867941440093</v>
       </c>
       <c r="L35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.71393129770992358</v>
       </c>
       <c r="M35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.72881355932203384</v>
       </c>
       <c r="N35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.7295241809672387</v>
       </c>
+      <c r="O35">
+        <f t="shared" si="13"/>
+        <v>0.72654884443581269</v>
+      </c>
+      <c r="P35" t="s">
+        <v>59</v>
+      </c>
       <c r="R35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S35">
         <v>0.21373983739837396</v>
@@ -16536,7 +17648,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S36">
         <v>0.77156823623304072</v>
@@ -16547,7 +17659,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S37">
         <v>0.54348926380368101</v>
@@ -16558,7 +17670,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S38">
         <v>0.35675281576830253</v>
@@ -16566,7 +17678,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S39">
         <v>0.46118367896579587</v>
@@ -16577,7 +17689,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S40">
         <v>0.28831271030066208</v>
@@ -16588,7 +17700,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16596,8 +17709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17350,7 +18463,7 @@
         <v>14.185236768802229</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
@@ -17378,7 +18491,7 @@
         <v>15.621165644171779</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>27</v>
       </c>
@@ -17406,7 +18519,7 @@
         <v>18.090586145648313</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>28</v>
       </c>
@@ -17434,7 +18547,7 @@
         <v>17.292020373514433</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>29</v>
       </c>
@@ -17462,7 +18575,7 @@
         <v>19.892578125</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>30</v>
       </c>
@@ -17490,7 +18603,7 @@
         <v>18.351351351351351</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>31</v>
       </c>
@@ -17518,7 +18631,7 @@
         <v>18.1875</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>32</v>
       </c>
@@ -17546,7 +18659,7 @@
         <v>18.1875</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>33</v>
       </c>
@@ -17574,7 +18687,7 @@
         <v>18.351351351351351</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>34</v>
       </c>
@@ -17602,7 +18715,7 @@
         <v>20.785714285714285</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>35</v>
       </c>
@@ -17630,7 +18743,7 @@
         <v>21.043388429752067</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>36</v>
       </c>
@@ -17658,7 +18771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>37</v>
       </c>
@@ -17686,7 +18799,7 @@
         <v>22.045454545454547</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>38</v>
       </c>
@@ -17714,7 +18827,7 @@
         <v>22.533185840707965</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>39</v>
       </c>
@@ -17744,7 +18857,7 @@
         <v>22.759776536312849</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>40</v>
       </c>
@@ -17774,7 +18887,7 @@
         <v>22.558139534883722</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>41</v>
       </c>
@@ -17802,7 +18915,7 @@
         <v>23.908450704225352</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>42</v>
       </c>
@@ -17833,7 +18946,7 @@
         <v>24.192399049881235</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E49">
         <v>7.62</v>
       </c>
@@ -17851,7 +18964,7 @@
         <v>24.841463414634145</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>44</v>
       </c>
@@ -17866,7 +18979,7 @@
         <v>24.25</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>60</v>
       </c>
@@ -17894,7 +19007,7 @@
         <v>24.720873786407768</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>46</v>
       </c>
@@ -17909,7 +19022,7 @@
         <v>24.963235294117649</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>80</v>
       </c>
@@ -17939,7 +19052,7 @@
         <v>25.687263556116015</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>48</v>
       </c>
@@ -17954,7 +19067,7 @@
         <v>26.662303664921467</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>83</v>
       </c>
@@ -17982,7 +19095,7 @@
         <v>26.31782945736434</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>84</v>
       </c>
@@ -18010,7 +19123,7 @@
         <v>26.73228346456693</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F57">
         <v>51</v>
       </c>
@@ -18025,7 +19138,7 @@
         <v>27.379032258064516</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>52</v>
       </c>
@@ -18040,7 +19153,7 @@
         <v>26.80263157894737</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>53</v>
       </c>
@@ -18055,7 +19168,7 @@
         <v>27.676630434782609</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>54</v>
       </c>
@@ -18070,7 +19183,7 @@
         <v>29.267241379310345</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>55</v>
       </c>
@@ -18085,7 +19198,7 @@
         <v>27.527027027027028</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>56</v>
       </c>
@@ -18100,7 +19213,7 @@
         <v>28.609550561797754</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>57</v>
       </c>
@@ -18115,7 +19228,7 @@
         <v>28.291666666666668</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F64">
         <v>58</v>
       </c>
@@ -18130,7 +19243,7 @@
         <v>27.827868852459016</v>
       </c>
     </row>
-    <row r="65" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F65">
         <v>59</v>
       </c>
@@ -18145,7 +19258,7 @@
         <v>30.957446808510639</v>
       </c>
     </row>
-    <row r="66" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F66">
         <v>60</v>
       </c>
@@ -18162,7 +19275,7 @@
         <v>31.338461538461537</v>
       </c>
     </row>
-    <row r="67" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F67">
         <v>61</v>
       </c>
@@ -18177,7 +19290,7 @@
         <v>31.927899686520377</v>
       </c>
     </row>
-    <row r="68" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F68">
         <v>62</v>
       </c>
@@ -18192,7 +19305,7 @@
         <v>31.146788990825687</v>
       </c>
     </row>
-    <row r="69" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F69">
         <v>63</v>
       </c>
@@ -18207,7 +19320,7 @@
         <v>31.53250773993808</v>
       </c>
     </row>
-    <row r="70" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F70">
         <v>64</v>
       </c>
@@ -18222,7 +19335,7 @@
         <v>33.06818181818182</v>
       </c>
     </row>
-    <row r="71" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F71">
         <v>65</v>
       </c>
@@ -18237,7 +19350,7 @@
         <v>31.242331288343557</v>
       </c>
     </row>
-    <row r="72" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F72">
         <v>66</v>
       </c>
@@ -18252,7 +19365,7 @@
         <v>32.028301886792455</v>
       </c>
     </row>
-    <row r="73" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F73">
         <v>67</v>
       </c>
@@ -18267,7 +19380,7 @@
         <v>32.961165048543691</v>
       </c>
     </row>
-    <row r="74" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F74">
         <v>68</v>
       </c>
@@ -18282,10 +19395,10 @@
         <v>33.284313725490193</v>
       </c>
       <c r="J74" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F75">
         <v>69</v>
       </c>
@@ -18300,7 +19413,7 @@
         <v>33.393442622950822</v>
       </c>
     </row>
-    <row r="76" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F76">
         <v>70</v>
       </c>
@@ -18315,7 +19428,7 @@
         <v>33.950000000000003</v>
       </c>
     </row>
-    <row r="77" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F77">
         <v>71</v>
       </c>
@@ -18330,7 +19443,7 @@
         <v>33.06818181818182</v>
       </c>
     </row>
-    <row r="78" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F78">
         <v>72</v>
       </c>
@@ -18345,7 +19458,7 @@
         <v>33.503289473684212</v>
       </c>
     </row>
-    <row r="79" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F79">
         <v>73</v>
       </c>
@@ -18360,7 +19473,7 @@
         <v>35.120689655172413</v>
       </c>
     </row>
-    <row r="80" spans="6:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F80">
         <v>74</v>
       </c>
@@ -18375,7 +19488,7 @@
         <v>34.292929292929294</v>
       </c>
     </row>
-    <row r="81" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F81">
         <v>75</v>
       </c>
@@ -18390,7 +19503,7 @@
         <v>34.642857142857146</v>
       </c>
     </row>
-    <row r="82" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F82">
         <v>76</v>
       </c>
@@ -18405,7 +19518,7 @@
         <v>34.642857142857146</v>
       </c>
     </row>
-    <row r="83" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F83">
         <v>77</v>
       </c>
@@ -18420,7 +19533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F84">
         <v>78</v>
       </c>
@@ -18435,7 +19548,7 @@
         <v>35.862676056338032</v>
       </c>
     </row>
-    <row r="85" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F85">
         <v>79</v>
       </c>
@@ -18450,7 +19563,7 @@
         <v>35.364583333333336</v>
       </c>
     </row>
-    <row r="86" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F86">
         <v>80</v>
       </c>
@@ -18465,7 +19578,7 @@
         <v>35.736842105263158</v>
       </c>
     </row>
-    <row r="87" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F87">
         <v>81</v>
       </c>
@@ -18480,7 +19593,7 @@
         <v>37.862453531598511</v>
       </c>
     </row>
-    <row r="88" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F88">
         <v>82</v>
       </c>
@@ -18495,7 +19608,7 @@
         <v>38.289473684210527</v>
       </c>
     </row>
-    <row r="89" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F89">
         <v>83</v>
       </c>
@@ -18510,7 +19623,7 @@
         <v>38.726235741444867</v>
       </c>
     </row>
-    <row r="90" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F90">
         <v>84</v>
       </c>
@@ -18525,7 +19638,7 @@
         <v>38.433962264150942</v>
       </c>
     </row>
-    <row r="91" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F91">
         <v>85</v>
       </c>
@@ -18540,7 +19653,7 @@
         <v>38.874045801526719</v>
       </c>
     </row>
-    <row r="92" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F92">
         <v>86</v>
       </c>
@@ -18555,7 +19668,7 @@
         <v>38.289473684210527</v>
       </c>
     </row>
-    <row r="93" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F93">
         <v>87</v>
       </c>
@@ -18570,7 +19683,7 @@
         <v>39.324324324324323</v>
       </c>
     </row>
-    <row r="94" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F94">
         <v>88</v>
       </c>
@@ -18670,8 +19783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="C32" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18934,7 +20047,7 @@
         <v>8.113538373095718</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14">
         <v>8</v>
@@ -19879,6 +20992,16 @@
       <c r="F66">
         <v>60</v>
       </c>
+      <c r="G66">
+        <v>1152</v>
+      </c>
+      <c r="H66">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I66">
+        <f>AVERAGE(G7/G66)</f>
+        <v>33.568576388888886</v>
+      </c>
     </row>
     <row r="67" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F67">
@@ -19938,6 +21061,16 @@
     <row r="76" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F76">
         <v>70</v>
+      </c>
+      <c r="G76">
+        <v>1146</v>
+      </c>
+      <c r="H76">
+        <v>4.58</v>
+      </c>
+      <c r="I76">
+        <f>AVERAGE(G7/G76)</f>
+        <v>33.744328097731241</v>
       </c>
     </row>
     <row r="77" spans="6:9" x14ac:dyDescent="0.25">
@@ -20089,8 +21222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21187,8 +22320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C76" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21217,7 +22350,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
@@ -22333,8 +23466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22607,6 +23740,16 @@
       <c r="F16">
         <v>10</v>
       </c>
+      <c r="G16">
+        <v>4318</v>
+      </c>
+      <c r="H16">
+        <v>0.88</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(G7/G16)</f>
+        <v>5.572950440018527</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -22680,7 +23823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -22698,7 +23841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -22726,7 +23869,7 @@
         <v>7.2394705174488569</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -22744,7 +23887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -22762,7 +23905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -22780,7 +23923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -22797,8 +23940,18 @@
       <c r="F26">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>2644</v>
+      </c>
+      <c r="H26">
+        <v>1.44</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(G7/G26)</f>
+        <v>9.1013615733736764</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -22816,7 +23969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
@@ -22834,7 +23987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -22852,7 +24005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -22870,7 +24023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -22977,6 +24130,16 @@
       <c r="F36">
         <v>30</v>
       </c>
+      <c r="G36">
+        <v>2264</v>
+      </c>
+      <c r="H36">
+        <v>1.68</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(G7/G36)</f>
+        <v>10.628975265017667</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F37">
@@ -23068,82 +24231,92 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F55">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F56">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>1881</v>
+      </c>
+      <c r="H56">
+        <v>2.02</v>
+      </c>
+      <c r="I56">
+        <f>AVERAGE(G7/G56)</f>
+        <v>12.793195108984582</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F57">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F64">
         <v>58</v>
       </c>
@@ -23157,6 +24330,16 @@
       <c r="F66">
         <v>60</v>
       </c>
+      <c r="G66">
+        <v>1786</v>
+      </c>
+      <c r="H66">
+        <v>2.13</v>
+      </c>
+      <c r="I66">
+        <f>AVERAGE(G7/G66)</f>
+        <v>13.473684210526315</v>
+      </c>
     </row>
     <row r="67" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F67">
@@ -23216,6 +24399,16 @@
     <row r="76" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F76">
         <v>70</v>
+      </c>
+      <c r="G76">
+        <v>1722</v>
+      </c>
+      <c r="H76">
+        <v>2.21</v>
+      </c>
+      <c r="I76">
+        <f>AVERAGE(G7/G76)</f>
+        <v>13.974448315911731</v>
       </c>
     </row>
     <row r="77" spans="6:9" x14ac:dyDescent="0.25">
@@ -23369,8 +24562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D21:D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24267,6 +25460,16 @@
       <c r="F76">
         <v>70</v>
       </c>
+      <c r="G76">
+        <v>909</v>
+      </c>
+      <c r="H76">
+        <v>7.73</v>
+      </c>
+      <c r="I76">
+        <f>AVERAGE(G7/G76)</f>
+        <v>37.836083608360838</v>
+      </c>
     </row>
     <row r="77" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F77">
@@ -24417,8 +25620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24749,7 +25952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -24767,7 +25970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -24785,7 +25988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -24813,7 +26016,7 @@
         <v>6.4187156406693653</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -24831,7 +26034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -24849,7 +26052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -24867,7 +26070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -24895,7 +26098,7 @@
         <v>7.6614508220363424</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -24915,7 +26118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
@@ -25477,8 +26680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I96" sqref="I96"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/12_40CoreBench.xlsx
+++ b/12_40CoreBench.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="smithwa" sheetId="12" r:id="rId1"/>
@@ -1355,11 +1355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197008000"/>
-        <c:axId val="197030272"/>
+        <c:axId val="199983488"/>
+        <c:axId val="199985024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197008000"/>
+        <c:axId val="199983488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,7 +1369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197030272"/>
+        <c:crossAx val="199985024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1377,7 +1377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197030272"/>
+        <c:axId val="199985024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,7 +1388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197008000"/>
+        <c:crossAx val="199983488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2544,11 +2544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196041728"/>
-        <c:axId val="196068096"/>
+        <c:axId val="201155712"/>
+        <c:axId val="201157248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196041728"/>
+        <c:axId val="201155712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,7 +2558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196068096"/>
+        <c:crossAx val="201157248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2566,7 +2566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196068096"/>
+        <c:axId val="201157248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2577,14 +2577,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196041728"/>
+        <c:crossAx val="201155712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3205,11 +3204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197540480"/>
-        <c:axId val="197554560"/>
+        <c:axId val="200040832"/>
+        <c:axId val="200042368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197540480"/>
+        <c:axId val="200040832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3219,7 +3218,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197554560"/>
+        <c:crossAx val="200042368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3227,7 +3226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197554560"/>
+        <c:axId val="200042368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3238,7 +3237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197540480"/>
+        <c:crossAx val="200040832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3874,11 +3873,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197573632"/>
-        <c:axId val="197591808"/>
+        <c:axId val="200082176"/>
+        <c:axId val="200083712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197573632"/>
+        <c:axId val="200082176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3887,7 +3886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197591808"/>
+        <c:crossAx val="200083712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3895,7 +3894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197591808"/>
+        <c:axId val="200083712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3906,7 +3905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197573632"/>
+        <c:crossAx val="200082176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4422,11 +4421,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197635456"/>
-        <c:axId val="197637248"/>
+        <c:axId val="200148096"/>
+        <c:axId val="200149632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197635456"/>
+        <c:axId val="200148096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4435,7 +4434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197637248"/>
+        <c:crossAx val="200149632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4443,7 +4442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197637248"/>
+        <c:axId val="200149632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4454,7 +4453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197635456"/>
+        <c:crossAx val="200148096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5196,11 +5195,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197727744"/>
-        <c:axId val="197729280"/>
+        <c:axId val="200201728"/>
+        <c:axId val="200203264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197727744"/>
+        <c:axId val="200201728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5209,7 +5208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197729280"/>
+        <c:crossAx val="200203264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5217,7 +5216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197729280"/>
+        <c:axId val="200203264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5228,7 +5227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197727744"/>
+        <c:crossAx val="200201728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5764,11 +5763,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197761664"/>
-        <c:axId val="197771648"/>
+        <c:axId val="200620288"/>
+        <c:axId val="200622080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197761664"/>
+        <c:axId val="200620288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5777,7 +5776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197771648"/>
+        <c:crossAx val="200622080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5785,7 +5784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197771648"/>
+        <c:axId val="200622080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5796,7 +5795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197761664"/>
+        <c:crossAx val="200620288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6095,11 +6094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197826048"/>
-        <c:axId val="197827584"/>
+        <c:axId val="200668288"/>
+        <c:axId val="200669824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197826048"/>
+        <c:axId val="200668288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6108,7 +6107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197827584"/>
+        <c:crossAx val="200669824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6116,7 +6115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197827584"/>
+        <c:axId val="200669824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6127,14 +6126,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197826048"/>
+        <c:crossAx val="200668288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6416,6 +6414,9 @@
                 <c:pt idx="14">
                   <c:v>0.78104735704460604</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59355372844581478</c:v>
+                </c:pt>
                 <c:pt idx="16">
                   <c:v>0.67904616490030534</c:v>
                 </c:pt>
@@ -6437,11 +6438,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197836160"/>
-        <c:axId val="197850240"/>
+        <c:axId val="200825856"/>
+        <c:axId val="200831744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197836160"/>
+        <c:axId val="200825856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6450,7 +6451,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197850240"/>
+        <c:crossAx val="200831744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6458,7 +6459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197850240"/>
+        <c:axId val="200831744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6469,14 +6470,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197836160"/>
+        <c:crossAx val="200825856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6707,6 +6707,9 @@
                 <c:pt idx="25">
                   <c:v>0.42526372572524573</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.78718006966530363</c:v>
+                </c:pt>
                 <c:pt idx="27">
                   <c:v>0.43209058793843047</c:v>
                 </c:pt>
@@ -6917,6 +6920,9 @@
                 <c:pt idx="25">
                   <c:v>0.35675281576830253</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.59355372844581478</c:v>
+                </c:pt>
                 <c:pt idx="27">
                   <c:v>0.46118367896579587</c:v>
                 </c:pt>
@@ -7160,11 +7166,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="195868160"/>
-        <c:axId val="195869696"/>
+        <c:axId val="200891392"/>
+        <c:axId val="200930048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195868160"/>
+        <c:axId val="200891392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7173,7 +7179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195869696"/>
+        <c:crossAx val="200930048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7181,7 +7187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195869696"/>
+        <c:axId val="200930048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7192,14 +7198,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195868160"/>
+        <c:crossAx val="200891392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9648,7 +9653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D73" workbookViewId="0">
       <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
@@ -10708,7 +10713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11755,8 +11762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11959,6 +11966,16 @@
       <c r="A18">
         <v>12</v>
       </c>
+      <c r="B18">
+        <v>5838</v>
+      </c>
+      <c r="C18">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(B7/B18)</f>
+        <v>7.1226447413497773</v>
+      </c>
       <c r="F18">
         <v>12</v>
       </c>
@@ -12377,82 +12394,92 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F55">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F56">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>4434</v>
+      </c>
+      <c r="H56">
+        <v>0.997</v>
+      </c>
+      <c r="I56">
+        <f>AVERAGE(G7/G56)</f>
+        <v>16.001578709968427</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F57">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F64">
         <v>58</v>
       </c>
@@ -12471,6 +12498,10 @@
       </c>
       <c r="H66">
         <v>1.02</v>
+      </c>
+      <c r="I66">
+        <f>AVERAGE(G7/G66)</f>
+        <v>16.393484288354898</v>
       </c>
     </row>
     <row r="67" spans="6:9" x14ac:dyDescent="0.25">
@@ -15433,8 +15464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="BF14" sqref="BF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15775,6 +15806,9 @@
       <c r="BB4">
         <v>0.35675281576830253</v>
       </c>
+      <c r="BC4">
+        <v>0.59355372844581478</v>
+      </c>
       <c r="BD4">
         <v>0.46118367896579587</v>
       </c>
@@ -15927,6 +15961,9 @@
       <c r="BB5">
         <v>0.42526372572524573</v>
       </c>
+      <c r="BC5">
+        <v>0.78718006966530363</v>
+      </c>
       <c r="BD5">
         <v>0.43209058793843047</v>
       </c>
@@ -17053,7 +17090,7 @@
         <v>0.88014092608570615</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25:J32" si="6">(C25/12)</f>
+        <f t="shared" ref="J25:J33" si="6">(C25/12)</f>
         <v>0.43278885589025595</v>
       </c>
       <c r="L25">
@@ -17487,6 +17524,9 @@
       <c r="A33" t="s">
         <v>79</v>
       </c>
+      <c r="C33">
+        <v>7.1226447413497773</v>
+      </c>
       <c r="E33">
         <v>9.1570138735961244</v>
       </c>
@@ -17498,6 +17538,10 @@
       </c>
       <c r="H33">
         <v>8.7028045207199671</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="6"/>
+        <v>0.59355372844581478</v>
       </c>
       <c r="L33">
         <f t="shared" ref="L33" si="10">(E33/12)</f>
@@ -17674,6 +17718,9 @@
       </c>
       <c r="S38">
         <v>0.35675281576830253</v>
+      </c>
+      <c r="T38">
+        <v>0.59355372844581478</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -19783,8 +19830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23466,8 +23513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24562,8 +24609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24975,7 +25022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -24993,7 +25040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -25011,7 +25058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -25029,7 +25076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
@@ -25620,7 +25667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -26680,8 +26727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/12_40CoreBench.xlsx
+++ b/12_40CoreBench.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="smithwa" sheetId="12" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="101">
   <si>
     <t>12 Core Potsdam Bench measurements</t>
   </si>
@@ -330,6 +330,9 @@
   <si>
     <t>Mem 1,6 %</t>
   </si>
+  <si>
+    <t>Mem 0.4%</t>
+  </si>
 </sst>
 </file>
 
@@ -1355,11 +1358,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199983488"/>
-        <c:axId val="199985024"/>
+        <c:axId val="197659264"/>
+        <c:axId val="197677440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199983488"/>
+        <c:axId val="197659264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,7 +1372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199985024"/>
+        <c:crossAx val="197677440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1377,7 +1380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199985024"/>
+        <c:axId val="197677440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,7 +1391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199983488"/>
+        <c:crossAx val="197659264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2544,11 +2547,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="201155712"/>
-        <c:axId val="201157248"/>
+        <c:axId val="196893696"/>
+        <c:axId val="196915968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201155712"/>
+        <c:axId val="196893696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,7 +2561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201157248"/>
+        <c:crossAx val="196915968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2566,7 +2569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201157248"/>
+        <c:axId val="196915968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2577,7 +2580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201155712"/>
+        <c:crossAx val="196893696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3204,11 +3207,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="200040832"/>
-        <c:axId val="200042368"/>
+        <c:axId val="198195840"/>
+        <c:axId val="198209920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200040832"/>
+        <c:axId val="198195840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3218,7 +3221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200042368"/>
+        <c:crossAx val="198209920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3226,7 +3229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200042368"/>
+        <c:axId val="198209920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3237,7 +3240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200040832"/>
+        <c:crossAx val="198195840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3873,11 +3876,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="200082176"/>
-        <c:axId val="200083712"/>
+        <c:axId val="198237184"/>
+        <c:axId val="198247168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200082176"/>
+        <c:axId val="198237184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3886,7 +3889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200083712"/>
+        <c:crossAx val="198247168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3894,7 +3897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200083712"/>
+        <c:axId val="198247168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3905,7 +3908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200082176"/>
+        <c:crossAx val="198237184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4421,11 +4424,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="200148096"/>
-        <c:axId val="200149632"/>
+        <c:axId val="198290816"/>
+        <c:axId val="198292608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200148096"/>
+        <c:axId val="198290816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4434,7 +4437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200149632"/>
+        <c:crossAx val="198292608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4442,7 +4445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200149632"/>
+        <c:axId val="198292608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4453,7 +4456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200148096"/>
+        <c:crossAx val="198290816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5195,11 +5198,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="200201728"/>
-        <c:axId val="200203264"/>
+        <c:axId val="198383488"/>
+        <c:axId val="198385024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200201728"/>
+        <c:axId val="198383488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5208,7 +5211,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200203264"/>
+        <c:crossAx val="198385024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5216,7 +5219,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200203264"/>
+        <c:axId val="198385024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5227,7 +5230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200201728"/>
+        <c:crossAx val="198383488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5763,11 +5766,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="200620288"/>
-        <c:axId val="200622080"/>
+        <c:axId val="198423680"/>
+        <c:axId val="198425216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200620288"/>
+        <c:axId val="198423680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5776,7 +5779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200622080"/>
+        <c:crossAx val="198425216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5784,7 +5787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200622080"/>
+        <c:axId val="198425216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5795,7 +5798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200620288"/>
+        <c:crossAx val="198423680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6094,11 +6097,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="200668288"/>
-        <c:axId val="200669824"/>
+        <c:axId val="198516096"/>
+        <c:axId val="198546560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200668288"/>
+        <c:axId val="198516096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6107,7 +6110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200669824"/>
+        <c:crossAx val="198546560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6115,7 +6118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200669824"/>
+        <c:axId val="198546560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6126,7 +6129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200668288"/>
+        <c:crossAx val="198516096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6438,11 +6441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="200825856"/>
-        <c:axId val="200831744"/>
+        <c:axId val="198571520"/>
+        <c:axId val="198573056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200825856"/>
+        <c:axId val="198571520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6451,7 +6454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200831744"/>
+        <c:crossAx val="198573056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6459,7 +6462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200831744"/>
+        <c:axId val="198573056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6470,7 +6473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200825856"/>
+        <c:crossAx val="198571520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7166,11 +7169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="200891392"/>
-        <c:axId val="200930048"/>
+        <c:axId val="196720128"/>
+        <c:axId val="196721664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200891392"/>
+        <c:axId val="196720128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7179,7 +7182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200930048"/>
+        <c:crossAx val="196721664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7187,7 +7190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200930048"/>
+        <c:axId val="196721664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7198,7 +7201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200891392"/>
+        <c:crossAx val="196720128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7820,8 +7823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10713,8 +10716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11362,6 +11365,16 @@
       <c r="F36">
         <v>30</v>
       </c>
+      <c r="G36">
+        <v>3559</v>
+      </c>
+      <c r="H36">
+        <v>1.33</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(G7/G36)</f>
+        <v>19.913177858949144</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F37">
@@ -11762,8 +11775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11900,6 +11913,16 @@
       <c r="A11">
         <v>5</v>
       </c>
+      <c r="B11">
+        <v>10934</v>
+      </c>
+      <c r="C11">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(B7/B11)</f>
+        <v>3.802999817084324</v>
+      </c>
       <c r="F11">
         <v>5</v>
       </c>
@@ -11908,6 +11931,16 @@
       <c r="A12">
         <v>6</v>
       </c>
+      <c r="B12">
+        <v>9078</v>
+      </c>
+      <c r="C12">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(B7/B12)</f>
+        <v>4.5805243445692883</v>
+      </c>
       <c r="F12">
         <v>6</v>
       </c>
@@ -11916,6 +11949,16 @@
       <c r="A13">
         <v>7</v>
       </c>
+      <c r="B13">
+        <v>7502</v>
+      </c>
+      <c r="C13">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(B7/B13)</f>
+        <v>5.5427885897094109</v>
+      </c>
       <c r="F13">
         <v>7</v>
       </c>
@@ -11924,6 +11967,16 @@
       <c r="A14">
         <v>8</v>
       </c>
+      <c r="B14">
+        <v>7111</v>
+      </c>
+      <c r="C14">
+        <v>0.622</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(B7/B14)</f>
+        <v>5.8475601181268457</v>
+      </c>
       <c r="F14">
         <v>8</v>
       </c>
@@ -11932,6 +11985,16 @@
       <c r="A15">
         <v>9</v>
       </c>
+      <c r="B15">
+        <v>6256</v>
+      </c>
+      <c r="C15">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(B7/B15)</f>
+        <v>6.6467391304347823</v>
+      </c>
       <c r="F15">
         <v>9</v>
       </c>
@@ -11940,6 +12003,16 @@
       <c r="A16">
         <v>10</v>
       </c>
+      <c r="B16">
+        <v>6136</v>
+      </c>
+      <c r="C16">
+        <v>0.72</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(B7/B16)</f>
+        <v>6.7767275097783575</v>
+      </c>
       <c r="F16">
         <v>10</v>
       </c>
@@ -11958,6 +12031,16 @@
       <c r="A17">
         <v>11</v>
       </c>
+      <c r="B17">
+        <v>5892</v>
+      </c>
+      <c r="C17">
+        <v>0.75</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(B7/B17)</f>
+        <v>7.0573659198913781</v>
+      </c>
       <c r="F17">
         <v>11</v>
       </c>
@@ -12312,6 +12395,16 @@
       </c>
       <c r="F36">
         <v>30</v>
+      </c>
+      <c r="G36">
+        <v>4992</v>
+      </c>
+      <c r="H36">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(G7/G36)</f>
+        <v>14.212940705128204</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -12713,8 +12806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I96" sqref="I96"/>
+    <sheetView topLeftCell="C66" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13257,6 +13350,16 @@
     <row r="66" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F66">
         <v>60</v>
+      </c>
+      <c r="G66">
+        <v>7802</v>
+      </c>
+      <c r="H66">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="I66">
+        <f>AVERAGE(G7/G66)</f>
+        <v>5.2136631632914634</v>
       </c>
     </row>
     <row r="67" spans="6:9" x14ac:dyDescent="0.25">
@@ -15464,8 +15567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI40"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="BF14" sqref="BF14"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17086,7 +17189,7 @@
         <v>4.7692207792207792</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:I32" si="5">(B25/12)</f>
+        <f t="shared" ref="I25:I33" si="5">(B25/12)</f>
         <v>0.88014092608570615</v>
       </c>
       <c r="J25">
@@ -17524,6 +17627,9 @@
       <c r="A33" t="s">
         <v>79</v>
       </c>
+      <c r="B33">
+        <v>7.0573659198913781</v>
+      </c>
       <c r="C33">
         <v>7.1226447413497773</v>
       </c>
@@ -17538,6 +17644,10 @@
       </c>
       <c r="H33">
         <v>8.7028045207199671</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>0.5881138266576148</v>
       </c>
       <c r="J33">
         <f t="shared" si="6"/>
@@ -17756,8 +17866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18967,17 +19077,16 @@
         <v>42</v>
       </c>
       <c r="B48">
-        <v>562</v>
+        <f>AVERAGE(562,591)</f>
+        <v>576.5</v>
       </c>
       <c r="C48">
-        <v>7.6</v>
+        <f>AVERAGE(7.62,7.6)</f>
+        <v>7.6099999999999994</v>
       </c>
       <c r="D48">
         <f>AVERAGE(B7/B48)</f>
-        <v>11.421708185053381</v>
-      </c>
-      <c r="E48">
-        <v>591</v>
+        <v>11.134431916738942</v>
       </c>
       <c r="F48">
         <v>42</v>
@@ -19830,8 +19939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView topLeftCell="C72" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20959,15 +21068,45 @@
       <c r="F52">
         <v>46</v>
       </c>
+      <c r="G52">
+        <v>1185</v>
+      </c>
+      <c r="H52">
+        <v>4.43</v>
+      </c>
+      <c r="I52">
+        <f>AVERAGE(G7/G52)</f>
+        <v>32.633755274261603</v>
+      </c>
     </row>
     <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>47</v>
       </c>
+      <c r="G53">
+        <v>1165</v>
+      </c>
+      <c r="H53">
+        <v>4.5</v>
+      </c>
+      <c r="I53">
+        <f>AVERAGE(G7/G53)</f>
+        <v>33.193991416309011</v>
+      </c>
     </row>
     <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>48</v>
+      </c>
+      <c r="G54">
+        <v>1180</v>
+      </c>
+      <c r="H54">
+        <v>4.45</v>
+      </c>
+      <c r="I54">
+        <f>AVERAGE(G7/G54)</f>
+        <v>32.772033898305082</v>
       </c>
     </row>
     <row r="55" spans="6:9" x14ac:dyDescent="0.25">
@@ -21269,7 +21408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -24609,8 +24748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView topLeftCell="C72" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24633,6 +24772,9 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -24867,6 +25009,16 @@
       <c r="F16">
         <v>10</v>
       </c>
+      <c r="G16">
+        <v>3581</v>
+      </c>
+      <c r="H16">
+        <v>1.96</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(G7/G16)</f>
+        <v>9.6043004747277294</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -25057,6 +25209,16 @@
       <c r="F26">
         <v>20</v>
       </c>
+      <c r="G26">
+        <v>1839</v>
+      </c>
+      <c r="H26">
+        <v>3.82</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(G7/G26)</f>
+        <v>18.702011963023381</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -25247,6 +25409,16 @@
       <c r="F36">
         <v>30</v>
       </c>
+      <c r="G36">
+        <v>1330</v>
+      </c>
+      <c r="H36">
+        <v>5.29</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(G7/G36)</f>
+        <v>25.859398496240601</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F37">
@@ -25447,6 +25619,16 @@
       <c r="F66">
         <v>60</v>
       </c>
+      <c r="G66">
+        <v>959</v>
+      </c>
+      <c r="H66">
+        <v>7.33</v>
+      </c>
+      <c r="I66">
+        <f>AVERAGE(G7/G66)</f>
+        <v>35.863399374348276</v>
+      </c>
     </row>
     <row r="67" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F67">
@@ -25508,14 +25690,16 @@
         <v>70</v>
       </c>
       <c r="G76">
-        <v>909</v>
+        <f>AVERAGE(909,916)</f>
+        <v>912.5</v>
       </c>
       <c r="H76">
-        <v>7.73</v>
+        <f>AVERAGE(7.73,7.68)</f>
+        <v>7.7050000000000001</v>
       </c>
       <c r="I76">
         <f>AVERAGE(G7/G76)</f>
-        <v>37.836083608360838</v>
+        <v>37.690958904109586</v>
       </c>
     </row>
     <row r="77" spans="6:9" x14ac:dyDescent="0.25">
@@ -25667,8 +25851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26418,82 +26602,92 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F55">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F56">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>8070</v>
+      </c>
+      <c r="H56">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="I56">
+        <f>AVERAGE(G7/G56)</f>
+        <v>13.165923172242875</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F57">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F64">
         <v>58</v>
       </c>
@@ -26727,8 +26921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27363,6 +27557,16 @@
       <c r="F36">
         <v>30</v>
       </c>
+      <c r="G36">
+        <v>3311</v>
+      </c>
+      <c r="H36">
+        <v>1.37</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(G7/G36)</f>
+        <v>7.940199335548173</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F37">
@@ -27602,6 +27806,16 @@
     <row r="76" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F76">
         <v>70</v>
+      </c>
+      <c r="G76">
+        <v>2329</v>
+      </c>
+      <c r="H76">
+        <v>1.95</v>
+      </c>
+      <c r="I76">
+        <f>AVERAGE(G7/G76)</f>
+        <v>11.288106483469301</v>
       </c>
     </row>
     <row r="77" spans="6:9" x14ac:dyDescent="0.25">

--- a/12_40CoreBench.xlsx
+++ b/12_40CoreBench.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="smithwa" sheetId="12" r:id="rId1"/>
     <sheet name="kdtree" sheetId="5" r:id="rId2"/>
     <sheet name="botsspar" sheetId="8" r:id="rId3"/>
-    <sheet name="nab" sheetId="1" r:id="rId4"/>
-    <sheet name="botsalgn" sheetId="7" r:id="rId5"/>
+    <sheet name="botsalgn" sheetId="7" r:id="rId4"/>
+    <sheet name="nab" sheetId="1" r:id="rId5"/>
     <sheet name="fma3d" sheetId="9" r:id="rId6"/>
     <sheet name="imagick" sheetId="11" r:id="rId7"/>
     <sheet name="bwaves" sheetId="15" r:id="rId8"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="106">
   <si>
     <t>12 Core Potsdam Bench measurements</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>mem 0,6 %</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Speed-up 40 core</t>
@@ -333,6 +330,24 @@
   <si>
     <t>Mem 0.4%</t>
   </si>
+  <si>
+    <t>Duration in s</t>
+  </si>
+  <si>
+    <t>duration in s</t>
+  </si>
+  <si>
+    <t>~ 10 h</t>
+  </si>
+  <si>
+    <t>~ 20,4 h</t>
+  </si>
+  <si>
+    <t>~ &gt; 3 days</t>
+  </si>
+  <si>
+    <t>2 mal</t>
+  </si>
 </sst>
 </file>
 
@@ -1358,11 +1373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197659264"/>
-        <c:axId val="197677440"/>
+        <c:axId val="141503104"/>
+        <c:axId val="141521280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197659264"/>
+        <c:axId val="141503104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197677440"/>
+        <c:crossAx val="141521280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1380,7 +1395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197677440"/>
+        <c:axId val="141521280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,7 +1406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197659264"/>
+        <c:crossAx val="141503104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1719,6 +1734,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9.7809464268539009E-2</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.16067704218675935</c:v>
                 </c:pt>
@@ -2340,6 +2358,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.20308202556220678</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30913680581209207</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2547,11 +2571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196893696"/>
-        <c:axId val="196915968"/>
+        <c:axId val="140803072"/>
+        <c:axId val="140825344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196893696"/>
+        <c:axId val="140803072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2561,7 +2585,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196915968"/>
+        <c:crossAx val="140825344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2569,7 +2593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196915968"/>
+        <c:axId val="140825344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2580,13 +2604,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196893696"/>
+        <c:crossAx val="140803072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3207,11 +3232,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198195840"/>
-        <c:axId val="198209920"/>
+        <c:axId val="142031488"/>
+        <c:axId val="142049664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198195840"/>
+        <c:axId val="142031488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3221,7 +3246,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198209920"/>
+        <c:crossAx val="142049664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3229,7 +3254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198209920"/>
+        <c:axId val="142049664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3240,13 +3265,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198195840"/>
+        <c:crossAx val="142031488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3876,11 +3902,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198237184"/>
-        <c:axId val="198247168"/>
+        <c:axId val="142068736"/>
+        <c:axId val="142082816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198237184"/>
+        <c:axId val="142068736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3889,7 +3915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198247168"/>
+        <c:crossAx val="142082816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3897,7 +3923,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198247168"/>
+        <c:axId val="142082816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3908,13 +3934,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198237184"/>
+        <c:crossAx val="142068736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4424,11 +4451,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198290816"/>
-        <c:axId val="198292608"/>
+        <c:axId val="142130560"/>
+        <c:axId val="142132352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198290816"/>
+        <c:axId val="142130560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4437,7 +4464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198292608"/>
+        <c:crossAx val="142132352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4445,7 +4472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198292608"/>
+        <c:axId val="142132352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4456,13 +4483,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198290816"/>
+        <c:crossAx val="142130560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5047,6 +5075,9 @@
                 <c:pt idx="13">
                   <c:v>0.72031914893617022</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26237510407993336</c:v>
+                </c:pt>
                 <c:pt idx="15">
                   <c:v>0.83932295781324062</c:v>
                 </c:pt>
@@ -5198,11 +5229,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198383488"/>
-        <c:axId val="198385024"/>
+        <c:axId val="141766656"/>
+        <c:axId val="141768192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198383488"/>
+        <c:axId val="141766656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5211,7 +5242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198385024"/>
+        <c:crossAx val="141768192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5219,7 +5250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198385024"/>
+        <c:axId val="141768192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5230,7 +5261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198383488"/>
+        <c:crossAx val="141766656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5766,11 +5797,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198423680"/>
-        <c:axId val="198425216"/>
+        <c:axId val="141804672"/>
+        <c:axId val="141806208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198423680"/>
+        <c:axId val="141804672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5779,7 +5810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198425216"/>
+        <c:crossAx val="141806208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5787,7 +5818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198425216"/>
+        <c:axId val="141806208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5798,7 +5829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198423680"/>
+        <c:crossAx val="141804672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6046,6 +6077,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
+                <c:pt idx="5">
+                  <c:v>0.30913680581209207</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>0.79199016563146996</c:v>
                 </c:pt>
@@ -6097,11 +6131,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198516096"/>
-        <c:axId val="198546560"/>
+        <c:axId val="141835648"/>
+        <c:axId val="141857920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198516096"/>
+        <c:axId val="141835648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6110,7 +6144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198546560"/>
+        <c:crossAx val="141857920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6118,7 +6152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198546560"/>
+        <c:axId val="141857920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6129,13 +6163,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198516096"/>
+        <c:crossAx val="141835648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6267,6 +6302,9 @@
                 <c:pt idx="4">
                   <c:v>0.92527268566473153</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7809464268539009E-2</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>0.95703703703703691</c:v>
                 </c:pt>
@@ -6390,6 +6428,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
+                <c:pt idx="5">
+                  <c:v>0.20308202556220678</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>0.43278885589025595</c:v>
                 </c:pt>
@@ -6441,11 +6482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198571520"/>
-        <c:axId val="198573056"/>
+        <c:axId val="141878784"/>
+        <c:axId val="141880320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198571520"/>
+        <c:axId val="141878784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6454,7 +6495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198573056"/>
+        <c:crossAx val="141880320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6462,7 +6503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198573056"/>
+        <c:axId val="141880320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6473,13 +6514,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198571520"/>
+        <c:crossAx val="141878784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6653,6 +6695,9 @@
                 <c:pt idx="5">
                   <c:v>0.16067704218675935</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30913680581209207</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>0.72857142857142854</c:v>
                 </c:pt>
@@ -6866,6 +6911,12 @@
                 <c:pt idx="4">
                   <c:v>0.92527268566473153</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7809464268539009E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20308202556220678</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>0.95703703703703691</c:v>
                 </c:pt>
@@ -7082,6 +7133,9 @@
                 <c:pt idx="5">
                   <c:v>0.17633518293740247</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34437585733882031</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>0.69338103756708402</c:v>
                 </c:pt>
@@ -7169,11 +7223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196720128"/>
-        <c:axId val="196721664"/>
+        <c:axId val="140621312"/>
+        <c:axId val="140622848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196720128"/>
+        <c:axId val="140621312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7182,7 +7236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196721664"/>
+        <c:crossAx val="140622848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7190,7 +7244,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196721664"/>
+        <c:axId val="140622848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7201,13 +7255,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196720128"/>
+        <c:crossAx val="140621312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7839,7 +7894,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
         <v>32</v>
@@ -9687,10 +9742,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -10716,8 +10771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11775,7 +11830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12:D17"/>
     </sheetView>
   </sheetViews>
@@ -11789,7 +11844,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -11797,10 +11852,10 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -12806,8 +12861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="C66" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12822,7 +12877,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
@@ -12920,17 +12975,16 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>33163</v>
+        <f>AVERAGE(33163,33244)</f>
+        <v>33203.5</v>
       </c>
       <c r="C9">
-        <v>0.14000000000000001</v>
+        <f>AVERAGE(0.14,0.139)</f>
+        <v>0.13950000000000001</v>
       </c>
       <c r="D9">
         <f>AVERAGE(B7/B9)</f>
-        <v>0.90842203660706211</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
+        <v>0.90731398798319451</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -12940,6 +12994,16 @@
       <c r="A10">
         <v>4</v>
       </c>
+      <c r="B10">
+        <v>28295</v>
+      </c>
+      <c r="C10">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D10">
+        <f>AVERAGE(B7/B10)</f>
+        <v>1.0647110796960593</v>
+      </c>
       <c r="F10">
         <v>4</v>
       </c>
@@ -12948,6 +13012,18 @@
       <c r="A11">
         <v>5</v>
       </c>
+      <c r="B11">
+        <f>AVERAGE(21081,23701)</f>
+        <v>22391</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(0.22,0.195)</f>
+        <v>0.20750000000000002</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(B7/B11)</f>
+        <v>1.3454512973962753</v>
+      </c>
       <c r="F11">
         <v>5</v>
       </c>
@@ -12956,6 +13032,16 @@
       <c r="A12">
         <v>6</v>
       </c>
+      <c r="B12">
+        <v>21061</v>
+      </c>
+      <c r="C12">
+        <v>0.22</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(B7/B12)</f>
+        <v>1.4304164094772327</v>
+      </c>
       <c r="F12">
         <v>6</v>
       </c>
@@ -12964,6 +13050,16 @@
       <c r="A13">
         <v>7</v>
       </c>
+      <c r="B13">
+        <v>17388</v>
+      </c>
+      <c r="C13">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(B7/B13)</f>
+        <v>1.7325741890959283</v>
+      </c>
       <c r="F13">
         <v>7</v>
       </c>
@@ -12972,6 +13068,16 @@
       <c r="A14">
         <v>8</v>
       </c>
+      <c r="B14">
+        <v>15890</v>
+      </c>
+      <c r="C14">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(B7/B14)</f>
+        <v>1.8959093769666457</v>
+      </c>
       <c r="F14">
         <v>8</v>
       </c>
@@ -12980,6 +13086,16 @@
       <c r="A15">
         <v>9</v>
       </c>
+      <c r="B15">
+        <v>15297</v>
+      </c>
+      <c r="C15">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(B7/B15)</f>
+        <v>1.9694057658364386</v>
+      </c>
       <c r="F15">
         <v>9</v>
       </c>
@@ -12988,14 +13104,44 @@
       <c r="A16">
         <v>10</v>
       </c>
+      <c r="B16">
+        <v>13969</v>
+      </c>
+      <c r="C16">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(B7/B16)</f>
+        <v>2.1566325434891547</v>
+      </c>
       <c r="F16">
         <v>10</v>
+      </c>
+      <c r="G16">
+        <v>30066</v>
+      </c>
+      <c r="H16">
+        <v>0.154</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(G7/G16)</f>
+        <v>1.3529235681500698</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
+      <c r="B17">
+        <v>13260</v>
+      </c>
+      <c r="C17">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(B7/B17)</f>
+        <v>2.271945701357466</v>
+      </c>
       <c r="F17">
         <v>11</v>
       </c>
@@ -13032,6 +13178,16 @@
       <c r="A19">
         <v>13</v>
       </c>
+      <c r="B19">
+        <v>11732</v>
+      </c>
+      <c r="C19">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(B7/B19)</f>
+        <v>2.5678486191612682</v>
+      </c>
       <c r="F19">
         <v>13</v>
       </c>
@@ -13040,6 +13196,16 @@
       <c r="A20">
         <v>14</v>
       </c>
+      <c r="B20">
+        <v>11406</v>
+      </c>
+      <c r="C20">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(B7/B20)</f>
+        <v>2.6412414518674381</v>
+      </c>
       <c r="F20">
         <v>14</v>
       </c>
@@ -13048,6 +13214,16 @@
       <c r="A21">
         <v>15</v>
       </c>
+      <c r="B21">
+        <v>11006</v>
+      </c>
+      <c r="C21">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE(B7/B21)</f>
+        <v>2.7372342358713428</v>
+      </c>
       <c r="F21">
         <v>15</v>
       </c>
@@ -13056,6 +13232,16 @@
       <c r="A22">
         <v>16</v>
       </c>
+      <c r="B22">
+        <v>10648</v>
+      </c>
+      <c r="C22">
+        <v>0.435</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(B7/B22)</f>
+        <v>2.8292637114951162</v>
+      </c>
       <c r="F22">
         <v>16</v>
       </c>
@@ -13064,6 +13250,16 @@
       <c r="A23">
         <v>17</v>
       </c>
+      <c r="B23">
+        <v>10252</v>
+      </c>
+      <c r="C23">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(B7/B23)</f>
+        <v>2.9385485758876317</v>
+      </c>
       <c r="F23">
         <v>17</v>
       </c>
@@ -13072,6 +13268,16 @@
       <c r="A24">
         <v>18</v>
       </c>
+      <c r="B24">
+        <v>9872</v>
+      </c>
+      <c r="C24">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D24">
+        <f>AVERAGE(B7/B24)</f>
+        <v>3.0516612641815235</v>
+      </c>
       <c r="F24">
         <v>18</v>
       </c>
@@ -13080,6 +13286,16 @@
       <c r="A25">
         <v>19</v>
       </c>
+      <c r="B25">
+        <v>9497</v>
+      </c>
+      <c r="C25">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D25">
+        <f>AVERAGE(B7/B25)</f>
+        <v>3.172159629356639</v>
+      </c>
       <c r="F25">
         <v>19</v>
       </c>
@@ -13132,6 +13348,16 @@
       <c r="A29">
         <v>23</v>
       </c>
+      <c r="B29">
+        <v>8385</v>
+      </c>
+      <c r="C29">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(B7/B29)</f>
+        <v>3.5928443649373882</v>
+      </c>
       <c r="F29">
         <v>23</v>
       </c>
@@ -13140,6 +13366,16 @@
       <c r="A30">
         <v>24</v>
       </c>
+      <c r="B30">
+        <v>8121</v>
+      </c>
+      <c r="C30">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D30">
+        <f>AVERAGE(B7/B30)</f>
+        <v>3.7096416697451051</v>
+      </c>
       <c r="F30">
         <v>24</v>
       </c>
@@ -13148,6 +13384,16 @@
       <c r="A31">
         <v>25</v>
       </c>
+      <c r="B31">
+        <v>7897</v>
+      </c>
+      <c r="C31">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(B7/B31)</f>
+        <v>3.8148664049639103</v>
+      </c>
       <c r="F31">
         <v>25</v>
       </c>
@@ -13156,35 +13402,75 @@
       <c r="A32">
         <v>26</v>
       </c>
+      <c r="B32">
+        <v>7764</v>
+      </c>
+      <c r="C32">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D32">
+        <f>AVERAGE(B7/B32)</f>
+        <v>3.8802163833075736</v>
+      </c>
       <c r="F32">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>27</v>
       </c>
+      <c r="B33">
+        <v>7623</v>
+      </c>
+      <c r="C33">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D33">
+        <f>AVERAGE(B7/B33)</f>
+        <v>3.9519874065328611</v>
+      </c>
       <c r="F33">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>28</v>
       </c>
+      <c r="B34">
+        <v>7519</v>
+      </c>
+      <c r="C34">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D34">
+        <f>AVERAGE(B7/B34)</f>
+        <v>4.0066498204548475</v>
+      </c>
       <c r="F34">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>29</v>
       </c>
+      <c r="B35">
+        <v>7409</v>
+      </c>
+      <c r="C35">
+        <v>0.625</v>
+      </c>
+      <c r="D35">
+        <f>AVERAGE(B7/B35)</f>
+        <v>4.0661357808071266</v>
+      </c>
       <c r="F35">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>30</v>
       </c>
@@ -13201,143 +13487,173 @@
       <c r="F36">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>13300</v>
+      </c>
+      <c r="H36">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(G7/G36)</f>
+        <v>3.0584210526315792</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F37">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F38">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F39">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F40">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F41">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F42">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F43">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F44">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F45">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F46">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>10397</v>
+      </c>
+      <c r="H46">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="I46">
+        <f>AVERAGE(G7/G46)</f>
+        <v>3.9123785707415601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F47">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F48">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F55">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F56">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>8866</v>
+      </c>
+      <c r="H56">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="I56">
+        <f>AVERAGE(G7/G56)</f>
+        <v>4.5879765395894427</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F57">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F64">
         <v>58</v>
       </c>
@@ -13561,8 +13877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14230,84 +14546,94 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F81">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F82">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F83">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F84">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F85">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F86">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F87">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F88">
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F89">
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F90">
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F91">
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F92">
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F93">
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F94">
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F95">
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F96">
         <v>90</v>
+      </c>
+      <c r="G96">
+        <v>124273</v>
+      </c>
+      <c r="H96">
+        <v>2.86E-2</v>
+      </c>
+      <c r="I96">
+        <f>AVERAGE(G7/G96)</f>
+        <v>0.29357945812847519</v>
       </c>
     </row>
   </sheetData>
@@ -14319,8 +14645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I6"/>
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14330,10 +14656,10 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -14371,7 +14697,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="5">
         <v>37.532214099999997</v>
@@ -14390,7 +14716,7 @@
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3">
         <f>1-(B3/40)</f>
@@ -14413,12 +14739,12 @@
         <v>-0.55800857249999991</v>
       </c>
       <c r="Q3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>36.493033679765688</v>
@@ -14436,7 +14762,7 @@
         <v>55.282460767314106</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J12" si="0">1-(B4/40)</f>
@@ -14461,7 +14787,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>36.780243003570199</v>
@@ -14479,7 +14805,7 @@
         <v>39.165562426609682</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
@@ -14504,7 +14830,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>35.7591816602107</v>
@@ -14522,7 +14848,7 @@
         <v>14.994956270600449</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
@@ -14547,7 +14873,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>36.31235405893419</v>
@@ -14565,7 +14891,7 @@
         <v>42.542580409356724</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
@@ -14764,7 +15090,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12">
         <v>37.91027154663518</v>
@@ -14782,7 +15108,7 @@
         <v>44.289655172413795</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
@@ -14807,7 +15133,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13">
         <v>30.401729559748428</v>
@@ -14825,7 +15151,7 @@
         <v>33.510398613518198</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13">
         <f t="shared" ref="J13:K19" si="5">1-(B13/40)</f>
@@ -14850,7 +15176,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="9">
         <v>25.856387665198238</v>
@@ -14868,7 +15194,7 @@
         <v>34.283878504672899</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
@@ -14893,7 +15219,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>22.633333333333333</v>
@@ -14911,7 +15237,7 @@
         <v>37.862453531598511</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
@@ -14979,7 +15305,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17">
         <v>22.009627329192547</v>
@@ -14990,11 +15316,14 @@
       <c r="E17">
         <v>28.473684210526315</v>
       </c>
+      <c r="F17">
+        <v>29.504995836802664</v>
+      </c>
       <c r="G17">
         <v>27.716464606961281</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
@@ -15008,6 +15337,10 @@
         <f>1-(E17/40)</f>
         <v>0.28815789473684217</v>
       </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>0.26237510407993336</v>
+      </c>
       <c r="O17">
         <f t="shared" si="3"/>
         <v>0.30708838482596801</v>
@@ -15015,7 +15348,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18">
         <v>6.329080441885794</v>
@@ -15024,7 +15357,7 @@
         <v>6.4270816874703742</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M18">
         <f>1-(E18/40)</f>
@@ -15080,7 +15413,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -15118,7 +15451,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>10.234191016136066</v>
@@ -15136,7 +15469,7 @@
         <v>13.073537604456824</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J23">
         <f>1-(B23/12)</f>
@@ -15161,7 +15494,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <v>10.561691113028473</v>
@@ -15179,7 +15512,7 @@
         <v>14.102534562211982</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J24">
         <f t="shared" ref="J24:J32" si="9">1-(B24/12)</f>
@@ -15204,7 +15537,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25">
         <v>6.1780558229066411</v>
@@ -15222,7 +15555,7 @@
         <v>10.014040561622465</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25">
         <f t="shared" si="9"/>
@@ -15247,7 +15580,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>8.400509121764955</v>
@@ -15265,7 +15598,7 @@
         <v>11.585722644821534</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J26">
         <f t="shared" si="9"/>
@@ -15290,7 +15623,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27">
         <v>9.9026146267525572</v>
@@ -15308,7 +15641,7 @@
         <v>12.126682134570766</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J27">
         <f t="shared" si="9"/>
@@ -15333,7 +15666,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <v>5.6869712351945854</v>
@@ -15351,7 +15684,7 @@
         <v>7.8090148698884763</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28">
         <f t="shared" si="9"/>
@@ -15376,7 +15709,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29">
         <v>5.2151829601310755</v>
@@ -15394,7 +15727,7 @@
         <v>6.8846431146359048</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29">
         <f t="shared" si="9"/>
@@ -15419,7 +15752,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30">
         <v>9.8146731571627264</v>
@@ -15437,7 +15770,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J30">
         <f t="shared" si="9"/>
@@ -15462,7 +15795,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31">
         <v>8.166156615661567</v>
@@ -15480,7 +15813,7 @@
         <v>9.3647811725846406</v>
       </c>
       <c r="I31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J31">
         <f t="shared" si="9"/>
@@ -15505,7 +15838,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32">
         <v>6.0217303822937627</v>
@@ -15523,7 +15856,7 @@
         <v>8.7542901716068648</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J32">
         <f t="shared" si="9"/>
@@ -15546,14 +15879,57 @@
         <v>0.2704758190327613</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33">
+        <v>2.271945701357466</v>
+      </c>
+      <c r="C33">
+        <v>2.4369843067464814</v>
+      </c>
+      <c r="E33">
+        <v>3.5928443649373882</v>
+      </c>
+      <c r="F33">
+        <v>3.7096416697451051</v>
+      </c>
+      <c r="G33">
+        <v>3.8148664049639103</v>
+      </c>
+      <c r="I33" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33" si="16">1-(B33/12)</f>
+        <v>0.8106711915535445</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33" si="17">1-(C33/12)</f>
+        <v>0.79691797443779322</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ref="M33" si="18">1-(E33/12)</f>
+        <v>0.70059630292188424</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33" si="19">1-(F33/12)</f>
+        <v>0.69086319418790798</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ref="O33" si="20">1-(G33/12)</f>
+        <v>0.68209446625300751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -15567,8 +15943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI40"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15580,10 +15956,10 @@
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
@@ -15632,7 +16008,7 @@
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="5">
         <v>37.532214099999997</v>
@@ -15677,111 +16053,111 @@
         <v>1.565336015</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S3">
         <v>1.553003605</v>
       </c>
       <c r="AC3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AE3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AF3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AH3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM3" t="s">
         <v>50</v>
       </c>
-      <c r="AH3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="AN3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO3" t="s">
         <v>52</v>
       </c>
-      <c r="AL3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="s">
+      <c r="AP3" t="s">
         <v>85</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AQ3" t="s">
         <v>53</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AR3" t="s">
         <v>86</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AS3" t="s">
         <v>54</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AT3" t="s">
         <v>87</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AU3" t="s">
         <v>55</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AV3" t="s">
         <v>88</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AW3" t="s">
         <v>56</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AX3" t="s">
         <v>89</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AY3" t="s">
         <v>57</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AZ3" t="s">
         <v>90</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="BA3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG3" t="s">
         <v>58</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>36.493033679765688</v>
@@ -15826,10 +16202,10 @@
         <v>1.3830792449528644</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S4">
         <v>1.3753480076561682</v>
@@ -15852,6 +16228,12 @@
       <c r="AG4">
         <v>0.92527268566473153</v>
       </c>
+      <c r="AH4">
+        <v>9.7809464268539009E-2</v>
+      </c>
+      <c r="AI4">
+        <v>0.20308202556220678</v>
+      </c>
       <c r="AJ4">
         <v>0.95703703703703691</v>
       </c>
@@ -15925,7 +16307,7 @@
         <v>0.55885867941440093</v>
       </c>
       <c r="BH4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BI4">
         <v>12</v>
@@ -15933,7 +16315,7 @@
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>36.780243003570199</v>
@@ -15978,10 +16360,10 @@
         <v>0.98118164110504846</v>
       </c>
       <c r="P5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="S5">
         <v>0.37552663593594071</v>
@@ -16007,6 +16389,9 @@
       <c r="AH5">
         <v>0.16067704218675935</v>
       </c>
+      <c r="AI5">
+        <v>0.30913680581209207</v>
+      </c>
       <c r="AJ5">
         <v>0.72857142857142854</v>
       </c>
@@ -16080,7 +16465,7 @@
         <v>0.72881355932203384</v>
       </c>
       <c r="BH5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BI5">
         <v>24</v>
@@ -16088,7 +16473,7 @@
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>35.7591816602107</v>
@@ -16133,10 +16518,10 @@
         <v>0.36825773265058465</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S6">
         <v>0.97958355187887824</v>
@@ -16162,6 +16547,9 @@
       <c r="AH6">
         <v>0.17633518293740247</v>
       </c>
+      <c r="AI6">
+        <v>0.34437585733882031</v>
+      </c>
       <c r="AJ6">
         <v>0.69338103756708402</v>
       </c>
@@ -16235,7 +16623,7 @@
         <v>0.72654884443581269</v>
       </c>
       <c r="BH6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BI6">
         <v>30</v>
@@ -16243,7 +16631,7 @@
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>36.31235405893419</v>
@@ -16288,10 +16676,10 @@
         <v>1.0662393197981379</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S7">
         <v>1.0633348559089775</v>
@@ -16347,10 +16735,13 @@
         <v>27</v>
       </c>
       <c r="R8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S8">
         <v>0.16067704218675935</v>
+      </c>
+      <c r="T8">
+        <v>0.30913680581209207</v>
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
@@ -16403,7 +16794,7 @@
         <v>33</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S9">
         <v>0.72857142857142854</v>
@@ -16462,7 +16853,7 @@
         <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S10">
         <v>1.1057162534435263</v>
@@ -16521,7 +16912,7 @@
         <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S11">
         <v>0.89342105263157889</v>
@@ -16532,7 +16923,7 @@
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12">
         <v>37.91027154663518</v>
@@ -16577,10 +16968,10 @@
         <v>1.1103042876901799</v>
       </c>
       <c r="P12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S12">
         <v>0.83088901472253673</v>
@@ -16591,7 +16982,7 @@
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13">
         <v>30.401729559748428</v>
@@ -16636,10 +17027,10 @@
         <v>0.84140557006092254</v>
       </c>
       <c r="P13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S13">
         <v>0.95008287292817672</v>
@@ -16650,7 +17041,7 @@
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="9">
         <v>25.856387665198238</v>
@@ -16695,10 +17086,10 @@
         <v>0.87031435349940689</v>
       </c>
       <c r="P14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S14">
         <v>0.34956420685647877</v>
@@ -16709,7 +17100,7 @@
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>22.633333333333333</v>
@@ -16754,10 +17145,10 @@
         <v>0.97557471264367823</v>
       </c>
       <c r="P15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S15">
         <v>0.27968085106382978</v>
@@ -16816,7 +17207,7 @@
         <v>23</v>
       </c>
       <c r="R16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S16">
         <v>0.84360820244328105</v>
@@ -16827,7 +17218,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17">
         <v>22.009627329192547</v>
@@ -16872,10 +17263,10 @@
         <v>0.70252775574940529</v>
       </c>
       <c r="P17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S17">
         <v>0.73762489592006664</v>
@@ -16886,7 +17277,10 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>3.9123785707415601</v>
       </c>
       <c r="E18">
         <v>6.329080441885794</v>
@@ -16903,7 +17297,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.7809464268539009E-2</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
@@ -16922,10 +17316,10 @@
         <v>0.17633518293740247</v>
       </c>
       <c r="P18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S18">
         <v>0.42526372572524573</v>
@@ -16984,7 +17378,7 @@
         <v>30</v>
       </c>
       <c r="R19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S19">
         <v>0.43209058793843047</v>
@@ -17043,7 +17437,7 @@
         <v>31</v>
       </c>
       <c r="R20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S20">
         <v>0.43260993485342014</v>
@@ -17054,7 +17448,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S22">
         <v>40</v>
@@ -17103,7 +17497,7 @@
         <v>30</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S23">
         <v>0.9602224075000001</v>
@@ -17111,7 +17505,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>10.234191016136066</v>
@@ -17156,10 +17550,10 @@
         <v>1.0906767057073805</v>
       </c>
       <c r="P24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S24">
         <v>0.92631892493700807</v>
@@ -17168,7 +17562,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>10.561691113028473</v>
@@ -17213,10 +17607,10 @@
         <v>0.39743506493506492</v>
       </c>
       <c r="P25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S25">
         <v>0.89161920214470436</v>
@@ -17224,7 +17618,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>6.1780558229066411</v>
@@ -17269,10 +17663,10 @@
         <v>0.87119978284473409</v>
       </c>
       <c r="P26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S26">
         <v>0.93057968396238788</v>
@@ -17280,7 +17674,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>8.400509121764955</v>
@@ -17325,10 +17719,10 @@
         <v>0.96717467760844078</v>
       </c>
       <c r="P27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S27">
         <v>0.92527268566473153</v>
@@ -17336,7 +17730,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28">
         <v>9.9026146267525572</v>
@@ -17381,15 +17775,21 @@
         <v>1.002647329650092</v>
       </c>
       <c r="P28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R28" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="S28">
+        <v>9.7809464268539009E-2</v>
+      </c>
+      <c r="T28">
+        <v>0.20308202556220678</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29">
         <v>5.6869712351945854</v>
@@ -17434,10 +17834,10 @@
         <v>0.64475905463474525</v>
       </c>
       <c r="P29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S29">
         <v>0.95703703703703691</v>
@@ -17448,7 +17848,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>5.2151829601310755</v>
@@ -17493,10 +17893,10 @@
         <v>0.54261847937265595</v>
       </c>
       <c r="P30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S30">
         <v>0.96137724550898207</v>
@@ -17507,7 +17907,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>9.8146731571627264</v>
@@ -17552,10 +17952,10 @@
         <v>0.80117506811989092</v>
       </c>
       <c r="P31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S31">
         <v>0.57090807174887892</v>
@@ -17566,7 +17966,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32">
         <v>8.7742825607064017</v>
@@ -17611,10 +18011,10 @@
         <v>0.92393072989307301</v>
       </c>
       <c r="P32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S32">
         <v>0.65331700801424764</v>
@@ -17625,7 +18025,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33">
         <v>7.0573659198913781</v>
@@ -17670,10 +18070,10 @@
         <v>0.72523371005999726</v>
       </c>
       <c r="P33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S33">
         <v>0.79835190343546891</v>
@@ -17684,7 +18084,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>8.166156615661567</v>
@@ -17729,10 +18129,10 @@
         <v>0.62042507795831281</v>
       </c>
       <c r="P34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S34">
         <v>0.29782178217821781</v>
@@ -17743,7 +18143,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35">
         <v>6.0217303822937627</v>
@@ -17788,10 +18188,10 @@
         <v>0.72654884443581269</v>
       </c>
       <c r="P35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S35">
         <v>0.21373983739837396</v>
@@ -17801,8 +18201,56 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36">
+        <v>2.271945701357466</v>
+      </c>
+      <c r="C36">
+        <v>2.4369843067464814</v>
+      </c>
+      <c r="E36">
+        <v>3.5928443649373882</v>
+      </c>
+      <c r="F36">
+        <v>3.7096416697451051</v>
+      </c>
+      <c r="G36">
+        <v>3.8148664049639103</v>
+      </c>
+      <c r="H36">
+        <v>4.132510288065844</v>
+      </c>
+      <c r="I36">
+        <f>(B36/12)</f>
+        <v>0.1893288084464555</v>
+      </c>
+      <c r="J36">
+        <f>(C36/12)</f>
+        <v>0.20308202556220678</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ref="L36" si="14">(E36/12)</f>
+        <v>0.2994036970781157</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ref="M36" si="15">(F36/12)</f>
+        <v>0.30913680581209207</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ref="N36" si="16">(G36/12)</f>
+        <v>0.31790553374699254</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ref="O36" si="17">(H36/12)</f>
+        <v>0.34437585733882031</v>
+      </c>
+      <c r="P36" t="s">
+        <v>77</v>
+      </c>
       <c r="R36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S36">
         <v>0.77156823623304072</v>
@@ -17813,7 +18261,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S37">
         <v>0.54348926380368101</v>
@@ -17824,7 +18272,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S38">
         <v>0.35675281576830253</v>
@@ -17835,7 +18283,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S39">
         <v>0.46118367896579587</v>
@@ -17846,7 +18294,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S40">
         <v>0.28831271030066208</v>
@@ -17864,10 +18312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J103"/>
+  <dimension ref="A2:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17878,6 +18326,25 @@
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <f>SUM(B7:B36)</f>
+        <v>38273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2">
+        <f>SUM(G7:G96)</f>
+        <v>73646.5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
@@ -18254,7 +18721,7 @@
         <v>7.8105828220858893</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -18282,7 +18749,7 @@
         <v>7.8165771297006907</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -18310,7 +18777,7 @@
         <v>8.6094674556213011</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -18338,7 +18805,7 @@
         <v>8.9577836411609493</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -18366,7 +18833,7 @@
         <v>10.598335067637878</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -18394,7 +18861,7 @@
         <v>11.508474576271187</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -18422,7 +18889,7 @@
         <v>11.843023255813954</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -18450,7 +18917,7 @@
         <v>12.285886610373945</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -18478,7 +18945,7 @@
         <v>12.991071428571429</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -18506,7 +18973,7 @@
         <v>13.091259640102828</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
@@ -18534,7 +19001,7 @@
         <v>13.26171875</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -18562,7 +19029,7 @@
         <v>13.348623853211009</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -18592,7 +19059,7 @@
         <v>14.487908961593172</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -19325,6 +19792,19 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>180</v>
+      </c>
+      <c r="B60">
+        <v>592</v>
+      </c>
+      <c r="C60">
+        <v>7.6</v>
+      </c>
+      <c r="D60">
+        <f>AVERAGE(B7/B60)</f>
+        <v>10.842905405405405</v>
+      </c>
       <c r="F60">
         <v>54</v>
       </c>
@@ -19551,7 +20031,7 @@
         <v>33.284313725490193</v>
       </c>
       <c r="J74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="6:10" x14ac:dyDescent="0.25">
@@ -19939,8 +20419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="C72" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20193,17 +20673,16 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>3479</v>
+        <f>AVERAGE(3479,3770)</f>
+        <v>3624.5</v>
       </c>
       <c r="C14">
-        <v>2.02</v>
+        <f>AVERAGE(2.02,1.39)</f>
+        <v>1.7050000000000001</v>
       </c>
       <c r="D14">
         <f>AVERAGE(B7/B14)</f>
-        <v>8.113538373095718</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
+        <v>7.7878328045247622</v>
       </c>
       <c r="F14">
         <v>8</v>
@@ -21112,6 +21591,16 @@
     <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F55">
         <v>49</v>
+      </c>
+      <c r="G55">
+        <v>1166</v>
+      </c>
+      <c r="H55">
+        <v>4.5</v>
+      </c>
+      <c r="I55">
+        <f>AVERAGE(G7/G55)</f>
+        <v>33.165523156089193</v>
       </c>
     </row>
     <row r="56" spans="6:9" x14ac:dyDescent="0.25">
@@ -21405,6 +21894,1349 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J96"/>
+  <sheetViews>
+    <sheetView topLeftCell="D98" workbookViewId="0">
+      <selection activeCell="J111" sqref="J111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>23467</v>
+      </c>
+      <c r="C7">
+        <v>0.185</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>32110</v>
+      </c>
+      <c r="H7">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>11722</v>
+      </c>
+      <c r="C8">
+        <v>0.371</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(B7/B8)</f>
+        <v>2.001962122504692</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>16059</v>
+      </c>
+      <c r="H8">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(G7/G8)</f>
+        <v>1.9995018369761504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>7842</v>
+      </c>
+      <c r="C9">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE(B7/B9)</f>
+        <v>2.9924764090793166</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>10707</v>
+      </c>
+      <c r="H9">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGE(G7/G9)</f>
+        <v>2.9989726347249461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>5902</v>
+      </c>
+      <c r="C10">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D10">
+        <f>AVERAGE(B7/B10)</f>
+        <v>3.9761097932904099</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>8045</v>
+      </c>
+      <c r="H10">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="I10">
+        <f>AVERAGE(G7/G10)</f>
+        <v>3.9912989434431325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>4813</v>
+      </c>
+      <c r="C11">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(B7/B11)</f>
+        <v>4.8757531685019737</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>6457</v>
+      </c>
+      <c r="H11">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGE(G7/G11)</f>
+        <v>4.9728976304785508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>4042</v>
+      </c>
+      <c r="C12">
+        <v>1.08</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(B7/B12)</f>
+        <v>5.8057892132607618</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>5382</v>
+      </c>
+      <c r="H12">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGE(G7/G12)</f>
+        <v>5.9661835748792269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>3476</v>
+      </c>
+      <c r="C13">
+        <v>1.25</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(B7/B13)</f>
+        <v>6.7511507479861912</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>4608</v>
+      </c>
+      <c r="H13">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGE(G7/G13)</f>
+        <v>6.9683159722222223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>3048</v>
+      </c>
+      <c r="C14">
+        <v>1.43</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(B7/B14)</f>
+        <v>7.6991469816272966</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>4027</v>
+      </c>
+      <c r="H14">
+        <v>1.08</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(G7/G14)</f>
+        <v>7.9736776756890988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>2756</v>
+      </c>
+      <c r="C15">
+        <v>1.58</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(B7/B15)</f>
+        <v>8.5148766328011618</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>3581</v>
+      </c>
+      <c r="H15">
+        <v>1.21</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGE(G7/G15)</f>
+        <v>8.9667690589220896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>2507</v>
+      </c>
+      <c r="C16">
+        <v>1.74</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(B7/B16)</f>
+        <v>9.3605903470283209</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>3224</v>
+      </c>
+      <c r="H16">
+        <v>1.35</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(G7/G16)</f>
+        <v>9.9596774193548381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>2293</v>
+      </c>
+      <c r="C17">
+        <v>1.9</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(B7/B17)</f>
+        <v>10.234191016136066</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>2929</v>
+      </c>
+      <c r="H17">
+        <v>1.49</v>
+      </c>
+      <c r="I17">
+        <f>AVERAGE(G7/G17)</f>
+        <v>10.96278593376579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>2137</v>
+      </c>
+      <c r="C18">
+        <v>2.04</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(B7/B18)</f>
+        <v>10.981282171268132</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>2683</v>
+      </c>
+      <c r="H18">
+        <v>1.62</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGE(G7/G18)</f>
+        <v>11.967946328736488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>2132</v>
+      </c>
+      <c r="C19">
+        <v>2.04</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(B7/B19)</f>
+        <v>11.007035647279549</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>2478</v>
+      </c>
+      <c r="H19">
+        <v>1.76</v>
+      </c>
+      <c r="I19">
+        <f>AVERAGE(G7/G19)</f>
+        <v>12.958030669895077</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>2118</v>
+      </c>
+      <c r="C20">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(B7/B20)</f>
+        <v>11.079792256846082</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>2301</v>
+      </c>
+      <c r="H20">
+        <v>1.89</v>
+      </c>
+      <c r="I20">
+        <f>AVERAGE(G7/G20)</f>
+        <v>13.954802259887005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>2096</v>
+      </c>
+      <c r="C21">
+        <v>2.08</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE(B7/B21)</f>
+        <v>11.196087786259541</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>2148</v>
+      </c>
+      <c r="H21">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(G7/G21)</f>
+        <v>14.948789571694599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>2067</v>
+      </c>
+      <c r="C22">
+        <v>2.1</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(B7/B22)</f>
+        <v>11.353168843734881</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>2012</v>
+      </c>
+      <c r="H22">
+        <v>2.16</v>
+      </c>
+      <c r="I22">
+        <f>AVERAGE(G7/G22)</f>
+        <v>15.959244532803181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>2033</v>
+      </c>
+      <c r="C23">
+        <v>2.14</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(B7/B23)</f>
+        <v>11.543039842597148</v>
+      </c>
+      <c r="F23">
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <v>1895</v>
+      </c>
+      <c r="H23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I23">
+        <f>AVERAGE(G7/G23)</f>
+        <v>16.944591029023748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>1992</v>
+      </c>
+      <c r="C24">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D24">
+        <f>AVERAGE(B7/B24)</f>
+        <v>11.780622489959839</v>
+      </c>
+      <c r="F24">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <v>1790</v>
+      </c>
+      <c r="H24">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I24">
+        <f>AVERAGE(G7/G24)</f>
+        <v>17.938547486033521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>1946</v>
+      </c>
+      <c r="C25">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D25">
+        <f>AVERAGE(B7/B25)</f>
+        <v>12.059095580678315</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>1696</v>
+      </c>
+      <c r="H25">
+        <v>2.56</v>
+      </c>
+      <c r="I25">
+        <f>AVERAGE(G7/G25)</f>
+        <v>18.932783018867923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>1914</v>
+      </c>
+      <c r="C26">
+        <v>2.27</v>
+      </c>
+      <c r="D26">
+        <f>AVERAGE(B7/B26)</f>
+        <v>12.260710553814002</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>1610</v>
+      </c>
+      <c r="H26">
+        <v>2.7</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(G7/G26)</f>
+        <v>19.944099378881987</v>
+      </c>
+      <c r="J26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>1883</v>
+      </c>
+      <c r="C27">
+        <v>2.31</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(B7/B27)</f>
+        <v>12.462559745087626</v>
+      </c>
+      <c r="F27">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>1534</v>
+      </c>
+      <c r="H27">
+        <v>2.84</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(G7/G27)</f>
+        <v>20.932203389830509</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>1848</v>
+      </c>
+      <c r="C28">
+        <v>2.35</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(B7/B28)</f>
+        <v>12.698593073593074</v>
+      </c>
+      <c r="F28">
+        <v>22</v>
+      </c>
+      <c r="G28">
+        <v>1465</v>
+      </c>
+      <c r="H28">
+        <v>2.97</v>
+      </c>
+      <c r="I28">
+        <f>AVERAGE(G7/G28)</f>
+        <v>21.918088737201366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>1819</v>
+      </c>
+      <c r="C29">
+        <v>2.39</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(B7/B29)</f>
+        <v>12.901044529961517</v>
+      </c>
+      <c r="F29">
+        <v>23</v>
+      </c>
+      <c r="G29">
+        <v>1401</v>
+      </c>
+      <c r="H29">
+        <v>3.1</v>
+      </c>
+      <c r="I29">
+        <f>AVERAGE(G7/G29)</f>
+        <v>22.919343326195573</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>1794</v>
+      </c>
+      <c r="C30">
+        <v>2.42</v>
+      </c>
+      <c r="D30">
+        <f>AVERAGE(B7/B30)</f>
+        <v>13.080824972129321</v>
+      </c>
+      <c r="F30">
+        <v>24</v>
+      </c>
+      <c r="G30">
+        <v>1342</v>
+      </c>
+      <c r="H30">
+        <v>3.24</v>
+      </c>
+      <c r="I30">
+        <f>AVERAGE(G7/G30)</f>
+        <v>23.926974664679584</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>1795</v>
+      </c>
+      <c r="C31">
+        <v>2.42</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(B7/B31)</f>
+        <v>13.073537604456824</v>
+      </c>
+      <c r="F31">
+        <v>25</v>
+      </c>
+      <c r="G31">
+        <v>1290</v>
+      </c>
+      <c r="H31">
+        <v>3.37</v>
+      </c>
+      <c r="I31">
+        <f>AVERAGE(G7/G31)</f>
+        <v>24.891472868217054</v>
+      </c>
+      <c r="J31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>1793</v>
+      </c>
+      <c r="C32">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D32">
+        <f>AVERAGE(B7/B32)</f>
+        <v>13.088120468488567</v>
+      </c>
+      <c r="F32">
+        <v>26</v>
+      </c>
+      <c r="G32">
+        <v>1240</v>
+      </c>
+      <c r="H32">
+        <v>3.51</v>
+      </c>
+      <c r="I32">
+        <f>AVERAGE(G7/G32)</f>
+        <v>25.89516129032258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>1794</v>
+      </c>
+      <c r="C33">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D33">
+        <f>AVERAGE(B7/B33)</f>
+        <v>13.080824972129321</v>
+      </c>
+      <c r="F33">
+        <v>27</v>
+      </c>
+      <c r="G33">
+        <v>1193</v>
+      </c>
+      <c r="H33">
+        <v>3.64</v>
+      </c>
+      <c r="I33">
+        <f>AVERAGE(G7/G33)</f>
+        <v>26.91533948030176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>1794</v>
+      </c>
+      <c r="C34">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D34">
+        <f>AVERAGE(B7/B34)</f>
+        <v>13.080824972129321</v>
+      </c>
+      <c r="F34">
+        <v>28</v>
+      </c>
+      <c r="G34">
+        <v>1150</v>
+      </c>
+      <c r="H34">
+        <v>3.78</v>
+      </c>
+      <c r="I34">
+        <f>AVERAGE(G7/G34)</f>
+        <v>27.921739130434784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>1794</v>
+      </c>
+      <c r="C35">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D35">
+        <f>AVERAGE(B7/B35)</f>
+        <v>13.080824972129321</v>
+      </c>
+      <c r="F35">
+        <v>29</v>
+      </c>
+      <c r="G35">
+        <v>1112</v>
+      </c>
+      <c r="H35">
+        <v>3.91</v>
+      </c>
+      <c r="I35">
+        <f>AVERAGE(G7/G35)</f>
+        <v>28.875899280575538</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>1793</v>
+      </c>
+      <c r="C36">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D36">
+        <f>AVERAGE(B7/B36)</f>
+        <v>13.088120468488567</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <f>AVERAGE(1076,1075)</f>
+        <v>1075.5</v>
+      </c>
+      <c r="H36">
+        <v>4.0449999999999999</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(G7/G36)</f>
+        <v>29.855880985588097</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>31</v>
+      </c>
+      <c r="G37">
+        <v>1042</v>
+      </c>
+      <c r="H37">
+        <v>4.18</v>
+      </c>
+      <c r="I37">
+        <f>AVERAGE(G7/G37)</f>
+        <v>30.815738963531668</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <v>1008</v>
+      </c>
+      <c r="H38">
+        <v>4.32</v>
+      </c>
+      <c r="I38">
+        <f>AVERAGE(G7/G38)</f>
+        <v>31.855158730158731</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>33</v>
+      </c>
+      <c r="G39">
+        <v>979</v>
+      </c>
+      <c r="H39">
+        <v>4.45</v>
+      </c>
+      <c r="I39">
+        <f>AVERAGE(G7/G39)</f>
+        <v>32.798774259448415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>39</v>
+      </c>
+      <c r="G45">
+        <v>847</v>
+      </c>
+      <c r="H45">
+        <v>5.14</v>
+      </c>
+      <c r="I45">
+        <f>AVERAGE(G7/G45)</f>
+        <v>37.91027154663518</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>40</v>
+      </c>
+      <c r="G46">
+        <v>835</v>
+      </c>
+      <c r="H46">
+        <v>5.21</v>
+      </c>
+      <c r="I46">
+        <f>AVERAGE(G7/G46)</f>
+        <v>38.455089820359284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>50</v>
+      </c>
+      <c r="G56">
+        <v>792</v>
+      </c>
+      <c r="H56">
+        <v>5.49</v>
+      </c>
+      <c r="I56">
+        <f>AVERAGE(G7/G56)</f>
+        <v>40.542929292929294</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>60</v>
+      </c>
+      <c r="G66">
+        <v>766</v>
+      </c>
+      <c r="H66">
+        <v>5.68</v>
+      </c>
+      <c r="I66">
+        <f>AVERAGE(G7/G66)</f>
+        <v>41.919060052219322</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>64</v>
+      </c>
+      <c r="G70">
+        <v>756</v>
+      </c>
+      <c r="H70">
+        <v>5.75</v>
+      </c>
+      <c r="I70">
+        <f>AVERAGE(G7/G70)</f>
+        <v>42.473544973544975</v>
+      </c>
+    </row>
+    <row r="71" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>70</v>
+      </c>
+      <c r="G76">
+        <v>744</v>
+      </c>
+      <c r="H76">
+        <v>5.85</v>
+      </c>
+      <c r="I76">
+        <f>AVERAGE(G7/G76)</f>
+        <v>43.158602150537632</v>
+      </c>
+    </row>
+    <row r="77" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>79</v>
+      </c>
+      <c r="G85">
+        <v>729</v>
+      </c>
+      <c r="H85">
+        <v>5.97</v>
+      </c>
+      <c r="I85">
+        <f>AVERAGE(G7/G85)</f>
+        <v>44.046639231824415</v>
+      </c>
+    </row>
+    <row r="86" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>80</v>
+      </c>
+      <c r="G86">
+        <v>726</v>
+      </c>
+      <c r="H86">
+        <v>5.99</v>
+      </c>
+      <c r="I86">
+        <f>AVERAGE(G7/G86)</f>
+        <v>44.228650137741049</v>
+      </c>
+    </row>
+    <row r="87" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>81</v>
+      </c>
+      <c r="G87">
+        <v>725</v>
+      </c>
+      <c r="H87">
+        <v>6</v>
+      </c>
+      <c r="I87">
+        <f>AVERAGE(G7/G87)</f>
+        <v>44.289655172413795</v>
+      </c>
+    </row>
+    <row r="88" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>90</v>
+      </c>
+      <c r="G96">
+        <v>723</v>
+      </c>
+      <c r="H96">
+        <v>6.02</v>
+      </c>
+      <c r="I96">
+        <f>AVERAGE(G7/G96)</f>
+        <v>44.412171507607191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
@@ -22502,1158 +24334,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I96"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>23467</v>
-      </c>
-      <c r="C7">
-        <v>0.185</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>32110</v>
-      </c>
-      <c r="H7">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>11722</v>
-      </c>
-      <c r="C8">
-        <v>0.371</v>
-      </c>
-      <c r="D8">
-        <f>AVERAGE(B7/B8)</f>
-        <v>2.001962122504692</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>16059</v>
-      </c>
-      <c r="H8">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="I8">
-        <f>AVERAGE(G7/G8)</f>
-        <v>1.9995018369761504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>7842</v>
-      </c>
-      <c r="C9">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="D9">
-        <f>AVERAGE(B7/B9)</f>
-        <v>2.9924764090793166</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>10707</v>
-      </c>
-      <c r="H9">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="I9">
-        <f>AVERAGE(G7/G9)</f>
-        <v>2.9989726347249461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>5902</v>
-      </c>
-      <c r="C10">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="D10">
-        <f>AVERAGE(B7/B10)</f>
-        <v>3.9761097932904099</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>8045</v>
-      </c>
-      <c r="H10">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="I10">
-        <f>AVERAGE(G7/G10)</f>
-        <v>3.9912989434431325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>4813</v>
-      </c>
-      <c r="C11">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="D11">
-        <f>AVERAGE(B7/B11)</f>
-        <v>4.8757531685019737</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>6457</v>
-      </c>
-      <c r="H11">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="I11">
-        <f>AVERAGE(G7/G11)</f>
-        <v>4.9728976304785508</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>4042</v>
-      </c>
-      <c r="C12">
-        <v>1.08</v>
-      </c>
-      <c r="D12">
-        <f>AVERAGE(B7/B12)</f>
-        <v>5.8057892132607618</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>5382</v>
-      </c>
-      <c r="H12">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="I12">
-        <f>AVERAGE(G7/G12)</f>
-        <v>5.9661835748792269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>3476</v>
-      </c>
-      <c r="C13">
-        <v>1.25</v>
-      </c>
-      <c r="D13">
-        <f>AVERAGE(B7/B13)</f>
-        <v>6.7511507479861912</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-      <c r="G13">
-        <v>4608</v>
-      </c>
-      <c r="H13">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="I13">
-        <f>AVERAGE(G7/G13)</f>
-        <v>6.9683159722222223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>3048</v>
-      </c>
-      <c r="C14">
-        <v>1.43</v>
-      </c>
-      <c r="D14">
-        <f>AVERAGE(B7/B14)</f>
-        <v>7.6991469816272966</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-      <c r="G14">
-        <v>4027</v>
-      </c>
-      <c r="H14">
-        <v>1.08</v>
-      </c>
-      <c r="I14">
-        <f>AVERAGE(G7/G14)</f>
-        <v>7.9736776756890988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>2756</v>
-      </c>
-      <c r="C15">
-        <v>1.58</v>
-      </c>
-      <c r="D15">
-        <f>AVERAGE(B7/B15)</f>
-        <v>8.5148766328011618</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>2507</v>
-      </c>
-      <c r="C16">
-        <v>1.74</v>
-      </c>
-      <c r="D16">
-        <f>AVERAGE(B7/B16)</f>
-        <v>9.3605903470283209</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16">
-        <v>3224</v>
-      </c>
-      <c r="H16">
-        <v>1.35</v>
-      </c>
-      <c r="I16">
-        <f>AVERAGE(G7/G16)</f>
-        <v>9.9596774193548381</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>2293</v>
-      </c>
-      <c r="C17">
-        <v>1.9</v>
-      </c>
-      <c r="D17">
-        <f>AVERAGE(B7/B17)</f>
-        <v>10.234191016136066</v>
-      </c>
-      <c r="F17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>2137</v>
-      </c>
-      <c r="C18">
-        <v>2.04</v>
-      </c>
-      <c r="D18">
-        <f>AVERAGE(B7/B18)</f>
-        <v>10.981282171268132</v>
-      </c>
-      <c r="F18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>2132</v>
-      </c>
-      <c r="C19">
-        <v>2.04</v>
-      </c>
-      <c r="D19">
-        <f>AVERAGE(B7/B19)</f>
-        <v>11.007035647279549</v>
-      </c>
-      <c r="F19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>2118</v>
-      </c>
-      <c r="C20">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="D20">
-        <f>AVERAGE(B7/B20)</f>
-        <v>11.079792256846082</v>
-      </c>
-      <c r="F20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>2096</v>
-      </c>
-      <c r="C21">
-        <v>2.08</v>
-      </c>
-      <c r="D21">
-        <f>AVERAGE(B7/B21)</f>
-        <v>11.196087786259541</v>
-      </c>
-      <c r="F21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>2067</v>
-      </c>
-      <c r="C22">
-        <v>2.1</v>
-      </c>
-      <c r="D22">
-        <f>AVERAGE(B7/B22)</f>
-        <v>11.353168843734881</v>
-      </c>
-      <c r="F22">
-        <v>16</v>
-      </c>
-      <c r="G22">
-        <v>2012</v>
-      </c>
-      <c r="H22">
-        <v>2.16</v>
-      </c>
-      <c r="I22">
-        <f>AVERAGE(G7/G22)</f>
-        <v>15.959244532803181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>2033</v>
-      </c>
-      <c r="C23">
-        <v>2.14</v>
-      </c>
-      <c r="D23">
-        <f>AVERAGE(B7/B23)</f>
-        <v>11.543039842597148</v>
-      </c>
-      <c r="F23">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>1992</v>
-      </c>
-      <c r="C24">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="D24">
-        <f>AVERAGE(B7/B24)</f>
-        <v>11.780622489959839</v>
-      </c>
-      <c r="F24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>1946</v>
-      </c>
-      <c r="C25">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="D25">
-        <f>AVERAGE(B7/B25)</f>
-        <v>12.059095580678315</v>
-      </c>
-      <c r="F25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>1914</v>
-      </c>
-      <c r="C26">
-        <v>2.27</v>
-      </c>
-      <c r="D26">
-        <f>AVERAGE(B7/B26)</f>
-        <v>12.260710553814002</v>
-      </c>
-      <c r="F26">
-        <v>20</v>
-      </c>
-      <c r="G26">
-        <v>1610</v>
-      </c>
-      <c r="H26">
-        <v>2.7</v>
-      </c>
-      <c r="I26">
-        <f>AVERAGE(G7/G26)</f>
-        <v>19.944099378881987</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>21</v>
-      </c>
-      <c r="B27">
-        <v>1883</v>
-      </c>
-      <c r="C27">
-        <v>2.31</v>
-      </c>
-      <c r="D27">
-        <f>AVERAGE(B7/B27)</f>
-        <v>12.462559745087626</v>
-      </c>
-      <c r="F27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>22</v>
-      </c>
-      <c r="B28">
-        <v>1848</v>
-      </c>
-      <c r="C28">
-        <v>2.35</v>
-      </c>
-      <c r="D28">
-        <f>AVERAGE(B7/B28)</f>
-        <v>12.698593073593074</v>
-      </c>
-      <c r="F28">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>23</v>
-      </c>
-      <c r="B29">
-        <v>1819</v>
-      </c>
-      <c r="C29">
-        <v>2.39</v>
-      </c>
-      <c r="D29">
-        <f>AVERAGE(B7/B29)</f>
-        <v>12.901044529961517</v>
-      </c>
-      <c r="F29">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>24</v>
-      </c>
-      <c r="B30">
-        <v>1794</v>
-      </c>
-      <c r="C30">
-        <v>2.42</v>
-      </c>
-      <c r="D30">
-        <f>AVERAGE(B7/B30)</f>
-        <v>13.080824972129321</v>
-      </c>
-      <c r="F30">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>25</v>
-      </c>
-      <c r="B31">
-        <v>1795</v>
-      </c>
-      <c r="C31">
-        <v>2.42</v>
-      </c>
-      <c r="D31">
-        <f>AVERAGE(B7/B31)</f>
-        <v>13.073537604456824</v>
-      </c>
-      <c r="F31">
-        <v>25</v>
-      </c>
-      <c r="G31">
-        <v>1290</v>
-      </c>
-      <c r="H31">
-        <v>3.37</v>
-      </c>
-      <c r="I31">
-        <f>AVERAGE(G7/G31)</f>
-        <v>24.891472868217054</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>26</v>
-      </c>
-      <c r="B32">
-        <v>1793</v>
-      </c>
-      <c r="C32">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="D32">
-        <f>AVERAGE(B7/B32)</f>
-        <v>13.088120468488567</v>
-      </c>
-      <c r="F32">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>27</v>
-      </c>
-      <c r="B33">
-        <v>1794</v>
-      </c>
-      <c r="C33">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="D33">
-        <f>AVERAGE(B7/B33)</f>
-        <v>13.080824972129321</v>
-      </c>
-      <c r="F33">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>28</v>
-      </c>
-      <c r="B34">
-        <v>1794</v>
-      </c>
-      <c r="C34">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="D34">
-        <f>AVERAGE(B7/B34)</f>
-        <v>13.080824972129321</v>
-      </c>
-      <c r="F34">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>29</v>
-      </c>
-      <c r="B35">
-        <v>1794</v>
-      </c>
-      <c r="C35">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="D35">
-        <f>AVERAGE(B7/B35)</f>
-        <v>13.080824972129321</v>
-      </c>
-      <c r="F35">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>30</v>
-      </c>
-      <c r="B36">
-        <v>1793</v>
-      </c>
-      <c r="C36">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="D36">
-        <f>AVERAGE(B7/B36)</f>
-        <v>13.088120468488567</v>
-      </c>
-      <c r="F36">
-        <v>30</v>
-      </c>
-      <c r="G36">
-        <v>1076</v>
-      </c>
-      <c r="H36">
-        <v>4.04</v>
-      </c>
-      <c r="I36">
-        <f>AVERAGE(G7/G36)</f>
-        <v>29.842007434944239</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F37">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F38">
-        <v>32</v>
-      </c>
-      <c r="G38">
-        <v>1008</v>
-      </c>
-      <c r="H38">
-        <v>4.32</v>
-      </c>
-      <c r="I38">
-        <f>AVERAGE(G7/G38)</f>
-        <v>31.855158730158731</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F39">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F40">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F41">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F42">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F43">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F44">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F45">
-        <v>39</v>
-      </c>
-      <c r="G45">
-        <v>847</v>
-      </c>
-      <c r="H45">
-        <v>5.14</v>
-      </c>
-      <c r="I45">
-        <f>AVERAGE(G7/G45)</f>
-        <v>37.91027154663518</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F46">
-        <v>40</v>
-      </c>
-      <c r="G46">
-        <v>835</v>
-      </c>
-      <c r="H46">
-        <v>5.21</v>
-      </c>
-      <c r="I46">
-        <f>AVERAGE(G7/G46)</f>
-        <v>38.455089820359284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F47">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F48">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F49">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F50">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F51">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F52">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F53">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F54">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F55">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F56">
-        <v>50</v>
-      </c>
-      <c r="G56">
-        <v>792</v>
-      </c>
-      <c r="H56">
-        <v>5.49</v>
-      </c>
-      <c r="I56">
-        <f>AVERAGE(G7/G56)</f>
-        <v>40.542929292929294</v>
-      </c>
-    </row>
-    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F57">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F58">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F59">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F60">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F61">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F62">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F63">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F64">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F65">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F66">
-        <v>60</v>
-      </c>
-      <c r="G66">
-        <v>766</v>
-      </c>
-      <c r="H66">
-        <v>5.68</v>
-      </c>
-      <c r="I66">
-        <f>AVERAGE(G7/G66)</f>
-        <v>41.919060052219322</v>
-      </c>
-    </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F67">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F68">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F69">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F70">
-        <v>64</v>
-      </c>
-      <c r="G70">
-        <v>756</v>
-      </c>
-      <c r="H70">
-        <v>5.75</v>
-      </c>
-      <c r="I70">
-        <f>AVERAGE(G7/G70)</f>
-        <v>42.473544973544975</v>
-      </c>
-    </row>
-    <row r="71" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F71">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F72">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F73">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F74">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F75">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F76">
-        <v>70</v>
-      </c>
-      <c r="G76">
-        <v>744</v>
-      </c>
-      <c r="H76">
-        <v>5.85</v>
-      </c>
-      <c r="I76">
-        <f>AVERAGE(G7/G76)</f>
-        <v>43.158602150537632</v>
-      </c>
-    </row>
-    <row r="77" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F77">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F78">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="79" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F79">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="80" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F80">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F81">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F82">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F83">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F84">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F85">
-        <v>79</v>
-      </c>
-      <c r="G85">
-        <v>729</v>
-      </c>
-      <c r="H85">
-        <v>5.97</v>
-      </c>
-      <c r="I85">
-        <f>AVERAGE(G7/G85)</f>
-        <v>44.046639231824415</v>
-      </c>
-    </row>
-    <row r="86" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F86">
-        <v>80</v>
-      </c>
-      <c r="G86">
-        <v>726</v>
-      </c>
-      <c r="H86">
-        <v>5.99</v>
-      </c>
-      <c r="I86">
-        <f>AVERAGE(G7/G86)</f>
-        <v>44.228650137741049</v>
-      </c>
-    </row>
-    <row r="87" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F87">
-        <v>81</v>
-      </c>
-      <c r="G87">
-        <v>725</v>
-      </c>
-      <c r="H87">
-        <v>6</v>
-      </c>
-      <c r="I87">
-        <f>AVERAGE(G7/G87)</f>
-        <v>44.289655172413795</v>
-      </c>
-    </row>
-    <row r="88" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F88">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="89" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F89">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F90">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="91" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F91">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F92">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="93" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F93">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="94" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F94">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="95" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F95">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F96">
-        <v>90</v>
-      </c>
-      <c r="G96">
-        <v>723</v>
-      </c>
-      <c r="H96">
-        <v>6.02</v>
-      </c>
-      <c r="I96">
-        <f>AVERAGE(G7/G96)</f>
-        <v>44.412171507607191</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23991,7 +24677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -24773,7 +25459,7 @@
         <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
@@ -25851,8 +26537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25867,6 +26553,18 @@
         <v>34</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <f>SUM(B7:B36)</f>
+        <v>286652.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>21</v>
@@ -26921,7 +27619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>

--- a/12_40CoreBench.xlsx
+++ b/12_40CoreBench.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="smithwa" sheetId="12" r:id="rId1"/>
@@ -1373,11 +1373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141503104"/>
-        <c:axId val="141521280"/>
+        <c:axId val="191659392"/>
+        <c:axId val="191669376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141503104"/>
+        <c:axId val="191659392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,7 +1387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141521280"/>
+        <c:crossAx val="191669376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1395,7 +1395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141521280"/>
+        <c:axId val="191669376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +1406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141503104"/>
+        <c:crossAx val="191659392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2571,11 +2571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140803072"/>
-        <c:axId val="140825344"/>
+        <c:axId val="192020480"/>
+        <c:axId val="192022016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140803072"/>
+        <c:axId val="192020480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2585,7 +2585,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140825344"/>
+        <c:crossAx val="192022016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2593,7 +2593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140825344"/>
+        <c:axId val="192022016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2604,14 +2604,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140803072"/>
+        <c:crossAx val="192020480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3232,11 +3231,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142031488"/>
-        <c:axId val="142049664"/>
+        <c:axId val="192253312"/>
+        <c:axId val="192263296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142031488"/>
+        <c:axId val="192253312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3246,7 +3245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142049664"/>
+        <c:crossAx val="192263296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3254,7 +3253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142049664"/>
+        <c:axId val="192263296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3265,14 +3264,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142031488"/>
+        <c:crossAx val="192253312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3902,11 +3900,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142068736"/>
-        <c:axId val="142082816"/>
+        <c:axId val="192180224"/>
+        <c:axId val="192181760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142068736"/>
+        <c:axId val="192180224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,7 +3913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142082816"/>
+        <c:crossAx val="192181760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3923,7 +3921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142082816"/>
+        <c:axId val="192181760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3934,14 +3932,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142068736"/>
+        <c:crossAx val="192180224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4451,11 +4448,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142130560"/>
-        <c:axId val="142132352"/>
+        <c:axId val="192283008"/>
+        <c:axId val="192284544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142130560"/>
+        <c:axId val="192283008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4464,7 +4461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142132352"/>
+        <c:crossAx val="192284544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4472,7 +4469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142132352"/>
+        <c:axId val="192284544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4483,14 +4480,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142130560"/>
+        <c:crossAx val="192283008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5229,11 +5225,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="141766656"/>
-        <c:axId val="141768192"/>
+        <c:axId val="192313600"/>
+        <c:axId val="192315392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141766656"/>
+        <c:axId val="192313600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5242,7 +5238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141768192"/>
+        <c:crossAx val="192315392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5250,7 +5246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141768192"/>
+        <c:axId val="192315392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5261,7 +5257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141766656"/>
+        <c:crossAx val="192313600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5797,11 +5793,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="141804672"/>
-        <c:axId val="141806208"/>
+        <c:axId val="192343040"/>
+        <c:axId val="191963904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141804672"/>
+        <c:axId val="192343040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5810,7 +5806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141806208"/>
+        <c:crossAx val="191963904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5818,7 +5814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141806208"/>
+        <c:axId val="191963904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5829,7 +5825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141804672"/>
+        <c:crossAx val="192343040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6131,11 +6127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141835648"/>
-        <c:axId val="141857920"/>
+        <c:axId val="192018304"/>
+        <c:axId val="192019840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141835648"/>
+        <c:axId val="192018304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6144,7 +6140,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141857920"/>
+        <c:crossAx val="192019840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6152,7 +6148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141857920"/>
+        <c:axId val="192019840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6163,14 +6159,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141835648"/>
+        <c:crossAx val="192018304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6482,11 +6477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141878784"/>
-        <c:axId val="141880320"/>
+        <c:axId val="190480384"/>
+        <c:axId val="190481920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141878784"/>
+        <c:axId val="190480384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6495,7 +6490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141880320"/>
+        <c:crossAx val="190481920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6503,7 +6498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141880320"/>
+        <c:axId val="190481920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6514,14 +6509,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141878784"/>
+        <c:crossAx val="190480384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7223,11 +7217,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140621312"/>
-        <c:axId val="140622848"/>
+        <c:axId val="190351616"/>
+        <c:axId val="190369792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140621312"/>
+        <c:axId val="190351616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7236,7 +7230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140622848"/>
+        <c:crossAx val="190369792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7244,7 +7238,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140622848"/>
+        <c:axId val="190369792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7255,14 +7249,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140621312"/>
+        <c:crossAx val="190351616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11830,7 +11823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12:D17"/>
     </sheetView>
   </sheetViews>
@@ -12861,8 +12854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13304,6 +13297,16 @@
       <c r="A26">
         <v>20</v>
       </c>
+      <c r="B26">
+        <v>9157</v>
+      </c>
+      <c r="C26">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="D26">
+        <f>AVERAGE(B7/B26)</f>
+        <v>3.2899421207819155</v>
+      </c>
       <c r="F26">
         <v>20</v>
       </c>
@@ -13321,6 +13324,16 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
+      </c>
+      <c r="B27">
+        <v>8898</v>
+      </c>
+      <c r="C27">
+        <v>0.52</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(B7/B27)</f>
+        <v>3.3857046527309507</v>
       </c>
       <c r="F27">
         <v>21</v>
@@ -18105,27 +18118,27 @@
         <v>7.4451009354997542</v>
       </c>
       <c r="I34">
-        <f>(B34/12)</f>
+        <f t="shared" ref="I34:J36" si="13">(B34/12)</f>
         <v>0.68051305130513062</v>
       </c>
       <c r="J34">
-        <f>(C34/12)</f>
+        <f t="shared" si="13"/>
         <v>0.67904616490030534</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:O35" si="13">(E34/12)</f>
+        <f t="shared" ref="L34:O35" si="14">(E34/12)</f>
         <v>0.74253584757415048</v>
       </c>
       <c r="M34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.76214717741935489</v>
       </c>
       <c r="N34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.78039843104872009</v>
       </c>
       <c r="O34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.62042507795831281</v>
       </c>
       <c r="P34" t="s">
@@ -18164,27 +18177,27 @@
         <v>8.7185861332297527</v>
       </c>
       <c r="I35">
-        <f>(B35/12)</f>
+        <f t="shared" si="13"/>
         <v>0.50181086519114693</v>
       </c>
       <c r="J35">
-        <f>(C35/12)</f>
+        <f t="shared" si="13"/>
         <v>0.55885867941440093</v>
       </c>
       <c r="L35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.71393129770992358</v>
       </c>
       <c r="M35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.72881355932203384</v>
       </c>
       <c r="N35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.7295241809672387</v>
       </c>
       <c r="O35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.72654884443581269</v>
       </c>
       <c r="P35" t="s">
@@ -18223,27 +18236,27 @@
         <v>4.132510288065844</v>
       </c>
       <c r="I36">
-        <f>(B36/12)</f>
+        <f t="shared" si="13"/>
         <v>0.1893288084464555</v>
       </c>
       <c r="J36">
-        <f>(C36/12)</f>
+        <f t="shared" si="13"/>
         <v>0.20308202556220678</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36" si="14">(E36/12)</f>
+        <f t="shared" ref="L36" si="15">(E36/12)</f>
         <v>0.2994036970781157</v>
       </c>
       <c r="M36">
-        <f t="shared" ref="M36" si="15">(F36/12)</f>
+        <f t="shared" ref="M36" si="16">(F36/12)</f>
         <v>0.30913680581209207</v>
       </c>
       <c r="N36">
-        <f t="shared" ref="N36" si="16">(G36/12)</f>
+        <f t="shared" ref="N36" si="17">(G36/12)</f>
         <v>0.31790553374699254</v>
       </c>
       <c r="O36">
-        <f t="shared" ref="O36" si="17">(H36/12)</f>
+        <f t="shared" ref="O36" si="18">(H36/12)</f>
         <v>0.34437585733882031</v>
       </c>
       <c r="P36" t="s">
